--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -6332,7 +6332,7 @@
   <dimension ref="A1:F1070"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A722" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C749" activeCellId="0" sqref="C749"/>
+      <selection pane="topLeft" activeCell="F753" activeCellId="0" sqref="F753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16819,7 +16819,7 @@
         <v>1437</v>
       </c>
       <c r="B748" s="0" t="n">
-        <v>345050</v>
+        <v>345040</v>
       </c>
       <c r="C748" s="0" t="s">
         <v>1438</v>

--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="2071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="2072">
   <si>
     <t xml:space="preserve">db_name</t>
   </si>
@@ -6089,6 +6089,9 @@
   </si>
   <si>
     <t xml:space="preserve">witori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf</t>
   </si>
   <si>
     <t xml:space="preserve">wolf</t>
@@ -6331,8 +6334,8 @@
   </sheetPr>
   <dimension ref="A1:F1070"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A722" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F753" activeCellId="0" sqref="F753"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1017" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1044" activeCellId="0" sqref="C1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20946,16 +20949,16 @@
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1043" s="0" t="s">
-        <v>4</v>
+        <v>2023</v>
+      </c>
+      <c r="B1043" s="0" t="n">
+        <v>353020</v>
       </c>
       <c r="C1043" s="0" t="s">
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="D1043" s="0" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20969,63 +20972,63 @@
         <v>4</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B1045" s="0" t="n">
         <v>212051</v>
       </c>
       <c r="C1045" s="0" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B1046" s="0" t="n">
         <v>221151</v>
       </c>
       <c r="C1046" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="D1046" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B1047" s="0" t="n">
         <v>312100</v>
       </c>
       <c r="C1047" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D1047" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B1048" s="0" t="n">
         <v>358049</v>
       </c>
       <c r="C1048" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D1048" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21039,49 +21042,49 @@
         <v>4</v>
       </c>
       <c r="D1049" s="0" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B1050" s="0" t="n">
         <v>358022</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D1050" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B1051" s="0" t="n">
         <v>300021</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="D1051" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B1052" s="0" t="n">
         <v>325010</v>
       </c>
       <c r="C1052" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D1052" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21095,7 +21098,7 @@
         <v>4</v>
       </c>
       <c r="D1053" s="0" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21109,7 +21112,7 @@
         <v>4</v>
       </c>
       <c r="D1054" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21123,7 +21126,7 @@
         <v>4</v>
       </c>
       <c r="D1055" s="0" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21137,21 +21140,21 @@
         <v>4</v>
       </c>
       <c r="D1056" s="0" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B1057" s="0" t="n">
         <v>354050</v>
       </c>
       <c r="C1057" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="D1057" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21165,21 +21168,21 @@
         <v>4</v>
       </c>
       <c r="D1058" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B1059" s="0" t="n">
         <v>311210</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="D1059" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21193,147 +21196,147 @@
         <v>4</v>
       </c>
       <c r="D1060" s="0" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B1061" s="0" t="n">
         <v>300480</v>
       </c>
       <c r="C1061" s="0" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="D1061" s="0" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B1062" s="0" t="n">
         <v>344111</v>
       </c>
       <c r="C1062" s="0" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="D1062" s="0" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B1063" s="0" t="n">
         <v>300124</v>
       </c>
       <c r="C1063" s="0" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D1063" s="0" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B1064" s="0" t="n">
         <v>290180</v>
       </c>
       <c r="C1064" s="0" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="D1064" s="0" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B1065" s="0" t="n">
         <v>300040</v>
       </c>
       <c r="C1065" s="0" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="D1065" s="0" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B1066" s="0" t="n">
         <v>300120</v>
       </c>
       <c r="C1066" s="0" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D1066" s="0" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B1067" s="0" t="n">
         <v>300242</v>
       </c>
       <c r="C1067" s="0" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D1067" s="0" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B1068" s="0" t="n">
         <v>341061</v>
       </c>
       <c r="C1068" s="0" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="D1068" s="0" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B1069" s="0" t="n">
         <v>221021</v>
       </c>
       <c r="C1069" s="0" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="D1069" s="0" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B1070" s="0" t="n">
         <v>327120</v>
       </c>
       <c r="C1070" s="0" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D1070" s="0" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
   </sheetData>

--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="2072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="2074">
   <si>
     <t xml:space="preserve">db_name</t>
   </si>
@@ -1772,6 +1772,12 @@
   </si>
   <si>
     <t xml:space="preserve">fourpeaked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fournaise, Piton de la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fournaise</t>
   </si>
   <si>
     <t xml:space="preserve">Fremrinamur</t>
@@ -6245,7 +6251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6266,6 +6272,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6310,9 +6322,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6332,10 +6348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1070"/>
+  <dimension ref="A1:F1071"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1017" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1044" activeCellId="0" sqref="C1044"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A252" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B293" activeCellId="0" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10463,29 +10479,29 @@
         <v>583</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>373070</v>
+        <v>233020</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>585</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>373070</v>
+      </c>
+      <c r="C296" s="0" t="s">
         <v>587</v>
-      </c>
-      <c r="B296" s="0" t="n">
-        <v>342090</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>588</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>588</v>
@@ -10496,7 +10512,7 @@
         <v>589</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>383050</v>
+        <v>342090</v>
       </c>
       <c r="C297" s="0" t="s">
         <v>590</v>
@@ -10507,16 +10523,16 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>4</v>
+        <v>591</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>383050</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>4</v>
+        <v>592</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10530,18 +10546,18 @@
         <v>4</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="B300" s="0" t="n">
-        <v>221150</v>
+        <v>4</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>594</v>
+        <v>4</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>594</v>
@@ -10552,7 +10568,7 @@
         <v>595</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>221050</v>
+        <v>221150</v>
       </c>
       <c r="C301" s="0" t="s">
         <v>596</v>
@@ -10566,7 +10582,7 @@
         <v>597</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>351080</v>
+        <v>221050</v>
       </c>
       <c r="C302" s="0" t="s">
         <v>598</v>
@@ -10580,7 +10596,7 @@
         <v>599</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>263140</v>
+        <v>351080</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>600</v>
@@ -10594,24 +10610,24 @@
         <v>601</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>268060</v>
+        <v>263140</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>602</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>268060</v>
+      </c>
+      <c r="C305" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="B305" s="0" t="n">
-        <v>300210</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="D305" s="0" t="s">
         <v>605</v>
@@ -10622,7 +10638,7 @@
         <v>606</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>268040</v>
+        <v>300210</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>607</v>
@@ -10636,7 +10652,7 @@
         <v>608</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>311070</v>
+        <v>268040</v>
       </c>
       <c r="C307" s="0" t="s">
         <v>609</v>
@@ -10650,7 +10666,7 @@
         <v>610</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>320200</v>
+        <v>311070</v>
       </c>
       <c r="C308" s="0" t="s">
         <v>611</v>
@@ -10661,27 +10677,27 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>4</v>
+        <v>612</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>320200</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="B310" s="0" t="n">
-        <v>221230</v>
+        <v>4</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>614</v>
+        <v>4</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>614</v>
@@ -10692,7 +10708,7 @@
         <v>615</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>263060</v>
+        <v>221230</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>616</v>
@@ -10703,27 +10719,27 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>4</v>
+        <v>617</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>263060</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>4</v>
+        <v>618</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="B313" s="0" t="n">
-        <v>300380</v>
+        <v>4</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>619</v>
+        <v>4</v>
       </c>
       <c r="D313" s="0" t="s">
         <v>619</v>
@@ -10734,7 +10750,7 @@
         <v>620</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>214070</v>
+        <v>300380</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>621</v>
@@ -10748,7 +10764,7 @@
         <v>622</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>321020</v>
+        <v>214070</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>623</v>
@@ -10762,7 +10778,7 @@
         <v>624</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>300057</v>
+        <v>321020</v>
       </c>
       <c r="C316" s="0" t="s">
         <v>625</v>
@@ -10776,7 +10792,7 @@
         <v>626</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>323170</v>
+        <v>300057</v>
       </c>
       <c r="C317" s="0" t="s">
         <v>627</v>
@@ -10790,7 +10806,7 @@
         <v>628</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>213003</v>
+        <v>323170</v>
       </c>
       <c r="C318" s="0" t="s">
         <v>629</v>
@@ -10801,27 +10817,27 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>4</v>
+        <v>630</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>213003</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>4</v>
+        <v>631</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="B320" s="0" t="n">
-        <v>300070</v>
+        <v>4</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>632</v>
+        <v>4</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>632</v>
@@ -10832,7 +10848,7 @@
         <v>633</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>300550</v>
+        <v>300070</v>
       </c>
       <c r="C321" s="0" t="s">
         <v>634</v>
@@ -10846,7 +10862,7 @@
         <v>635</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>382040</v>
+        <v>300550</v>
       </c>
       <c r="C322" s="0" t="s">
         <v>636</v>
@@ -10860,7 +10876,7 @@
         <v>637</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>344101</v>
+        <v>382040</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>638</v>
@@ -10874,7 +10890,7 @@
         <v>639</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>383040</v>
+        <v>344101</v>
       </c>
       <c r="C324" s="0" t="s">
         <v>640</v>
@@ -10888,7 +10904,7 @@
         <v>641</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>311120</v>
+        <v>383040</v>
       </c>
       <c r="C325" s="0" t="s">
         <v>642</v>
@@ -10902,7 +10918,7 @@
         <v>643</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>312190</v>
+        <v>311120</v>
       </c>
       <c r="C326" s="0" t="s">
         <v>644</v>
@@ -10916,7 +10932,7 @@
         <v>645</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>371060</v>
+        <v>312190</v>
       </c>
       <c r="C327" s="0" t="s">
         <v>646</v>
@@ -10930,7 +10946,7 @@
         <v>647</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>373010</v>
+        <v>371060</v>
       </c>
       <c r="C328" s="0" t="s">
         <v>648</v>
@@ -10944,7 +10960,7 @@
         <v>649</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>221116</v>
+        <v>373010</v>
       </c>
       <c r="C329" s="0" t="s">
         <v>650</v>
@@ -10958,24 +10974,24 @@
         <v>651</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>352020</v>
+        <v>221116</v>
       </c>
       <c r="C330" s="0" t="s">
         <v>652</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>352020</v>
+      </c>
+      <c r="C331" s="0" t="s">
         <v>654</v>
-      </c>
-      <c r="B331" s="0" t="n">
-        <v>355020</v>
-      </c>
-      <c r="C331" s="0" t="s">
-        <v>655</v>
       </c>
       <c r="D331" s="0" t="s">
         <v>655</v>
@@ -10986,7 +11002,7 @@
         <v>656</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>355093</v>
+        <v>355020</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>657</v>
@@ -11000,7 +11016,7 @@
         <v>658</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>343052</v>
+        <v>355093</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>659</v>
@@ -11014,7 +11030,7 @@
         <v>660</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>221124</v>
+        <v>343052</v>
       </c>
       <c r="C334" s="0" t="s">
         <v>661</v>
@@ -11028,7 +11044,7 @@
         <v>662</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>263130</v>
+        <v>221124</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>663</v>
@@ -11039,16 +11055,16 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>4</v>
+        <v>664</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>263130</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>4</v>
+        <v>665</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11062,7 +11078,7 @@
         <v>4</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11076,7 +11092,7 @@
         <v>4</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11090,7 +11106,7 @@
         <v>4</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11104,18 +11120,18 @@
         <v>4</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="B341" s="0" t="n">
-        <v>332060</v>
+        <v>4</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>670</v>
+        <v>4</v>
       </c>
       <c r="D341" s="0" t="s">
         <v>670</v>
@@ -11126,7 +11142,7 @@
         <v>671</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>306040</v>
+        <v>332060</v>
       </c>
       <c r="C342" s="0" t="s">
         <v>672</v>
@@ -11140,7 +11156,7 @@
         <v>673</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>221022</v>
+        <v>306040</v>
       </c>
       <c r="C343" s="0" t="s">
         <v>674</v>
@@ -11151,16 +11167,16 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>4</v>
+        <v>675</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>221022</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>4</v>
+        <v>676</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11174,18 +11190,18 @@
         <v>4</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="B346" s="0" t="n">
-        <v>213002</v>
+        <v>4</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>678</v>
+        <v>4</v>
       </c>
       <c r="D346" s="0" t="s">
         <v>678</v>
@@ -11196,7 +11212,7 @@
         <v>679</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>221091</v>
+        <v>213002</v>
       </c>
       <c r="C347" s="0" t="s">
         <v>680</v>
@@ -11210,7 +11226,7 @@
         <v>681</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>320040</v>
+        <v>221091</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>682</v>
@@ -11224,7 +11240,7 @@
         <v>683</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>372070</v>
+        <v>320040</v>
       </c>
       <c r="C349" s="0" t="s">
         <v>684</v>
@@ -11238,7 +11254,7 @@
         <v>685</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>370020</v>
+        <v>372070</v>
       </c>
       <c r="C350" s="0" t="s">
         <v>686</v>
@@ -11251,33 +11267,33 @@
       <c r="A351" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="0" t="n">
+        <v>370020</v>
+      </c>
+      <c r="C351" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="C351" s="0" t="n">
-        <v>324040</v>
-      </c>
       <c r="D351" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="E351" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="F351" s="0" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C352" s="0" t="n">
+        <v>324040</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E352" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="B352" s="0" t="n">
-        <v>371050</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="D352" s="0" t="s">
+      <c r="F352" s="0" t="s">
         <v>693</v>
       </c>
     </row>
@@ -11286,7 +11302,7 @@
         <v>694</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>311220</v>
+        <v>371050</v>
       </c>
       <c r="C353" s="0" t="s">
         <v>695</v>
@@ -11300,7 +11316,7 @@
         <v>696</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>221171</v>
+        <v>311220</v>
       </c>
       <c r="C354" s="0" t="s">
         <v>697</v>
@@ -11311,27 +11327,27 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>4</v>
+        <v>698</v>
+      </c>
+      <c r="B355" s="0" t="n">
+        <v>221171</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>4</v>
+        <v>699</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="B356" s="0" t="n">
-        <v>268052</v>
+        <v>4</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>700</v>
+        <v>4</v>
       </c>
       <c r="D356" s="0" t="s">
         <v>700</v>
@@ -11339,16 +11355,16 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>4</v>
+        <v>701</v>
+      </c>
+      <c r="B357" s="0" t="n">
+        <v>268052</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>4</v>
+        <v>702</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11362,18 +11378,18 @@
         <v>4</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="B359" s="0" t="n">
-        <v>371090</v>
+        <v>4</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>704</v>
+        <v>4</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>704</v>
@@ -11381,27 +11397,27 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>4</v>
+        <v>705</v>
+      </c>
+      <c r="B360" s="0" t="n">
+        <v>371090</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>4</v>
+        <v>706</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B361" s="0" t="n">
-        <v>222070</v>
+        <v>4</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>707</v>
+        <v>4</v>
       </c>
       <c r="D361" s="0" t="s">
         <v>707</v>
@@ -11412,7 +11428,7 @@
         <v>708</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>305010</v>
+        <v>222070</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>709</v>
@@ -11426,7 +11442,7 @@
         <v>710</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>322010</v>
+        <v>305010</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>711</v>
@@ -11440,7 +11456,7 @@
         <v>712</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>320080</v>
+        <v>322010</v>
       </c>
       <c r="C364" s="0" t="s">
         <v>713</v>
@@ -11451,27 +11467,27 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>4</v>
+        <v>714</v>
+      </c>
+      <c r="B365" s="0" t="n">
+        <v>320080</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>4</v>
+        <v>715</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="B366" s="0" t="n">
-        <v>371051</v>
+        <v>4</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>716</v>
+        <v>4</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>716</v>
@@ -11482,7 +11498,7 @@
         <v>717</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>332040</v>
+        <v>371051</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>718</v>
@@ -11496,7 +11512,7 @@
         <v>719</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>354005</v>
+        <v>332040</v>
       </c>
       <c r="C368" s="0" t="s">
         <v>720</v>
@@ -11510,7 +11526,7 @@
         <v>721</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>357123</v>
+        <v>354005</v>
       </c>
       <c r="C369" s="0" t="s">
         <v>722</v>
@@ -11524,7 +11540,7 @@
         <v>723</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>354030</v>
+        <v>357123</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>724</v>
@@ -11538,7 +11554,7 @@
         <v>725</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>358030</v>
+        <v>354030</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>726</v>
@@ -11552,7 +11568,7 @@
         <v>727</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>261280</v>
+        <v>358030</v>
       </c>
       <c r="C372" s="0" t="s">
         <v>728</v>
@@ -11563,30 +11579,30 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>332040</v>
+        <v>261280</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>4</v>
+        <v>719</v>
+      </c>
+      <c r="B374" s="0" t="n">
+        <v>332040</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>4</v>
+        <v>720</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11600,18 +11616,18 @@
         <v>4</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B376" s="0" t="n">
-        <v>268030</v>
+        <v>4</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>733</v>
+        <v>4</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>733</v>
@@ -11622,7 +11638,7 @@
         <v>734</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>300280</v>
+        <v>268030</v>
       </c>
       <c r="C377" s="0" t="s">
         <v>735</v>
@@ -11633,27 +11649,27 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>4</v>
+        <v>736</v>
+      </c>
+      <c r="B378" s="0" t="n">
+        <v>300280</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>4</v>
+        <v>737</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="B379" s="0" t="n">
-        <v>222161</v>
+        <v>4</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>738</v>
+        <v>4</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>738</v>
@@ -11664,7 +11680,7 @@
         <v>739</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>263350</v>
+        <v>222161</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>740</v>
@@ -11678,7 +11694,7 @@
         <v>741</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>300670</v>
+        <v>263350</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>742</v>
@@ -11692,7 +11708,7 @@
         <v>743</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>264220</v>
+        <v>300670</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>744</v>
@@ -11706,7 +11722,7 @@
         <v>745</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>300030</v>
+        <v>264220</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>746</v>
@@ -11720,7 +11736,7 @@
         <v>747</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>264240</v>
+        <v>300030</v>
       </c>
       <c r="C384" s="0" t="s">
         <v>748</v>
@@ -11734,7 +11750,7 @@
         <v>749</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>264170</v>
+        <v>264240</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>750</v>
@@ -11748,7 +11764,7 @@
         <v>751</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>264250</v>
+        <v>264170</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>752</v>
@@ -11762,7 +11778,7 @@
         <v>753</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>352041</v>
+        <v>264250</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>754</v>
@@ -11776,7 +11792,7 @@
         <v>755</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>343060</v>
+        <v>352041</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>756</v>
@@ -11790,7 +11806,7 @@
         <v>757</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>352004</v>
+        <v>343060</v>
       </c>
       <c r="C389" s="0" t="s">
         <v>758</v>
@@ -11804,7 +11820,7 @@
         <v>759</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>321070</v>
+        <v>352004</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>760</v>
@@ -11818,7 +11834,7 @@
         <v>761</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>357041</v>
+        <v>321070</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>762</v>
@@ -11832,7 +11848,7 @@
         <v>763</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>264090</v>
+        <v>357041</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>764</v>
@@ -11846,7 +11862,7 @@
         <v>765</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>264080</v>
+        <v>264090</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>766</v>
@@ -11857,27 +11873,27 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>4</v>
+        <v>767</v>
+      </c>
+      <c r="B394" s="0" t="n">
+        <v>264080</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>4</v>
+        <v>768</v>
       </c>
       <c r="D394" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="B395" s="0" t="n">
-        <v>342190</v>
+        <v>4</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>769</v>
+        <v>4</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>769</v>
@@ -11888,24 +11904,24 @@
         <v>770</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>345060</v>
+        <v>342190</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>771</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="B397" s="0" t="n">
+        <v>345060</v>
+      </c>
+      <c r="C397" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="B397" s="0" t="n">
-        <v>273041</v>
-      </c>
-      <c r="C397" s="0" t="s">
-        <v>774</v>
       </c>
       <c r="D397" s="0" t="s">
         <v>774</v>
@@ -11916,7 +11932,7 @@
         <v>775</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>355040</v>
+        <v>273041</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>776</v>
@@ -11930,7 +11946,7 @@
         <v>777</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>273042</v>
+        <v>355040</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>778</v>
@@ -11944,7 +11960,7 @@
         <v>779</v>
       </c>
       <c r="B400" s="0" t="n">
-        <v>211030</v>
+        <v>273042</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>780</v>
@@ -11958,7 +11974,7 @@
         <v>781</v>
       </c>
       <c r="B401" s="0" t="n">
-        <v>320090</v>
+        <v>211030</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>782</v>
@@ -11972,7 +11988,7 @@
         <v>783</v>
       </c>
       <c r="B402" s="0" t="n">
-        <v>343130</v>
+        <v>320090</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>784</v>
@@ -11986,7 +12002,7 @@
         <v>785</v>
       </c>
       <c r="B403" s="0" t="n">
-        <v>341023</v>
+        <v>343130</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>786</v>
@@ -12000,7 +12016,7 @@
         <v>787</v>
       </c>
       <c r="B404" s="0" t="n">
-        <v>341003</v>
+        <v>341023</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>788</v>
@@ -12014,7 +12030,7 @@
         <v>789</v>
       </c>
       <c r="B405" s="0" t="n">
-        <v>341011</v>
+        <v>341003</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>790</v>
@@ -12028,7 +12044,7 @@
         <v>791</v>
       </c>
       <c r="B406" s="0" t="n">
-        <v>343140</v>
+        <v>341011</v>
       </c>
       <c r="C406" s="0" t="s">
         <v>792</v>
@@ -12042,7 +12058,7 @@
         <v>793</v>
       </c>
       <c r="B407" s="0" t="n">
-        <v>355030</v>
+        <v>343140</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>794</v>
@@ -12056,7 +12072,7 @@
         <v>795</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>290111</v>
+        <v>355030</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>796</v>
@@ -12067,16 +12083,16 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>4</v>
+        <v>797</v>
+      </c>
+      <c r="B409" s="0" t="n">
+        <v>290111</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>4</v>
+        <v>798</v>
       </c>
       <c r="D409" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12090,18 +12106,18 @@
         <v>4</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="B411" s="0" t="n">
-        <v>142180</v>
+        <v>4</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>800</v>
+        <v>4</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>800</v>
@@ -12112,7 +12128,7 @@
         <v>801</v>
       </c>
       <c r="B412" s="0" t="n">
-        <v>264110</v>
+        <v>142180</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>802</v>
@@ -12126,7 +12142,7 @@
         <v>803</v>
       </c>
       <c r="B413" s="0" t="n">
-        <v>263330</v>
+        <v>264110</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>804</v>
@@ -12140,7 +12156,7 @@
         <v>805</v>
       </c>
       <c r="B414" s="0" t="n">
-        <v>343030</v>
+        <v>263330</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>806</v>
@@ -12154,27 +12170,27 @@
         <v>807</v>
       </c>
       <c r="B415" s="0" t="n">
-        <v>341082</v>
+        <v>343030</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>808</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>4</v>
+        <v>809</v>
+      </c>
+      <c r="B416" s="0" t="n">
+        <v>341082</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>4</v>
+        <v>810</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12188,18 +12204,18 @@
         <v>4</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="B418" s="0" t="n">
-        <v>268051</v>
+        <v>4</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>813</v>
+        <v>4</v>
       </c>
       <c r="D418" s="0" t="s">
         <v>813</v>
@@ -12210,7 +12226,7 @@
         <v>814</v>
       </c>
       <c r="B419" s="0" t="n">
-        <v>221030</v>
+        <v>268051</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>815</v>
@@ -12224,7 +12240,7 @@
         <v>816</v>
       </c>
       <c r="B420" s="0" t="n">
-        <v>341004</v>
+        <v>221030</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>817</v>
@@ -12238,7 +12254,7 @@
         <v>818</v>
       </c>
       <c r="B421" s="0" t="n">
-        <v>355036</v>
+        <v>341004</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>819</v>
@@ -12252,7 +12268,7 @@
         <v>820</v>
       </c>
       <c r="B422" s="0" t="n">
-        <v>221010</v>
+        <v>355036</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>821</v>
@@ -12266,7 +12282,7 @@
         <v>822</v>
       </c>
       <c r="B423" s="0" t="n">
-        <v>225030</v>
+        <v>221010</v>
       </c>
       <c r="C423" s="0" t="s">
         <v>823</v>
@@ -12280,7 +12296,7 @@
         <v>824</v>
       </c>
       <c r="B424" s="0" t="n">
-        <v>221020</v>
+        <v>225030</v>
       </c>
       <c r="C424" s="0" t="s">
         <v>825</v>
@@ -12294,7 +12310,7 @@
         <v>826</v>
       </c>
       <c r="B425" s="0" t="n">
-        <v>322020</v>
+        <v>221020</v>
       </c>
       <c r="C425" s="0" t="s">
         <v>827</v>
@@ -12305,27 +12321,27 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>4</v>
+        <v>828</v>
+      </c>
+      <c r="B426" s="0" t="n">
+        <v>322020</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>4</v>
+        <v>829</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="B427" s="0" t="n">
-        <v>302060</v>
+        <v>4</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>830</v>
+        <v>4</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>830</v>
@@ -12336,7 +12352,7 @@
         <v>831</v>
       </c>
       <c r="B428" s="0" t="n">
-        <v>322190</v>
+        <v>302060</v>
       </c>
       <c r="C428" s="0" t="s">
         <v>832</v>
@@ -12350,7 +12366,7 @@
         <v>833</v>
       </c>
       <c r="B429" s="0" t="n">
-        <v>342121</v>
+        <v>322190</v>
       </c>
       <c r="C429" s="0" t="s">
         <v>834</v>
@@ -12364,7 +12380,7 @@
         <v>835</v>
       </c>
       <c r="B430" s="0" t="n">
-        <v>261220</v>
+        <v>342121</v>
       </c>
       <c r="C430" s="0" t="s">
         <v>836</v>
@@ -12375,27 +12391,27 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>4</v>
+        <v>837</v>
+      </c>
+      <c r="B431" s="0" t="n">
+        <v>261220</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>4</v>
+        <v>838</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="B432" s="0" t="n">
-        <v>311260</v>
+        <v>4</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>839</v>
+        <v>4</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>839</v>
@@ -12406,7 +12422,7 @@
         <v>840</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>312250</v>
+        <v>311260</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>841</v>
@@ -12420,7 +12436,7 @@
         <v>842</v>
       </c>
       <c r="B434" s="0" t="n">
-        <v>241010</v>
+        <v>312250</v>
       </c>
       <c r="C434" s="0" t="s">
         <v>843</v>
@@ -12434,7 +12450,7 @@
         <v>844</v>
       </c>
       <c r="B435" s="0" t="n">
-        <v>300620</v>
+        <v>241010</v>
       </c>
       <c r="C435" s="0" t="s">
         <v>845</v>
@@ -12448,7 +12464,7 @@
         <v>846</v>
       </c>
       <c r="B436" s="0" t="n">
-        <v>271061</v>
+        <v>300620</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>847</v>
@@ -12462,7 +12478,7 @@
         <v>848</v>
       </c>
       <c r="B437" s="0" t="n">
-        <v>300010</v>
+        <v>271061</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>849</v>
@@ -12476,7 +12492,7 @@
         <v>850</v>
       </c>
       <c r="B438" s="0" t="n">
-        <v>300251</v>
+        <v>300010</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>851</v>
@@ -12490,7 +12506,7 @@
         <v>852</v>
       </c>
       <c r="B439" s="0" t="n">
-        <v>311110</v>
+        <v>300251</v>
       </c>
       <c r="C439" s="0" t="s">
         <v>853</v>
@@ -12504,7 +12520,7 @@
         <v>854</v>
       </c>
       <c r="B440" s="0" t="n">
-        <v>272020</v>
+        <v>311110</v>
       </c>
       <c r="C440" s="0" t="s">
         <v>855</v>
@@ -12518,7 +12534,7 @@
         <v>856</v>
       </c>
       <c r="B441" s="0" t="n">
-        <v>213011</v>
+        <v>272020</v>
       </c>
       <c r="C441" s="0" t="s">
         <v>857</v>
@@ -12532,7 +12548,7 @@
         <v>858</v>
       </c>
       <c r="B442" s="0" t="n">
-        <v>263020</v>
+        <v>213011</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>859</v>
@@ -12546,7 +12562,7 @@
         <v>860</v>
       </c>
       <c r="B443" s="0" t="n">
-        <v>213001</v>
+        <v>263020</v>
       </c>
       <c r="C443" s="0" t="s">
         <v>861</v>
@@ -12560,7 +12576,7 @@
         <v>862</v>
       </c>
       <c r="B444" s="0" t="n">
-        <v>223040</v>
+        <v>213001</v>
       </c>
       <c r="C444" s="0" t="s">
         <v>863</v>
@@ -12571,27 +12587,27 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>4</v>
+        <v>864</v>
+      </c>
+      <c r="B445" s="0" t="n">
+        <v>223040</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>4</v>
+        <v>865</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="B446" s="0" t="n">
-        <v>300130</v>
+        <v>4</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>866</v>
+        <v>4</v>
       </c>
       <c r="D446" s="0" t="s">
         <v>866</v>
@@ -12602,7 +12618,7 @@
         <v>867</v>
       </c>
       <c r="B447" s="0" t="n">
-        <v>311130</v>
+        <v>300130</v>
       </c>
       <c r="C447" s="0" t="s">
         <v>868</v>
@@ -12616,7 +12632,7 @@
         <v>869</v>
       </c>
       <c r="B448" s="0" t="n">
-        <v>372030</v>
+        <v>311130</v>
       </c>
       <c r="C448" s="0" t="s">
         <v>870</v>
@@ -12630,7 +12646,7 @@
         <v>871</v>
       </c>
       <c r="B449" s="0" t="n">
-        <v>312170</v>
+        <v>372030</v>
       </c>
       <c r="C449" s="0" t="s">
         <v>872</v>
@@ -12644,7 +12660,7 @@
         <v>873</v>
       </c>
       <c r="B450" s="0" t="n">
-        <v>223005</v>
+        <v>312170</v>
       </c>
       <c r="C450" s="0" t="s">
         <v>874</v>
@@ -12658,7 +12674,7 @@
         <v>875</v>
       </c>
       <c r="B451" s="0" t="n">
-        <v>223003</v>
+        <v>223005</v>
       </c>
       <c r="C451" s="0" t="s">
         <v>876</v>
@@ -12672,7 +12688,7 @@
         <v>877</v>
       </c>
       <c r="B452" s="0" t="n">
-        <v>263281</v>
+        <v>223003</v>
       </c>
       <c r="C452" s="0" t="s">
         <v>878</v>
@@ -12686,7 +12702,7 @@
         <v>879</v>
       </c>
       <c r="B453" s="0" t="n">
-        <v>214020</v>
+        <v>263281</v>
       </c>
       <c r="C453" s="0" t="s">
         <v>880</v>
@@ -12700,7 +12716,7 @@
         <v>881</v>
       </c>
       <c r="B454" s="0" t="n">
-        <v>300500</v>
+        <v>214020</v>
       </c>
       <c r="C454" s="0" t="s">
         <v>882</v>
@@ -12714,7 +12730,7 @@
         <v>883</v>
       </c>
       <c r="B455" s="0" t="n">
-        <v>300410</v>
+        <v>300500</v>
       </c>
       <c r="C455" s="0" t="s">
         <v>884</v>
@@ -12728,7 +12744,7 @@
         <v>885</v>
       </c>
       <c r="B456" s="0" t="n">
-        <v>264140</v>
+        <v>300410</v>
       </c>
       <c r="C456" s="0" t="s">
         <v>886</v>
@@ -12742,7 +12758,7 @@
         <v>887</v>
       </c>
       <c r="B457" s="0" t="n">
-        <v>30041</v>
+        <v>264140</v>
       </c>
       <c r="C457" s="0" t="s">
         <v>888</v>
@@ -12756,7 +12772,7 @@
         <v>889</v>
       </c>
       <c r="B458" s="0" t="n">
-        <v>263280</v>
+        <v>30041</v>
       </c>
       <c r="C458" s="0" t="s">
         <v>890</v>
@@ -12770,7 +12786,7 @@
         <v>891</v>
       </c>
       <c r="B459" s="0" t="n">
-        <v>263110</v>
+        <v>263280</v>
       </c>
       <c r="C459" s="0" t="s">
         <v>892</v>
@@ -12784,7 +12800,7 @@
         <v>893</v>
       </c>
       <c r="B460" s="0" t="n">
-        <v>261170</v>
+        <v>263110</v>
       </c>
       <c r="C460" s="0" t="s">
         <v>894</v>
@@ -12798,7 +12814,7 @@
         <v>895</v>
       </c>
       <c r="B461" s="0" t="n">
-        <v>300272</v>
+        <v>261170</v>
       </c>
       <c r="C461" s="0" t="s">
         <v>896</v>
@@ -12812,7 +12828,7 @@
         <v>897</v>
       </c>
       <c r="B462" s="0" t="n">
-        <v>303020</v>
+        <v>300272</v>
       </c>
       <c r="C462" s="0" t="s">
         <v>898</v>
@@ -12826,7 +12842,7 @@
         <v>899</v>
       </c>
       <c r="B463" s="0" t="n">
-        <v>300053</v>
+        <v>303020</v>
       </c>
       <c r="C463" s="0" t="s">
         <v>900</v>
@@ -12840,7 +12856,7 @@
         <v>901</v>
       </c>
       <c r="B464" s="0" t="n">
-        <v>312120</v>
+        <v>300053</v>
       </c>
       <c r="C464" s="0" t="s">
         <v>902</v>
@@ -12851,27 +12867,27 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>4</v>
+        <v>903</v>
+      </c>
+      <c r="B465" s="0" t="n">
+        <v>312120</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>4</v>
+        <v>904</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="B466" s="0" t="n">
-        <v>300180</v>
+        <v>4</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>905</v>
+        <v>4</v>
       </c>
       <c r="D466" s="0" t="s">
         <v>905</v>
@@ -12882,7 +12898,7 @@
         <v>906</v>
       </c>
       <c r="B467" s="0" t="n">
-        <v>332010</v>
+        <v>300180</v>
       </c>
       <c r="C467" s="0" t="s">
         <v>907</v>
@@ -12896,7 +12912,7 @@
         <v>908</v>
       </c>
       <c r="B468" s="0" t="n">
-        <v>222150</v>
+        <v>332010</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>909</v>
@@ -12910,7 +12926,7 @@
         <v>910</v>
       </c>
       <c r="B469" s="0" t="n">
-        <v>300551</v>
+        <v>222150</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>911</v>
@@ -12921,27 +12937,27 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>4</v>
+        <v>912</v>
+      </c>
+      <c r="B470" s="0" t="n">
+        <v>300551</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>4</v>
+        <v>913</v>
       </c>
       <c r="D470" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="B471" s="0" t="n">
-        <v>311020</v>
+        <v>4</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>914</v>
+        <v>4</v>
       </c>
       <c r="D471" s="0" t="s">
         <v>914</v>
@@ -12952,7 +12968,7 @@
         <v>915</v>
       </c>
       <c r="B472" s="0" t="n">
-        <v>300230</v>
+        <v>311020</v>
       </c>
       <c r="C472" s="0" t="s">
         <v>916</v>
@@ -12966,7 +12982,7 @@
         <v>917</v>
       </c>
       <c r="B473" s="0" t="n">
-        <v>266120</v>
+        <v>300230</v>
       </c>
       <c r="C473" s="0" t="s">
         <v>918</v>
@@ -12980,7 +12996,7 @@
         <v>919</v>
       </c>
       <c r="B474" s="0" t="n">
-        <v>300260</v>
+        <v>266120</v>
       </c>
       <c r="C474" s="0" t="s">
         <v>920</v>
@@ -12991,27 +13007,27 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>4</v>
+        <v>921</v>
+      </c>
+      <c r="B475" s="0" t="n">
+        <v>300260</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>4</v>
+        <v>922</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="B476" s="0" t="n">
-        <v>375010</v>
+        <v>4</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>923</v>
+        <v>4</v>
       </c>
       <c r="D476" s="0" t="s">
         <v>923</v>
@@ -13022,7 +13038,7 @@
         <v>924</v>
       </c>
       <c r="B477" s="0" t="n">
-        <v>290120</v>
+        <v>375010</v>
       </c>
       <c r="C477" s="0" t="s">
         <v>925</v>
@@ -13036,7 +13052,7 @@
         <v>926</v>
       </c>
       <c r="B478" s="0" t="n">
-        <v>300220</v>
+        <v>290120</v>
       </c>
       <c r="C478" s="0" t="s">
         <v>927</v>
@@ -13050,7 +13066,7 @@
         <v>928</v>
       </c>
       <c r="B479" s="0" t="n">
-        <v>221200</v>
+        <v>300220</v>
       </c>
       <c r="C479" s="0" t="s">
         <v>929</v>
@@ -13064,7 +13080,7 @@
         <v>930</v>
       </c>
       <c r="B480" s="0" t="n">
-        <v>311140</v>
+        <v>221200</v>
       </c>
       <c r="C480" s="0" t="s">
         <v>931</v>
@@ -13075,27 +13091,27 @@
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>4</v>
+        <v>932</v>
+      </c>
+      <c r="B481" s="0" t="n">
+        <v>311140</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>4</v>
+        <v>933</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>933</v>
-      </c>
-      <c r="B482" s="0" t="n">
-        <v>221320</v>
+        <v>4</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>934</v>
+        <v>4</v>
       </c>
       <c r="D482" s="0" t="s">
         <v>934</v>
@@ -13106,7 +13122,7 @@
         <v>935</v>
       </c>
       <c r="B483" s="0" t="n">
-        <v>222054</v>
+        <v>221320</v>
       </c>
       <c r="C483" s="0" t="s">
         <v>936</v>
@@ -13120,7 +13136,7 @@
         <v>937</v>
       </c>
       <c r="B484" s="0" t="n">
-        <v>311161</v>
+        <v>222054</v>
       </c>
       <c r="C484" s="0" t="s">
         <v>938</v>
@@ -13134,7 +13150,7 @@
         <v>939</v>
       </c>
       <c r="B485" s="0" t="n">
-        <v>300090</v>
+        <v>311161</v>
       </c>
       <c r="C485" s="0" t="s">
         <v>940</v>
@@ -13148,7 +13164,7 @@
         <v>941</v>
       </c>
       <c r="B486" s="0" t="n">
-        <v>300020</v>
+        <v>300090</v>
       </c>
       <c r="C486" s="0" t="s">
         <v>942</v>
@@ -13162,7 +13178,7 @@
         <v>943</v>
       </c>
       <c r="B487" s="0" t="n">
-        <v>300122</v>
+        <v>300020</v>
       </c>
       <c r="C487" s="0" t="s">
         <v>944</v>
@@ -13173,27 +13189,27 @@
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>4</v>
+        <v>945</v>
+      </c>
+      <c r="B488" s="0" t="n">
+        <v>300122</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>4</v>
+        <v>946</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="B489" s="0" t="n">
-        <v>300330</v>
+        <v>4</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>947</v>
+        <v>4</v>
       </c>
       <c r="D489" s="0" t="s">
         <v>947</v>
@@ -13204,7 +13220,7 @@
         <v>948</v>
       </c>
       <c r="B490" s="0" t="n">
-        <v>373</v>
+        <v>300330</v>
       </c>
       <c r="C490" s="0" t="s">
         <v>949</v>
@@ -13218,7 +13234,7 @@
         <v>950</v>
       </c>
       <c r="B491" s="0" t="n">
-        <v>300400</v>
+        <v>373</v>
       </c>
       <c r="C491" s="0" t="s">
         <v>951</v>
@@ -13232,7 +13248,7 @@
         <v>952</v>
       </c>
       <c r="B492" s="0" t="n">
-        <v>262000</v>
+        <v>300400</v>
       </c>
       <c r="C492" s="0" t="s">
         <v>953</v>
@@ -13246,7 +13262,7 @@
         <v>954</v>
       </c>
       <c r="B493" s="0" t="n">
-        <v>300190</v>
+        <v>262000</v>
       </c>
       <c r="C493" s="0" t="s">
         <v>955</v>
@@ -13260,7 +13276,7 @@
         <v>956</v>
       </c>
       <c r="B494" s="0" t="n">
-        <v>300200</v>
+        <v>300190</v>
       </c>
       <c r="C494" s="0" t="s">
         <v>957</v>
@@ -13271,27 +13287,27 @@
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>4</v>
+        <v>958</v>
+      </c>
+      <c r="B495" s="0" t="n">
+        <v>300200</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>4</v>
+        <v>959</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="B496" s="0" t="n">
-        <v>371030</v>
+        <v>4</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C496" s="0" t="s">
-        <v>960</v>
+        <v>4</v>
       </c>
       <c r="D496" s="0" t="s">
         <v>960</v>
@@ -13302,7 +13318,7 @@
         <v>961</v>
       </c>
       <c r="B497" s="0" t="n">
-        <v>300050</v>
+        <v>371030</v>
       </c>
       <c r="C497" s="0" t="s">
         <v>962</v>
@@ -13313,16 +13329,16 @@
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>4</v>
+        <v>963</v>
+      </c>
+      <c r="B498" s="0" t="n">
+        <v>300050</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>4</v>
+        <v>964</v>
       </c>
       <c r="D498" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13336,7 +13352,7 @@
         <v>4</v>
       </c>
       <c r="D499" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13350,7 +13366,7 @@
         <v>4</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13364,18 +13380,18 @@
         <v>4</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="B502" s="0" t="n">
-        <v>312230</v>
+        <v>4</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>968</v>
+        <v>4</v>
       </c>
       <c r="D502" s="0" t="s">
         <v>968</v>
@@ -13386,7 +13402,7 @@
         <v>969</v>
       </c>
       <c r="B503" s="0" t="n">
-        <v>213000</v>
+        <v>312230</v>
       </c>
       <c r="C503" s="0" t="s">
         <v>970</v>
@@ -13400,7 +13416,7 @@
         <v>971</v>
       </c>
       <c r="B504" s="0" t="n">
-        <v>300370</v>
+        <v>213000</v>
       </c>
       <c r="C504" s="0" t="s">
         <v>972</v>
@@ -13414,7 +13430,7 @@
         <v>973</v>
       </c>
       <c r="B505" s="0" t="n">
-        <v>304030</v>
+        <v>300370</v>
       </c>
       <c r="C505" s="0" t="s">
         <v>974</v>
@@ -13425,27 +13441,27 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>4</v>
+        <v>975</v>
+      </c>
+      <c r="B506" s="0" t="n">
+        <v>304030</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>4</v>
+        <v>976</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="B507" s="0" t="n">
-        <v>300023</v>
+        <v>4</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>977</v>
+        <v>4</v>
       </c>
       <c r="D507" s="0" t="s">
         <v>977</v>
@@ -13456,7 +13472,7 @@
         <v>978</v>
       </c>
       <c r="B508" s="0" t="n">
-        <v>221120</v>
+        <v>300023</v>
       </c>
       <c r="C508" s="0" t="s">
         <v>979</v>
@@ -13467,16 +13483,16 @@
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>4</v>
+        <v>980</v>
+      </c>
+      <c r="B509" s="0" t="n">
+        <v>221120</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>4</v>
+        <v>981</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13490,7 +13506,7 @@
         <v>4</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13504,18 +13520,18 @@
         <v>4</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="B512" s="0" t="n">
-        <v>225040</v>
+        <v>4</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>984</v>
+        <v>4</v>
       </c>
       <c r="D512" s="0" t="s">
         <v>984</v>
@@ -13526,7 +13542,7 @@
         <v>985</v>
       </c>
       <c r="B513" s="0" t="n">
-        <v>373050</v>
+        <v>225040</v>
       </c>
       <c r="C513" s="0" t="s">
         <v>986</v>
@@ -13540,7 +13556,7 @@
         <v>987</v>
       </c>
       <c r="B514" s="0" t="n">
-        <v>223002</v>
+        <v>373050</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>988</v>
@@ -13554,7 +13570,7 @@
         <v>989</v>
       </c>
       <c r="B515" s="0" t="n">
-        <v>222170</v>
+        <v>223002</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>990</v>
@@ -13565,16 +13581,16 @@
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>4</v>
+        <v>991</v>
+      </c>
+      <c r="B516" s="0" t="n">
+        <v>222170</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>4</v>
+        <v>992</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13588,18 +13604,18 @@
         <v>4</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="B518" s="0" t="n">
-        <v>343101</v>
+        <v>4</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>994</v>
+        <v>4</v>
       </c>
       <c r="D518" s="0" t="s">
         <v>994</v>
@@ -13610,7 +13626,7 @@
         <v>995</v>
       </c>
       <c r="B519" s="0" t="n">
-        <v>357102</v>
+        <v>343101</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>996</v>
@@ -13624,7 +13640,7 @@
         <v>997</v>
       </c>
       <c r="B520" s="0" t="n">
-        <v>273080</v>
+        <v>357102</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>998</v>
@@ -13638,7 +13654,7 @@
         <v>999</v>
       </c>
       <c r="B521" s="0" t="n">
-        <v>357061</v>
+        <v>273080</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>1000</v>
@@ -13652,7 +13668,7 @@
         <v>1001</v>
       </c>
       <c r="B522" s="0" t="n">
-        <v>355035</v>
+        <v>357061</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>1002</v>
@@ -13666,24 +13682,24 @@
         <v>1003</v>
       </c>
       <c r="B523" s="0" t="n">
-        <v>357092</v>
+        <v>355035</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>1004</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B524" s="0" t="n">
+        <v>357092</v>
+      </c>
+      <c r="C524" s="0" t="s">
         <v>1006</v>
-      </c>
-      <c r="B524" s="0" t="n">
-        <v>343150</v>
-      </c>
-      <c r="C524" s="0" t="s">
-        <v>1007</v>
       </c>
       <c r="D524" s="0" t="s">
         <v>1007</v>
@@ -13694,7 +13710,7 @@
         <v>1008</v>
       </c>
       <c r="B525" s="0" t="n">
-        <v>321091</v>
+        <v>343150</v>
       </c>
       <c r="C525" s="0" t="s">
         <v>1009</v>
@@ -13705,27 +13721,27 @@
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>4</v>
+        <v>1010</v>
+      </c>
+      <c r="B526" s="0" t="n">
+        <v>321091</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>4</v>
+        <v>1011</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B527" s="0" t="n">
-        <v>263320</v>
+        <v>4</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>1012</v>
+        <v>4</v>
       </c>
       <c r="D527" s="0" t="s">
         <v>1012</v>
@@ -13736,7 +13752,7 @@
         <v>1013</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>355108</v>
+        <v>263320</v>
       </c>
       <c r="C528" s="0" t="s">
         <v>1014</v>
@@ -13747,27 +13763,27 @@
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B529" s="0" t="s">
-        <v>4</v>
+        <v>1015</v>
+      </c>
+      <c r="B529" s="0" t="n">
+        <v>355108</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>4</v>
+        <v>1016</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B530" s="0" t="n">
-        <v>311080</v>
+        <v>4</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>1017</v>
+        <v>4</v>
       </c>
       <c r="D530" s="0" t="s">
         <v>1017</v>
@@ -13775,27 +13791,27 @@
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B531" s="0" t="s">
-        <v>4</v>
+        <v>1018</v>
+      </c>
+      <c r="B531" s="0" t="n">
+        <v>311080</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>4</v>
+        <v>1019</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B532" s="0" t="n">
-        <v>383060</v>
+        <v>4</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>1020</v>
+        <v>4</v>
       </c>
       <c r="D532" s="0" t="s">
         <v>1020</v>
@@ -13806,7 +13822,7 @@
         <v>1021</v>
       </c>
       <c r="B533" s="0" t="n">
-        <v>211001</v>
+        <v>383060</v>
       </c>
       <c r="C533" s="0" t="s">
         <v>1022</v>
@@ -13820,7 +13836,7 @@
         <v>1023</v>
       </c>
       <c r="B534" s="0" t="n">
-        <v>355100</v>
+        <v>211001</v>
       </c>
       <c r="C534" s="0" t="s">
         <v>1024</v>
@@ -13834,7 +13850,7 @@
         <v>1025</v>
       </c>
       <c r="B535" s="0" t="n">
-        <v>341098</v>
+        <v>355100</v>
       </c>
       <c r="C535" s="0" t="s">
         <v>1026</v>
@@ -13848,7 +13864,7 @@
         <v>1027</v>
       </c>
       <c r="B536" s="0" t="n">
-        <v>344133</v>
+        <v>341098</v>
       </c>
       <c r="C536" s="0" t="s">
         <v>1028</v>
@@ -13862,7 +13878,7 @@
         <v>1029</v>
       </c>
       <c r="B537" s="0" t="n">
-        <v>344080</v>
+        <v>344133</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>1030</v>
@@ -13876,7 +13892,7 @@
         <v>1031</v>
       </c>
       <c r="B538" s="0" t="n">
-        <v>323080</v>
+        <v>344080</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>1032</v>
@@ -13890,7 +13906,7 @@
         <v>1033</v>
       </c>
       <c r="B539" s="0" t="n">
-        <v>355120</v>
+        <v>323080</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>1034</v>
@@ -13904,7 +13920,7 @@
         <v>1035</v>
       </c>
       <c r="B540" s="0" t="n">
-        <v>271050</v>
+        <v>355120</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>1036</v>
@@ -13918,7 +13934,7 @@
         <v>1037</v>
       </c>
       <c r="B541" s="0" t="n">
-        <v>358060</v>
+        <v>271050</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>1038</v>
@@ -13932,7 +13948,7 @@
         <v>1039</v>
       </c>
       <c r="B542" s="0" t="n">
-        <v>323190</v>
+        <v>358060</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>1040</v>
@@ -13946,7 +13962,7 @@
         <v>1041</v>
       </c>
       <c r="B543" s="0" t="n">
-        <v>263260</v>
+        <v>323190</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>1042</v>
@@ -13960,7 +13976,7 @@
         <v>1043</v>
       </c>
       <c r="B544" s="0" t="n">
-        <v>271031</v>
+        <v>263260</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>1044</v>
@@ -13974,7 +13990,7 @@
         <v>1045</v>
       </c>
       <c r="B545" s="0" t="n">
-        <v>264200</v>
+        <v>271031</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>1046</v>
@@ -13988,7 +14004,7 @@
         <v>1047</v>
       </c>
       <c r="B546" s="0" t="n">
-        <v>300530</v>
+        <v>264200</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>1048</v>
@@ -14002,7 +14018,7 @@
         <v>1049</v>
       </c>
       <c r="B547" s="0" t="n">
-        <v>320050</v>
+        <v>300530</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>1050</v>
@@ -14016,7 +14032,7 @@
         <v>1051</v>
       </c>
       <c r="B548" s="0" t="n">
-        <v>264180</v>
+        <v>320050</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>1052</v>
@@ -14030,7 +14046,7 @@
         <v>1053</v>
       </c>
       <c r="B549" s="0" t="n">
-        <v>264230</v>
+        <v>264180</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>1054</v>
@@ -14041,27 +14057,27 @@
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B550" s="0" t="s">
-        <v>4</v>
+        <v>1055</v>
+      </c>
+      <c r="B550" s="0" t="n">
+        <v>264230</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>4</v>
+        <v>1056</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B551" s="0" t="n">
-        <v>360030</v>
+        <v>4</v>
+      </c>
+      <c r="B551" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>1057</v>
+        <v>4</v>
       </c>
       <c r="D551" s="0" t="s">
         <v>1057</v>
@@ -14072,7 +14088,7 @@
         <v>1058</v>
       </c>
       <c r="B552" s="0" t="n">
-        <v>355092</v>
+        <v>360030</v>
       </c>
       <c r="C552" s="0" t="s">
         <v>1059</v>
@@ -14083,27 +14099,27 @@
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B553" s="0" t="s">
-        <v>4</v>
+        <v>1060</v>
+      </c>
+      <c r="B553" s="0" t="n">
+        <v>355092</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>4</v>
+        <v>1061</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B554" s="0" t="n">
-        <v>211042</v>
+        <v>4</v>
+      </c>
+      <c r="B554" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>1062</v>
+        <v>4</v>
       </c>
       <c r="D554" s="0" t="s">
         <v>1062</v>
@@ -14114,7 +14130,7 @@
         <v>1063</v>
       </c>
       <c r="B555" s="0" t="n">
-        <v>370030</v>
+        <v>211042</v>
       </c>
       <c r="C555" s="0" t="s">
         <v>1064</v>
@@ -14128,7 +14144,7 @@
         <v>1065</v>
       </c>
       <c r="B556" s="0" t="n">
-        <v>357110</v>
+        <v>370030</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>1066</v>
@@ -14142,7 +14158,7 @@
         <v>1067</v>
       </c>
       <c r="B557" s="0" t="n">
-        <v>355110</v>
+        <v>357110</v>
       </c>
       <c r="C557" s="0" t="s">
         <v>1068</v>
@@ -14156,7 +14172,7 @@
         <v>1069</v>
       </c>
       <c r="B558" s="0" t="n">
-        <v>266100</v>
+        <v>355110</v>
       </c>
       <c r="C558" s="0" t="s">
         <v>1070</v>
@@ -14167,16 +14183,16 @@
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B559" s="0" t="s">
-        <v>4</v>
+        <v>1071</v>
+      </c>
+      <c r="B559" s="0" t="n">
+        <v>266100</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>4</v>
+        <v>1072</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14190,18 +14206,18 @@
         <v>4</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B561" s="0" t="n">
-        <v>357064</v>
+        <v>4</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>1074</v>
+        <v>4</v>
       </c>
       <c r="D561" s="0" t="s">
         <v>1074</v>
@@ -14212,7 +14228,7 @@
         <v>1075</v>
       </c>
       <c r="B562" s="0" t="n">
-        <v>305050</v>
+        <v>357064</v>
       </c>
       <c r="C562" s="0" t="s">
         <v>1076</v>
@@ -14223,27 +14239,27 @@
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B563" s="0" t="s">
-        <v>4</v>
+        <v>1077</v>
+      </c>
+      <c r="B563" s="0" t="n">
+        <v>305050</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>4</v>
+        <v>1078</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B564" s="0" t="n">
-        <v>222100</v>
+        <v>4</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1079</v>
+        <v>4</v>
       </c>
       <c r="D564" s="0" t="s">
         <v>1079</v>
@@ -14254,7 +14270,7 @@
         <v>1080</v>
       </c>
       <c r="B565" s="0" t="n">
-        <v>357100</v>
+        <v>222100</v>
       </c>
       <c r="C565" s="0" t="s">
         <v>1081</v>
@@ -14268,7 +14284,7 @@
         <v>1082</v>
       </c>
       <c r="B566" s="0" t="n">
-        <v>341094</v>
+        <v>357100</v>
       </c>
       <c r="C566" s="0" t="s">
         <v>1083</v>
@@ -14282,7 +14298,7 @@
         <v>1084</v>
       </c>
       <c r="B567" s="0" t="n">
-        <v>341093</v>
+        <v>341094</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>1085</v>
@@ -14296,7 +14312,7 @@
         <v>1086</v>
       </c>
       <c r="B568" s="0" t="n">
-        <v>261111</v>
+        <v>341093</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>1087</v>
@@ -14310,7 +14326,7 @@
         <v>1088</v>
       </c>
       <c r="B569" s="0" t="n">
-        <v>221111</v>
+        <v>261111</v>
       </c>
       <c r="C569" s="0" t="s">
         <v>1089</v>
@@ -14324,38 +14340,38 @@
         <v>1090</v>
       </c>
       <c r="B570" s="0" t="n">
-        <v>358056</v>
+        <v>221111</v>
       </c>
       <c r="C570" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B571" s="0" t="n">
+        <v>358056</v>
+      </c>
+      <c r="C571" s="0" t="s">
         <v>1093</v>
       </c>
-      <c r="B571" s="0" t="n">
-        <v>351040</v>
-      </c>
-      <c r="C571" s="0" t="s">
+      <c r="D571" s="0" t="s">
         <v>1094</v>
-      </c>
-      <c r="D571" s="0" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B572" s="0" t="n">
+        <v>351040</v>
+      </c>
+      <c r="C572" s="0" t="s">
         <v>1096</v>
-      </c>
-      <c r="B572" s="0" t="n">
-        <v>312150</v>
-      </c>
-      <c r="C572" s="0" t="s">
-        <v>1097</v>
       </c>
       <c r="D572" s="0" t="s">
         <v>1097</v>
@@ -14366,7 +14382,7 @@
         <v>1098</v>
       </c>
       <c r="B573" s="0" t="n">
-        <v>272070</v>
+        <v>312150</v>
       </c>
       <c r="C573" s="0" t="s">
         <v>1099</v>
@@ -14380,7 +14396,7 @@
         <v>1100</v>
       </c>
       <c r="B574" s="0" t="n">
-        <v>266110</v>
+        <v>272070</v>
       </c>
       <c r="C574" s="0" t="s">
         <v>1101</v>
@@ -14394,7 +14410,7 @@
         <v>1102</v>
       </c>
       <c r="B575" s="0" t="n">
-        <v>357021</v>
+        <v>266110</v>
       </c>
       <c r="C575" s="0" t="s">
         <v>1103</v>
@@ -14408,7 +14424,7 @@
         <v>1104</v>
       </c>
       <c r="B576" s="0" t="n">
-        <v>271040</v>
+        <v>357021</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>1105</v>
@@ -14422,7 +14438,7 @@
         <v>1106</v>
       </c>
       <c r="B577" s="0" t="n">
-        <v>268070</v>
+        <v>271040</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>1107</v>
@@ -14436,7 +14452,7 @@
         <v>1108</v>
       </c>
       <c r="B578" s="0" t="n">
-        <v>311310</v>
+        <v>268070</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>1109</v>
@@ -14447,27 +14463,27 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B579" s="0" t="s">
-        <v>4</v>
+        <v>1110</v>
+      </c>
+      <c r="B579" s="0" t="n">
+        <v>311310</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>4</v>
+        <v>1111</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B580" s="0" t="n">
-        <v>271071</v>
+        <v>4</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>1112</v>
+        <v>4</v>
       </c>
       <c r="D580" s="0" t="s">
         <v>1112</v>
@@ -14478,7 +14494,7 @@
         <v>1113</v>
       </c>
       <c r="B581" s="0" t="n">
-        <v>273044</v>
+        <v>271071</v>
       </c>
       <c r="C581" s="0" t="s">
         <v>1114</v>
@@ -14492,7 +14508,7 @@
         <v>1115</v>
       </c>
       <c r="B582" s="0" t="n">
-        <v>261121</v>
+        <v>273044</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>1116</v>
@@ -14503,27 +14519,27 @@
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B583" s="0" t="s">
-        <v>4</v>
+        <v>1117</v>
+      </c>
+      <c r="B583" s="0" t="n">
+        <v>261121</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>4</v>
+        <v>1118</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B584" s="0" t="n">
-        <v>300290</v>
+        <v>4</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>1119</v>
+        <v>4</v>
       </c>
       <c r="D584" s="0" t="s">
         <v>1119</v>
@@ -14534,7 +14550,7 @@
         <v>1120</v>
       </c>
       <c r="B585" s="0" t="n">
-        <v>300140</v>
+        <v>300290</v>
       </c>
       <c r="C585" s="0" t="s">
         <v>1121</v>
@@ -14548,7 +14564,7 @@
         <v>1122</v>
       </c>
       <c r="B586" s="0" t="n">
-        <v>323150</v>
+        <v>300140</v>
       </c>
       <c r="C586" s="0" t="s">
         <v>1123</v>
@@ -14559,27 +14575,27 @@
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B587" s="0" t="s">
-        <v>4</v>
+        <v>1124</v>
+      </c>
+      <c r="B587" s="0" t="n">
+        <v>323150</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>4</v>
+        <v>1125</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B588" s="0" t="n">
-        <v>221127</v>
+        <v>4</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>1126</v>
+        <v>4</v>
       </c>
       <c r="D588" s="0" t="s">
         <v>1126</v>
@@ -14590,7 +14606,7 @@
         <v>1127</v>
       </c>
       <c r="B589" s="0" t="n">
-        <v>221115</v>
+        <v>221127</v>
       </c>
       <c r="C589" s="0" t="s">
         <v>1128</v>
@@ -14604,7 +14620,7 @@
         <v>1129</v>
       </c>
       <c r="B590" s="0" t="n">
-        <v>221122</v>
+        <v>221115</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>1130</v>
@@ -14618,7 +14634,7 @@
         <v>1131</v>
       </c>
       <c r="B591" s="0" t="n">
-        <v>272030</v>
+        <v>221122</v>
       </c>
       <c r="C591" s="0" t="s">
         <v>1132</v>
@@ -14632,7 +14648,7 @@
         <v>1133</v>
       </c>
       <c r="B592" s="0" t="n">
-        <v>261140</v>
+        <v>272030</v>
       </c>
       <c r="C592" s="0" t="s">
         <v>1134</v>
@@ -14643,27 +14659,27 @@
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B593" s="0" t="s">
-        <v>4</v>
+        <v>1135</v>
+      </c>
+      <c r="B593" s="0" t="n">
+        <v>261140</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>4</v>
+        <v>1136</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B594" s="0" t="n">
-        <v>268062</v>
+        <v>4</v>
+      </c>
+      <c r="B594" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1137</v>
+        <v>4</v>
       </c>
       <c r="D594" s="0" t="s">
         <v>1137</v>
@@ -14674,7 +14690,7 @@
         <v>1138</v>
       </c>
       <c r="B595" s="0" t="n">
-        <v>273081</v>
+        <v>268062</v>
       </c>
       <c r="C595" s="0" t="s">
         <v>1139</v>
@@ -14688,7 +14704,7 @@
         <v>1140</v>
       </c>
       <c r="B596" s="0" t="n">
-        <v>327040</v>
+        <v>273081</v>
       </c>
       <c r="C596" s="0" t="s">
         <v>1141</v>
@@ -14702,7 +14718,7 @@
         <v>1142</v>
       </c>
       <c r="B597" s="0" t="n">
-        <v>241061</v>
+        <v>327040</v>
       </c>
       <c r="C597" s="0" t="s">
         <v>1143</v>
@@ -14716,7 +14732,7 @@
         <v>1144</v>
       </c>
       <c r="B598" s="0" t="n">
-        <v>222021</v>
+        <v>241061</v>
       </c>
       <c r="C598" s="0" t="s">
         <v>1145</v>
@@ -14730,7 +14746,7 @@
         <v>1146</v>
       </c>
       <c r="B599" s="0" t="n">
-        <v>313140</v>
+        <v>222021</v>
       </c>
       <c r="C599" s="0" t="s">
         <v>1147</v>
@@ -14741,27 +14757,27 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B600" s="0" t="s">
-        <v>4</v>
+        <v>1148</v>
+      </c>
+      <c r="B600" s="0" t="n">
+        <v>313140</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>4</v>
+        <v>1149</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B601" s="0" t="n">
-        <v>273031</v>
+        <v>4</v>
+      </c>
+      <c r="B601" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1150</v>
+        <v>4</v>
       </c>
       <c r="D601" s="0" t="s">
         <v>1150</v>
@@ -14772,7 +14788,7 @@
         <v>1151</v>
       </c>
       <c r="B602" s="0" t="n">
-        <v>344100</v>
+        <v>273031</v>
       </c>
       <c r="C602" s="0" t="s">
         <v>1152</v>
@@ -14786,7 +14802,7 @@
         <v>1153</v>
       </c>
       <c r="B603" s="0" t="n">
-        <v>341031</v>
+        <v>344100</v>
       </c>
       <c r="C603" s="0" t="s">
         <v>1154</v>
@@ -14800,7 +14816,7 @@
         <v>1155</v>
       </c>
       <c r="B604" s="0" t="n">
-        <v>300001</v>
+        <v>341031</v>
       </c>
       <c r="C604" s="0" t="s">
         <v>1156</v>
@@ -14811,27 +14827,27 @@
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B605" s="0" t="s">
-        <v>4</v>
+        <v>1157</v>
+      </c>
+      <c r="B605" s="0" t="n">
+        <v>300001</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>4</v>
+        <v>1158</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B606" s="0" t="n">
-        <v>221105</v>
+        <v>4</v>
+      </c>
+      <c r="B606" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>1159</v>
+        <v>4</v>
       </c>
       <c r="D606" s="0" t="s">
         <v>1159</v>
@@ -14842,7 +14858,7 @@
         <v>1160</v>
       </c>
       <c r="B607" s="0" t="n">
-        <v>271020</v>
+        <v>221105</v>
       </c>
       <c r="C607" s="0" t="s">
         <v>1161</v>
@@ -14856,7 +14872,7 @@
         <v>1162</v>
       </c>
       <c r="B608" s="0" t="n">
-        <v>332030</v>
+        <v>271020</v>
       </c>
       <c r="C608" s="0" t="s">
         <v>1163</v>
@@ -14870,7 +14886,7 @@
         <v>1164</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>332020</v>
+        <v>332030</v>
       </c>
       <c r="C609" s="0" t="s">
         <v>1165</v>
@@ -14884,7 +14900,7 @@
         <v>1166</v>
       </c>
       <c r="B610" s="0" t="n">
-        <v>273030</v>
+        <v>332020</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>1167</v>
@@ -14898,7 +14914,7 @@
         <v>1168</v>
       </c>
       <c r="B611" s="0" t="n">
-        <v>241021</v>
+        <v>273030</v>
       </c>
       <c r="C611" s="0" t="s">
         <v>1169</v>
@@ -14912,7 +14928,7 @@
         <v>1170</v>
       </c>
       <c r="B612" s="0" t="n">
-        <v>320180</v>
+        <v>241021</v>
       </c>
       <c r="C612" s="0" t="s">
         <v>1171</v>
@@ -14926,7 +14942,7 @@
         <v>1172</v>
       </c>
       <c r="B613" s="0" t="n">
-        <v>323020</v>
+        <v>320180</v>
       </c>
       <c r="C613" s="0" t="s">
         <v>1173</v>
@@ -14940,7 +14956,7 @@
         <v>1174</v>
       </c>
       <c r="B614" s="0" t="n">
-        <v>221330</v>
+        <v>323020</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>1175</v>
@@ -14951,27 +14967,27 @@
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B615" s="0" t="s">
-        <v>4</v>
+        <v>1176</v>
+      </c>
+      <c r="B615" s="0" t="n">
+        <v>221330</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>4</v>
+        <v>1177</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B616" s="0" t="n">
-        <v>225050</v>
+        <v>4</v>
+      </c>
+      <c r="B616" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>1178</v>
+        <v>4</v>
       </c>
       <c r="D616" s="0" t="s">
         <v>1178</v>
@@ -14982,7 +14998,7 @@
         <v>1179</v>
       </c>
       <c r="B617" s="0" t="n">
-        <v>358052</v>
+        <v>225050</v>
       </c>
       <c r="C617" s="0" t="s">
         <v>1180</v>
@@ -14996,7 +15012,7 @@
         <v>1181</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>222060</v>
+        <v>358052</v>
       </c>
       <c r="C618" s="0" t="s">
         <v>1182</v>
@@ -15010,7 +15026,7 @@
         <v>1183</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>358054</v>
+        <v>222060</v>
       </c>
       <c r="C619" s="0" t="s">
         <v>1184</v>
@@ -15024,7 +15040,7 @@
         <v>1185</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>263250</v>
+        <v>358054</v>
       </c>
       <c r="C620" s="0" t="s">
         <v>1186</v>
@@ -15038,7 +15054,7 @@
         <v>1187</v>
       </c>
       <c r="B621" s="0" t="n">
-        <v>263240</v>
+        <v>263250</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>1188</v>
@@ -15052,7 +15068,7 @@
         <v>1189</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>222160</v>
+        <v>263240</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>1190</v>
@@ -15066,7 +15082,7 @@
         <v>1191</v>
       </c>
       <c r="B623" s="0" t="n">
-        <v>212020</v>
+        <v>222160</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>1192</v>
@@ -15080,24 +15096,24 @@
         <v>1193</v>
       </c>
       <c r="B624" s="0" t="n">
-        <v>358064</v>
+        <v>212020</v>
       </c>
       <c r="C624" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B625" s="0" t="n">
+        <v>358064</v>
+      </c>
+      <c r="C625" s="0" t="s">
         <v>1196</v>
-      </c>
-      <c r="B625" s="0" t="n">
-        <v>300570</v>
-      </c>
-      <c r="C625" s="0" t="s">
-        <v>1197</v>
       </c>
       <c r="D625" s="0" t="s">
         <v>1197</v>
@@ -15108,7 +15124,7 @@
         <v>1198</v>
       </c>
       <c r="B626" s="0" t="n">
-        <v>358040</v>
+        <v>300570</v>
       </c>
       <c r="C626" s="0" t="s">
         <v>1199</v>
@@ -15122,38 +15138,38 @@
         <v>1200</v>
       </c>
       <c r="B627" s="0" t="n">
-        <v>341060</v>
+        <v>358040</v>
       </c>
       <c r="C627" s="0" t="s">
         <v>1201</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B628" s="0" t="s">
-        <v>4</v>
+        <v>1202</v>
+      </c>
+      <c r="B628" s="0" t="n">
+        <v>341060</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>4</v>
+        <v>1203</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B629" s="0" t="n">
-        <v>303050</v>
+        <v>4</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1205</v>
+        <v>4</v>
       </c>
       <c r="D629" s="0" t="s">
         <v>1205</v>
@@ -15161,27 +15177,27 @@
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B630" s="0" t="s">
-        <v>4</v>
+        <v>1206</v>
+      </c>
+      <c r="B630" s="0" t="n">
+        <v>303050</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>4</v>
+        <v>1207</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B631" s="0" t="n">
-        <v>320120</v>
+        <v>4</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1208</v>
+        <v>4</v>
       </c>
       <c r="D631" s="0" t="s">
         <v>1208</v>
@@ -15192,7 +15208,7 @@
         <v>1209</v>
       </c>
       <c r="B632" s="0" t="n">
-        <v>290161</v>
+        <v>320120</v>
       </c>
       <c r="C632" s="0" t="s">
         <v>1210</v>
@@ -15206,7 +15222,7 @@
         <v>1211</v>
       </c>
       <c r="B633" s="0" t="n">
-        <v>212030</v>
+        <v>290161</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>1212</v>
@@ -15220,24 +15236,24 @@
         <v>1213</v>
       </c>
       <c r="B634" s="0" t="n">
-        <v>355102</v>
+        <v>212030</v>
       </c>
       <c r="C634" s="0" t="s">
         <v>1214</v>
       </c>
       <c r="D634" s="0" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B635" s="0" t="n">
+        <v>355102</v>
+      </c>
+      <c r="C635" s="0" t="s">
         <v>1216</v>
-      </c>
-      <c r="B635" s="0" t="n">
-        <v>345030</v>
-      </c>
-      <c r="C635" s="0" t="s">
-        <v>1217</v>
       </c>
       <c r="D635" s="0" t="s">
         <v>1217</v>
@@ -15245,27 +15261,27 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B636" s="0" t="s">
-        <v>4</v>
+        <v>1218</v>
+      </c>
+      <c r="B636" s="0" t="n">
+        <v>345030</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>4</v>
+        <v>1219</v>
       </c>
       <c r="D636" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B637" s="0" t="n">
-        <v>357130</v>
+        <v>4</v>
+      </c>
+      <c r="B637" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1220</v>
+        <v>4</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>1220</v>
@@ -15276,24 +15292,24 @@
         <v>1221</v>
       </c>
       <c r="B638" s="0" t="n">
-        <v>290041</v>
+        <v>357130</v>
       </c>
       <c r="C638" s="0" t="s">
         <v>1222</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B639" s="0" t="n">
+        <v>290041</v>
+      </c>
+      <c r="C639" s="0" t="s">
         <v>1224</v>
-      </c>
-      <c r="B639" s="0" t="n">
-        <v>311111</v>
-      </c>
-      <c r="C639" s="0" t="s">
-        <v>1225</v>
       </c>
       <c r="D639" s="0" t="s">
         <v>1225</v>
@@ -15304,7 +15320,7 @@
         <v>1226</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>344110</v>
+        <v>311111</v>
       </c>
       <c r="C640" s="0" t="s">
         <v>1227</v>
@@ -15318,7 +15334,7 @@
         <v>1228</v>
       </c>
       <c r="B641" s="0" t="n">
-        <v>344090</v>
+        <v>344110</v>
       </c>
       <c r="C641" s="0" t="s">
         <v>1229</v>
@@ -15332,24 +15348,24 @@
         <v>1230</v>
       </c>
       <c r="B642" s="0" t="n">
-        <v>323120</v>
+        <v>344090</v>
       </c>
       <c r="C642" s="0" t="s">
         <v>1231</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B643" s="0" t="n">
+        <v>323120</v>
+      </c>
+      <c r="C643" s="0" t="s">
         <v>1233</v>
-      </c>
-      <c r="B643" s="0" t="n">
-        <v>323110</v>
-      </c>
-      <c r="C643" s="0" t="s">
-        <v>1234</v>
       </c>
       <c r="D643" s="0" t="s">
         <v>1234</v>
@@ -15360,7 +15376,7 @@
         <v>1235</v>
       </c>
       <c r="B644" s="0" t="n">
-        <v>358070</v>
+        <v>323110</v>
       </c>
       <c r="C644" s="0" t="s">
         <v>1236</v>
@@ -15374,7 +15390,7 @@
         <v>1237</v>
       </c>
       <c r="B645" s="0" t="n">
-        <v>360080</v>
+        <v>358070</v>
       </c>
       <c r="C645" s="0" t="s">
         <v>1238</v>
@@ -15388,7 +15404,7 @@
         <v>1239</v>
       </c>
       <c r="B646" s="0" t="n">
-        <v>360090</v>
+        <v>360080</v>
       </c>
       <c r="C646" s="0" t="s">
         <v>1240</v>
@@ -15402,7 +15418,7 @@
         <v>1241</v>
       </c>
       <c r="B647" s="0" t="n">
-        <v>268063</v>
+        <v>360090</v>
       </c>
       <c r="C647" s="0" t="s">
         <v>1242</v>
@@ -15416,38 +15432,38 @@
         <v>1243</v>
       </c>
       <c r="B648" s="0" t="n">
-        <v>221123</v>
+        <v>268063</v>
       </c>
       <c r="C648" s="0" t="s">
         <v>1244</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B649" s="0" t="n">
+        <v>221123</v>
+      </c>
+      <c r="C649" s="0" t="s">
         <v>1246</v>
       </c>
-      <c r="B649" s="0" t="n">
-        <v>290100</v>
-      </c>
-      <c r="C649" s="0" t="s">
+      <c r="D649" s="0" t="s">
         <v>1247</v>
-      </c>
-      <c r="D649" s="0" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B650" s="0" t="n">
+        <v>290100</v>
+      </c>
+      <c r="C650" s="0" t="s">
         <v>1249</v>
-      </c>
-      <c r="B650" s="0" t="n">
-        <v>342130</v>
-      </c>
-      <c r="C650" s="0" t="s">
-        <v>1250</v>
       </c>
       <c r="D650" s="0" t="s">
         <v>1250</v>
@@ -15458,7 +15474,7 @@
         <v>1251</v>
       </c>
       <c r="B651" s="0" t="n">
-        <v>223060</v>
+        <v>342130</v>
       </c>
       <c r="C651" s="0" t="s">
         <v>1252</v>
@@ -15469,27 +15485,27 @@
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B652" s="0" t="s">
-        <v>4</v>
+        <v>1253</v>
+      </c>
+      <c r="B652" s="0" t="n">
+        <v>223060</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>4</v>
+        <v>1254</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B653" s="0" t="n">
-        <v>263251</v>
+        <v>4</v>
+      </c>
+      <c r="B653" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1255</v>
+        <v>4</v>
       </c>
       <c r="D653" s="0" t="s">
         <v>1255</v>
@@ -15500,7 +15516,7 @@
         <v>1256</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>271070</v>
+        <v>263251</v>
       </c>
       <c r="C654" s="0" t="s">
         <v>1257</v>
@@ -15514,7 +15530,7 @@
         <v>1258</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>300060</v>
+        <v>271070</v>
       </c>
       <c r="C655" s="0" t="s">
         <v>1259</v>
@@ -15525,27 +15541,27 @@
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B656" s="0" t="s">
-        <v>4</v>
+        <v>1260</v>
+      </c>
+      <c r="B656" s="0" t="n">
+        <v>300060</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>4</v>
+        <v>1261</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B657" s="0" t="n">
-        <v>221101</v>
+        <v>4</v>
+      </c>
+      <c r="B657" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1262</v>
+        <v>4</v>
       </c>
       <c r="D657" s="0" t="s">
         <v>1262</v>
@@ -15553,27 +15569,27 @@
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B658" s="0" t="s">
-        <v>4</v>
+        <v>1263</v>
+      </c>
+      <c r="B658" s="0" t="n">
+        <v>221101</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>4</v>
+        <v>1264</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B659" s="0" t="n">
-        <v>222040</v>
+        <v>4</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1265</v>
+        <v>4</v>
       </c>
       <c r="D659" s="0" t="s">
         <v>1265</v>
@@ -15581,27 +15597,27 @@
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B660" s="0" t="s">
-        <v>4</v>
+        <v>1266</v>
+      </c>
+      <c r="B660" s="0" t="n">
+        <v>222040</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>4</v>
+        <v>1267</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B661" s="0" t="n">
-        <v>341095</v>
+        <v>4</v>
+      </c>
+      <c r="B661" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1268</v>
+        <v>4</v>
       </c>
       <c r="D661" s="0" t="s">
         <v>1268</v>
@@ -15609,16 +15625,16 @@
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B662" s="0" t="s">
-        <v>4</v>
+        <v>1269</v>
+      </c>
+      <c r="B662" s="0" t="n">
+        <v>341095</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>4</v>
+        <v>1270</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15632,18 +15648,18 @@
         <v>4</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B664" s="0" t="n">
-        <v>273082</v>
+        <v>4</v>
+      </c>
+      <c r="B664" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>1272</v>
+        <v>4</v>
       </c>
       <c r="D664" s="0" t="s">
         <v>1272</v>
@@ -15654,7 +15670,7 @@
         <v>1273</v>
       </c>
       <c r="B665" s="0" t="n">
-        <v>320140</v>
+        <v>273082</v>
       </c>
       <c r="C665" s="0" t="s">
         <v>1274</v>
@@ -15668,7 +15684,7 @@
         <v>1275</v>
       </c>
       <c r="B666" s="0" t="n">
-        <v>344092</v>
+        <v>320140</v>
       </c>
       <c r="C666" s="0" t="s">
         <v>1276</v>
@@ -15682,7 +15698,7 @@
         <v>1277</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>213020</v>
+        <v>344092</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>1278</v>
@@ -15696,7 +15712,7 @@
         <v>1279</v>
       </c>
       <c r="B668" s="0" t="n">
-        <v>354007</v>
+        <v>213020</v>
       </c>
       <c r="C668" s="0" t="s">
         <v>1280</v>
@@ -15710,7 +15726,7 @@
         <v>1281</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>355125</v>
+        <v>354007</v>
       </c>
       <c r="C669" s="0" t="s">
         <v>1282</v>
@@ -15724,7 +15740,7 @@
         <v>1283</v>
       </c>
       <c r="B670" s="0" t="n">
-        <v>351050</v>
+        <v>355125</v>
       </c>
       <c r="C670" s="0" t="s">
         <v>1284</v>
@@ -15738,24 +15754,24 @@
         <v>1285</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>357063</v>
+        <v>351050</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>1286</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B672" s="0" t="n">
+        <v>357063</v>
+      </c>
+      <c r="C672" s="0" t="s">
         <v>1288</v>
-      </c>
-      <c r="B672" s="0" t="n">
-        <v>351020</v>
-      </c>
-      <c r="C672" s="0" t="s">
-        <v>1289</v>
       </c>
       <c r="D672" s="0" t="s">
         <v>1289</v>
@@ -15766,7 +15782,7 @@
         <v>1290</v>
       </c>
       <c r="B673" s="0" t="n">
-        <v>351030</v>
+        <v>351020</v>
       </c>
       <c r="C673" s="0" t="s">
         <v>1291</v>
@@ -15780,7 +15796,7 @@
         <v>1292</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>341070</v>
+        <v>351030</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>1293</v>
@@ -15794,7 +15810,7 @@
         <v>1294</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>354060</v>
+        <v>341070</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>1295</v>
@@ -15808,7 +15824,7 @@
         <v>1296</v>
       </c>
       <c r="B676" s="0" t="n">
-        <v>357079</v>
+        <v>354060</v>
       </c>
       <c r="C676" s="0" t="s">
         <v>1297</v>
@@ -15822,7 +15838,7 @@
         <v>1298</v>
       </c>
       <c r="B677" s="0" t="n">
-        <v>355130</v>
+        <v>357079</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>1299</v>
@@ -15836,7 +15852,7 @@
         <v>1300</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>360040</v>
+        <v>355130</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>1301</v>
@@ -15850,7 +15866,7 @@
         <v>1302</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>322110</v>
+        <v>360040</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>1303</v>
@@ -15864,7 +15880,7 @@
         <v>1304</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>222164</v>
+        <v>322110</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>1305</v>
@@ -15875,16 +15891,16 @@
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B681" s="0" t="s">
-        <v>4</v>
+        <v>1306</v>
+      </c>
+      <c r="B681" s="0" t="n">
+        <v>222164</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>4</v>
+        <v>1307</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15898,7 +15914,7 @@
         <v>4</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15912,7 +15928,7 @@
         <v>4</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15926,18 +15942,18 @@
         <v>4</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B685" s="0" t="n">
-        <v>290060</v>
+        <v>4</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1311</v>
+        <v>4</v>
       </c>
       <c r="D685" s="0" t="s">
         <v>1311</v>
@@ -15948,7 +15964,7 @@
         <v>1312</v>
       </c>
       <c r="B686" s="0" t="n">
-        <v>212050</v>
+        <v>290060</v>
       </c>
       <c r="C686" s="0" t="s">
         <v>1313</v>
@@ -15959,27 +15975,27 @@
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B687" s="0" t="s">
-        <v>4</v>
+        <v>1314</v>
+      </c>
+      <c r="B687" s="0" t="n">
+        <v>212050</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>4</v>
+        <v>1315</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B688" s="0" t="n">
-        <v>222001</v>
+        <v>4</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1316</v>
+        <v>4</v>
       </c>
       <c r="D688" s="0" t="s">
         <v>1316</v>
@@ -15990,7 +16006,7 @@
         <v>1317</v>
       </c>
       <c r="B689" s="0" t="n">
-        <v>312180</v>
+        <v>222001</v>
       </c>
       <c r="C689" s="0" t="s">
         <v>1318</v>
@@ -16001,27 +16017,27 @@
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B690" s="0" t="s">
-        <v>4</v>
+        <v>1319</v>
+      </c>
+      <c r="B690" s="0" t="n">
+        <v>312180</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>4</v>
+        <v>1320</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B691" s="0" t="n">
-        <v>222056</v>
+        <v>4</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>1321</v>
+        <v>4</v>
       </c>
       <c r="D691" s="0" t="s">
         <v>1321</v>
@@ -16032,7 +16048,7 @@
         <v>1322</v>
       </c>
       <c r="B692" s="0" t="n">
-        <v>223020</v>
+        <v>222056</v>
       </c>
       <c r="C692" s="0" t="s">
         <v>1323</v>
@@ -16046,7 +16062,7 @@
         <v>1324</v>
       </c>
       <c r="B693" s="0" t="n">
-        <v>223030</v>
+        <v>223020</v>
       </c>
       <c r="C693" s="0" t="s">
         <v>1325</v>
@@ -16060,7 +16076,7 @@
         <v>1326</v>
       </c>
       <c r="B694" s="0" t="n">
-        <v>300650</v>
+        <v>223030</v>
       </c>
       <c r="C694" s="0" t="s">
         <v>1327</v>
@@ -16073,45 +16089,45 @@
       <c r="A695" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="B695" s="0" t="s">
+      <c r="B695" s="0" t="n">
+        <v>300650</v>
+      </c>
+      <c r="C695" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="C695" s="0" t="n">
-        <v>221280</v>
-      </c>
       <c r="D695" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E695" s="0" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F695" s="0" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B696" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C696" s="0" t="n">
+        <v>221280</v>
+      </c>
+      <c r="D696" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E696" s="0" t="s">
         <v>1333</v>
       </c>
-      <c r="B696" s="0" t="n">
-        <v>290072</v>
-      </c>
-      <c r="C696" s="0" t="s">
+      <c r="F696" s="0" t="s">
         <v>1334</v>
-      </c>
-      <c r="D696" s="0" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B697" s="0" t="n">
+        <v>290072</v>
+      </c>
+      <c r="C697" s="0" t="s">
         <v>1336</v>
-      </c>
-      <c r="B697" s="0" t="n">
-        <v>241050</v>
-      </c>
-      <c r="C697" s="0" t="s">
-        <v>1337</v>
       </c>
       <c r="D697" s="0" t="s">
         <v>1337</v>
@@ -16119,27 +16135,27 @@
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B698" s="0" t="s">
-        <v>4</v>
+        <v>1338</v>
+      </c>
+      <c r="B698" s="0" t="n">
+        <v>241050</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>4</v>
+        <v>1339</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B699" s="0" t="n">
-        <v>311290</v>
+        <v>4</v>
+      </c>
+      <c r="B699" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>1340</v>
+        <v>4</v>
       </c>
       <c r="D699" s="0" t="s">
         <v>1340</v>
@@ -16150,7 +16166,7 @@
         <v>1341</v>
       </c>
       <c r="B700" s="0" t="n">
-        <v>224030</v>
+        <v>311290</v>
       </c>
       <c r="C700" s="0" t="s">
         <v>1342</v>
@@ -16164,7 +16180,7 @@
         <v>1343</v>
       </c>
       <c r="B701" s="0" t="n">
-        <v>355050</v>
+        <v>224030</v>
       </c>
       <c r="C701" s="0" t="s">
         <v>1344</v>
@@ -16178,7 +16194,7 @@
         <v>1345</v>
       </c>
       <c r="B702" s="0" t="n">
-        <v>222080</v>
+        <v>355050</v>
       </c>
       <c r="C702" s="0" t="s">
         <v>1346</v>
@@ -16192,7 +16208,7 @@
         <v>1347</v>
       </c>
       <c r="B703" s="0" t="n">
-        <v>222120</v>
+        <v>222080</v>
       </c>
       <c r="C703" s="0" t="s">
         <v>1348</v>
@@ -16206,7 +16222,7 @@
         <v>1349</v>
       </c>
       <c r="B704" s="0" t="n">
-        <v>222090</v>
+        <v>222120</v>
       </c>
       <c r="C704" s="0" t="s">
         <v>1350</v>
@@ -16220,7 +16236,7 @@
         <v>1351</v>
       </c>
       <c r="B705" s="0" t="n">
-        <v>222055</v>
+        <v>222090</v>
       </c>
       <c r="C705" s="0" t="s">
         <v>1352</v>
@@ -16234,7 +16250,7 @@
         <v>1353</v>
       </c>
       <c r="B706" s="0" t="n">
-        <v>300052</v>
+        <v>222055</v>
       </c>
       <c r="C706" s="0" t="s">
         <v>1354</v>
@@ -16248,24 +16264,24 @@
         <v>1355</v>
       </c>
       <c r="B707" s="0" t="n">
-        <v>355060</v>
+        <v>300052</v>
       </c>
       <c r="C707" s="0" t="s">
         <v>1356</v>
       </c>
       <c r="D707" s="0" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B708" s="0" t="n">
+        <v>355060</v>
+      </c>
+      <c r="C708" s="0" t="s">
         <v>1358</v>
-      </c>
-      <c r="B708" s="0" t="n">
-        <v>210030</v>
-      </c>
-      <c r="C708" s="0" t="s">
-        <v>1359</v>
       </c>
       <c r="D708" s="0" t="s">
         <v>1359</v>
@@ -16273,16 +16289,16 @@
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B709" s="0" t="s">
-        <v>4</v>
+        <v>1360</v>
+      </c>
+      <c r="B709" s="0" t="n">
+        <v>210030</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>4</v>
+        <v>1361</v>
       </c>
       <c r="D709" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16296,18 +16312,18 @@
         <v>4</v>
       </c>
       <c r="D710" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B711" s="0" t="n">
-        <v>300080</v>
+        <v>4</v>
+      </c>
+      <c r="B711" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>1363</v>
+        <v>4</v>
       </c>
       <c r="D711" s="0" t="s">
         <v>1363</v>
@@ -16318,7 +16334,7 @@
         <v>1364</v>
       </c>
       <c r="B712" s="0" t="n">
-        <v>374010</v>
+        <v>300080</v>
       </c>
       <c r="C712" s="0" t="s">
         <v>1365</v>
@@ -16332,27 +16348,27 @@
         <v>1366</v>
       </c>
       <c r="B713" s="0" t="n">
-        <v>345010</v>
+        <v>374010</v>
       </c>
       <c r="C713" s="0" t="s">
         <v>1367</v>
       </c>
       <c r="D713" s="0" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B714" s="0" t="s">
-        <v>4</v>
+        <v>1368</v>
+      </c>
+      <c r="B714" s="0" t="n">
+        <v>345010</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>4</v>
+        <v>1369</v>
       </c>
       <c r="D714" s="0" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16366,18 +16382,18 @@
         <v>4</v>
       </c>
       <c r="D715" s="0" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B716" s="0" t="n">
-        <v>358010</v>
+        <v>4</v>
+      </c>
+      <c r="B716" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>1372</v>
+        <v>4</v>
       </c>
       <c r="D716" s="0" t="s">
         <v>1372</v>
@@ -16388,7 +16404,7 @@
         <v>1373</v>
       </c>
       <c r="B717" s="0" t="n">
-        <v>300055</v>
+        <v>358010</v>
       </c>
       <c r="C717" s="0" t="s">
         <v>1374</v>
@@ -16402,7 +16418,7 @@
         <v>1375</v>
       </c>
       <c r="B718" s="0" t="n">
-        <v>300680</v>
+        <v>300055</v>
       </c>
       <c r="C718" s="0" t="s">
         <v>1376</v>
@@ -16416,7 +16432,7 @@
         <v>1377</v>
       </c>
       <c r="B719" s="0" t="n">
-        <v>300056</v>
+        <v>300680</v>
       </c>
       <c r="C719" s="0" t="s">
         <v>1378</v>
@@ -16430,7 +16446,7 @@
         <v>1379</v>
       </c>
       <c r="B720" s="0" t="n">
-        <v>300051</v>
+        <v>300056</v>
       </c>
       <c r="C720" s="0" t="s">
         <v>1380</v>
@@ -16444,7 +16460,7 @@
         <v>1381</v>
       </c>
       <c r="B721" s="0" t="n">
-        <v>342110</v>
+        <v>300051</v>
       </c>
       <c r="C721" s="0" t="s">
         <v>1382</v>
@@ -16458,7 +16474,7 @@
         <v>1383</v>
       </c>
       <c r="B722" s="0" t="n">
-        <v>222053</v>
+        <v>342110</v>
       </c>
       <c r="C722" s="0" t="s">
         <v>1384</v>
@@ -16472,7 +16488,7 @@
         <v>1385</v>
       </c>
       <c r="B723" s="0" t="n">
-        <v>357022</v>
+        <v>222053</v>
       </c>
       <c r="C723" s="0" t="s">
         <v>1386</v>
@@ -16486,7 +16502,7 @@
         <v>1387</v>
       </c>
       <c r="B724" s="0" t="n">
-        <v>264150</v>
+        <v>357022</v>
       </c>
       <c r="C724" s="0" t="s">
         <v>1388</v>
@@ -16500,7 +16516,7 @@
         <v>1389</v>
       </c>
       <c r="B725" s="0" t="n">
-        <v>355042</v>
+        <v>264150</v>
       </c>
       <c r="C725" s="0" t="s">
         <v>1390</v>
@@ -16514,7 +16530,7 @@
         <v>1391</v>
       </c>
       <c r="B726" s="0" t="n">
-        <v>211041</v>
+        <v>355042</v>
       </c>
       <c r="C726" s="0" t="s">
         <v>1392</v>
@@ -16528,7 +16544,7 @@
         <v>1393</v>
       </c>
       <c r="B727" s="0" t="n">
-        <v>211071</v>
+        <v>211041</v>
       </c>
       <c r="C727" s="0" t="s">
         <v>1394</v>
@@ -16542,7 +16558,7 @@
         <v>1395</v>
       </c>
       <c r="B728" s="0" t="n">
-        <v>263100</v>
+        <v>211071</v>
       </c>
       <c r="C728" s="0" t="s">
         <v>1396</v>
@@ -16556,7 +16572,7 @@
         <v>1397</v>
       </c>
       <c r="B729" s="0" t="n">
-        <v>341081</v>
+        <v>263100</v>
       </c>
       <c r="C729" s="0" t="s">
         <v>1398</v>
@@ -16570,7 +16586,7 @@
         <v>1399</v>
       </c>
       <c r="B730" s="0" t="n">
-        <v>355012</v>
+        <v>341081</v>
       </c>
       <c r="C730" s="0" t="s">
         <v>1400</v>
@@ -16584,7 +16600,7 @@
         <v>1401</v>
       </c>
       <c r="B731" s="0" t="n">
-        <v>271011</v>
+        <v>355012</v>
       </c>
       <c r="C731" s="0" t="s">
         <v>1402</v>
@@ -16598,7 +16614,7 @@
         <v>1403</v>
       </c>
       <c r="B732" s="0" t="n">
-        <v>261231</v>
+        <v>271011</v>
       </c>
       <c r="C732" s="0" t="s">
         <v>1404</v>
@@ -16612,7 +16628,7 @@
         <v>1405</v>
       </c>
       <c r="B733" s="0" t="n">
-        <v>273087</v>
+        <v>261231</v>
       </c>
       <c r="C733" s="0" t="s">
         <v>1406</v>
@@ -16626,7 +16642,7 @@
         <v>1407</v>
       </c>
       <c r="B734" s="0" t="n">
-        <v>263070</v>
+        <v>273087</v>
       </c>
       <c r="C734" s="0" t="s">
         <v>1408</v>
@@ -16640,24 +16656,24 @@
         <v>1409</v>
       </c>
       <c r="B735" s="0" t="n">
-        <v>357066</v>
+        <v>263070</v>
       </c>
       <c r="C735" s="0" t="s">
         <v>1410</v>
       </c>
       <c r="D735" s="0" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B736" s="0" t="n">
+        <v>357066</v>
+      </c>
+      <c r="C736" s="0" t="s">
         <v>1412</v>
-      </c>
-      <c r="B736" s="0" t="n">
-        <v>355200</v>
-      </c>
-      <c r="C736" s="0" t="s">
-        <v>1413</v>
       </c>
       <c r="D736" s="0" t="s">
         <v>1413</v>
@@ -16668,7 +16684,7 @@
         <v>1414</v>
       </c>
       <c r="B737" s="0" t="n">
-        <v>263291</v>
+        <v>355200</v>
       </c>
       <c r="C737" s="0" t="s">
         <v>1415</v>
@@ -16682,7 +16698,7 @@
         <v>1416</v>
       </c>
       <c r="B738" s="0" t="n">
-        <v>263040</v>
+        <v>263291</v>
       </c>
       <c r="C738" s="0" t="s">
         <v>1417</v>
@@ -16696,7 +16712,7 @@
         <v>1418</v>
       </c>
       <c r="B739" s="0" t="n">
-        <v>261030</v>
+        <v>263040</v>
       </c>
       <c r="C739" s="0" t="s">
         <v>1419</v>
@@ -16710,7 +16726,7 @@
         <v>1420</v>
       </c>
       <c r="B740" s="0" t="n">
-        <v>382020</v>
+        <v>261030</v>
       </c>
       <c r="C740" s="0" t="s">
         <v>1421</v>
@@ -16724,7 +16740,7 @@
         <v>1422</v>
       </c>
       <c r="B741" s="0" t="n">
-        <v>341100</v>
+        <v>382020</v>
       </c>
       <c r="C741" s="0" t="s">
         <v>1423</v>
@@ -16738,7 +16754,7 @@
         <v>1424</v>
       </c>
       <c r="B742" s="0" t="n">
-        <v>341001</v>
+        <v>341100</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>1425</v>
@@ -16752,7 +16768,7 @@
         <v>1426</v>
       </c>
       <c r="B743" s="0" t="n">
-        <v>273083</v>
+        <v>341001</v>
       </c>
       <c r="C743" s="0" t="s">
         <v>1427</v>
@@ -16766,7 +16782,7 @@
         <v>1428</v>
       </c>
       <c r="B744" s="0" t="n">
-        <v>300054</v>
+        <v>273083</v>
       </c>
       <c r="C744" s="0" t="s">
         <v>1429</v>
@@ -16780,24 +16796,24 @@
         <v>1430</v>
       </c>
       <c r="B745" s="0" t="n">
-        <v>357040</v>
+        <v>300054</v>
       </c>
       <c r="C745" s="0" t="s">
         <v>1431</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B746" s="0" t="n">
+        <v>357040</v>
+      </c>
+      <c r="C746" s="0" t="s">
         <v>1433</v>
-      </c>
-      <c r="B746" s="0" t="n">
-        <v>345034</v>
-      </c>
-      <c r="C746" s="0" t="s">
-        <v>1434</v>
       </c>
       <c r="D746" s="0" t="s">
         <v>1434</v>
@@ -16808,7 +16824,7 @@
         <v>1435</v>
       </c>
       <c r="B747" s="0" t="n">
-        <v>300310</v>
+        <v>345034</v>
       </c>
       <c r="C747" s="0" t="s">
         <v>1436</v>
@@ -16822,7 +16838,7 @@
         <v>1437</v>
       </c>
       <c r="B748" s="0" t="n">
-        <v>345040</v>
+        <v>300310</v>
       </c>
       <c r="C748" s="0" t="s">
         <v>1438</v>
@@ -16836,13 +16852,13 @@
         <v>1439</v>
       </c>
       <c r="B749" s="0" t="n">
-        <v>345050</v>
+        <v>345040</v>
       </c>
       <c r="C749" s="0" t="s">
         <v>1440</v>
       </c>
       <c r="D749" s="0" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16850,38 +16866,38 @@
         <v>1441</v>
       </c>
       <c r="B750" s="0" t="n">
-        <v>273020</v>
+        <v>345050</v>
       </c>
       <c r="C750" s="0" t="s">
         <v>1442</v>
       </c>
       <c r="D750" s="0" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B751" s="0" t="s">
-        <v>4</v>
+        <v>1443</v>
+      </c>
+      <c r="B751" s="0" t="n">
+        <v>273020</v>
       </c>
       <c r="C751" s="0" t="s">
-        <v>4</v>
+        <v>1444</v>
       </c>
       <c r="D751" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B752" s="0" t="n">
-        <v>300470</v>
+        <v>4</v>
+      </c>
+      <c r="B752" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C752" s="0" t="s">
-        <v>1445</v>
+        <v>4</v>
       </c>
       <c r="D752" s="0" t="s">
         <v>1445</v>
@@ -16892,24 +16908,24 @@
         <v>1446</v>
       </c>
       <c r="B753" s="0" t="n">
-        <v>341090</v>
+        <v>300470</v>
       </c>
       <c r="C753" s="0" t="s">
         <v>1447</v>
       </c>
       <c r="D753" s="0" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B754" s="0" t="n">
+        <v>341090</v>
+      </c>
+      <c r="C754" s="0" t="s">
         <v>1449</v>
-      </c>
-      <c r="B754" s="0" t="n">
-        <v>214090</v>
-      </c>
-      <c r="C754" s="0" t="s">
-        <v>1450</v>
       </c>
       <c r="D754" s="0" t="s">
         <v>1450</v>
@@ -16920,7 +16936,7 @@
         <v>1451</v>
       </c>
       <c r="B755" s="0" t="n">
-        <v>371070</v>
+        <v>214090</v>
       </c>
       <c r="C755" s="0" t="s">
         <v>1452</v>
@@ -16934,7 +16950,7 @@
         <v>1453</v>
       </c>
       <c r="B756" s="0" t="n">
-        <v>290190</v>
+        <v>371070</v>
       </c>
       <c r="C756" s="0" t="s">
         <v>1454</v>
@@ -16948,7 +16964,7 @@
         <v>1455</v>
       </c>
       <c r="B757" s="0" t="n">
-        <v>355107</v>
+        <v>290190</v>
       </c>
       <c r="C757" s="0" t="s">
         <v>1456</v>
@@ -16962,7 +16978,7 @@
         <v>1457</v>
       </c>
       <c r="B758" s="0" t="n">
-        <v>263010</v>
+        <v>355107</v>
       </c>
       <c r="C758" s="0" t="s">
         <v>1458</v>
@@ -16976,7 +16992,7 @@
         <v>1459</v>
       </c>
       <c r="B759" s="0" t="n">
-        <v>352011</v>
+        <v>263010</v>
       </c>
       <c r="C759" s="0" t="s">
         <v>1460</v>
@@ -16990,38 +17006,38 @@
         <v>1461</v>
       </c>
       <c r="B760" s="0" t="n">
-        <v>357160</v>
+        <v>352011</v>
       </c>
       <c r="C760" s="0" t="s">
         <v>1462</v>
       </c>
       <c r="D760" s="0" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B761" s="0" t="n">
+        <v>357160</v>
+      </c>
+      <c r="C761" s="0" t="s">
         <v>1464</v>
       </c>
-      <c r="B761" s="0" t="n">
-        <v>351060</v>
-      </c>
-      <c r="C761" s="0" t="s">
+      <c r="D761" s="0" t="s">
         <v>1465</v>
-      </c>
-      <c r="D761" s="0" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B762" s="0" t="n">
+        <v>351060</v>
+      </c>
+      <c r="C762" s="0" t="s">
         <v>1467</v>
-      </c>
-      <c r="B762" s="0" t="n">
-        <v>355094</v>
-      </c>
-      <c r="C762" s="0" t="s">
-        <v>1468</v>
       </c>
       <c r="D762" s="0" t="s">
         <v>1468</v>
@@ -17032,7 +17048,7 @@
         <v>1469</v>
       </c>
       <c r="B763" s="0" t="n">
-        <v>355090</v>
+        <v>355094</v>
       </c>
       <c r="C763" s="0" t="s">
         <v>1470</v>
@@ -17046,24 +17062,24 @@
         <v>1471</v>
       </c>
       <c r="B764" s="0" t="n">
-        <v>357150</v>
+        <v>355090</v>
       </c>
       <c r="C764" s="0" t="s">
         <v>1472</v>
       </c>
       <c r="D764" s="0" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B765" s="0" t="n">
+        <v>357150</v>
+      </c>
+      <c r="C765" s="0" t="s">
         <v>1474</v>
-      </c>
-      <c r="B765" s="0" t="n">
-        <v>358053</v>
-      </c>
-      <c r="C765" s="0" t="s">
-        <v>1475</v>
       </c>
       <c r="D765" s="0" t="s">
         <v>1475</v>
@@ -17074,7 +17090,7 @@
         <v>1476</v>
       </c>
       <c r="B766" s="0" t="n">
-        <v>360140</v>
+        <v>358053</v>
       </c>
       <c r="C766" s="0" t="s">
         <v>1477</v>
@@ -17088,7 +17104,7 @@
         <v>1478</v>
       </c>
       <c r="B767" s="0" t="n">
-        <v>357121</v>
+        <v>360140</v>
       </c>
       <c r="C767" s="0" t="s">
         <v>1479</v>
@@ -17102,7 +17118,7 @@
         <v>1480</v>
       </c>
       <c r="B768" s="0" t="n">
-        <v>342210</v>
+        <v>357121</v>
       </c>
       <c r="C768" s="0" t="s">
         <v>1481</v>
@@ -17116,7 +17132,7 @@
         <v>1482</v>
       </c>
       <c r="B769" s="0" t="n">
-        <v>352060</v>
+        <v>342210</v>
       </c>
       <c r="C769" s="0" t="s">
         <v>1483</v>
@@ -17130,7 +17146,7 @@
         <v>1484</v>
       </c>
       <c r="B770" s="0" t="n">
-        <v>354000</v>
+        <v>352060</v>
       </c>
       <c r="C770" s="0" t="s">
         <v>1485</v>
@@ -17141,27 +17157,27 @@
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B771" s="0" t="s">
-        <v>4</v>
+        <v>1486</v>
+      </c>
+      <c r="B771" s="0" t="n">
+        <v>354000</v>
       </c>
       <c r="C771" s="0" t="s">
-        <v>4</v>
+        <v>1487</v>
       </c>
       <c r="D771" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B772" s="0" t="n">
-        <v>271060</v>
+        <v>4</v>
+      </c>
+      <c r="B772" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C772" s="0" t="s">
-        <v>1488</v>
+        <v>4</v>
       </c>
       <c r="D772" s="0" t="s">
         <v>1488</v>
@@ -17172,7 +17188,7 @@
         <v>1489</v>
       </c>
       <c r="B773" s="0" t="n">
-        <v>321030</v>
+        <v>271060</v>
       </c>
       <c r="C773" s="0" t="s">
         <v>1490</v>
@@ -17186,7 +17202,7 @@
         <v>1491</v>
       </c>
       <c r="B774" s="0" t="n">
-        <v>261290</v>
+        <v>321030</v>
       </c>
       <c r="C774" s="0" t="s">
         <v>1492</v>
@@ -17200,24 +17216,24 @@
         <v>1493</v>
       </c>
       <c r="B775" s="0" t="n">
-        <v>290110</v>
+        <v>261290</v>
       </c>
       <c r="C775" s="0" t="s">
         <v>1494</v>
       </c>
       <c r="D775" s="0" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B776" s="0" t="n">
+        <v>290110</v>
+      </c>
+      <c r="C776" s="0" t="s">
         <v>1496</v>
-      </c>
-      <c r="B776" s="0" t="n">
-        <v>264071</v>
-      </c>
-      <c r="C776" s="0" t="s">
-        <v>1497</v>
       </c>
       <c r="D776" s="0" t="s">
         <v>1497</v>
@@ -17228,7 +17244,7 @@
         <v>1498</v>
       </c>
       <c r="B777" s="0" t="n">
-        <v>261251</v>
+        <v>264071</v>
       </c>
       <c r="C777" s="0" t="s">
         <v>1499</v>
@@ -17242,7 +17258,7 @@
         <v>1500</v>
       </c>
       <c r="B778" s="0" t="n">
-        <v>263340</v>
+        <v>261251</v>
       </c>
       <c r="C778" s="0" t="s">
         <v>1501</v>
@@ -17253,41 +17269,41 @@
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B779" s="0" t="s">
-        <v>4</v>
+        <v>1502</v>
+      </c>
+      <c r="B779" s="0" t="n">
+        <v>263340</v>
       </c>
       <c r="C779" s="0" t="s">
-        <v>4</v>
+        <v>1503</v>
       </c>
       <c r="D779" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B780" s="0" t="n">
-        <v>2290020</v>
+        <v>4</v>
+      </c>
+      <c r="B780" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C780" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D780" s="0" t="s">
         <v>1504</v>
-      </c>
-      <c r="D780" s="0" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B781" s="0" t="n">
+        <v>2290020</v>
+      </c>
+      <c r="C781" s="0" t="s">
         <v>1506</v>
-      </c>
-      <c r="B781" s="0" t="n">
-        <v>358063</v>
-      </c>
-      <c r="C781" s="0" t="s">
-        <v>1507</v>
       </c>
       <c r="D781" s="0" t="s">
         <v>1507</v>
@@ -17295,27 +17311,27 @@
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B782" s="0" t="s">
-        <v>4</v>
+        <v>1508</v>
+      </c>
+      <c r="B782" s="0" t="n">
+        <v>358063</v>
       </c>
       <c r="C782" s="0" t="s">
-        <v>4</v>
+        <v>1509</v>
       </c>
       <c r="D782" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B783" s="0" t="n">
-        <v>241040</v>
+        <v>4</v>
+      </c>
+      <c r="B783" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>1510</v>
+        <v>4</v>
       </c>
       <c r="D783" s="0" t="s">
         <v>1510</v>
@@ -17326,7 +17342,7 @@
         <v>1511</v>
       </c>
       <c r="B784" s="0" t="n">
-        <v>357065</v>
+        <v>241040</v>
       </c>
       <c r="C784" s="0" t="s">
         <v>1512</v>
@@ -17340,7 +17356,7 @@
         <v>1513</v>
       </c>
       <c r="B785" s="0" t="n">
-        <v>352010</v>
+        <v>357065</v>
       </c>
       <c r="C785" s="0" t="s">
         <v>1514</v>
@@ -17354,7 +17370,7 @@
         <v>1515</v>
       </c>
       <c r="B786" s="0" t="n">
-        <v>371020</v>
+        <v>352010</v>
       </c>
       <c r="C786" s="0" t="s">
         <v>1516</v>
@@ -17368,7 +17384,7 @@
         <v>1517</v>
       </c>
       <c r="B787" s="0" t="n">
-        <v>266040</v>
+        <v>371020</v>
       </c>
       <c r="C787" s="0" t="s">
         <v>1518</v>
@@ -17382,24 +17398,24 @@
         <v>1519</v>
       </c>
       <c r="B788" s="0" t="n">
-        <v>345020</v>
+        <v>266040</v>
       </c>
       <c r="C788" s="0" t="s">
         <v>1520</v>
       </c>
       <c r="D788" s="0" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B789" s="0" t="n">
+        <v>345020</v>
+      </c>
+      <c r="C789" s="0" t="s">
         <v>1522</v>
-      </c>
-      <c r="B789" s="0" t="n">
-        <v>264030</v>
-      </c>
-      <c r="C789" s="0" t="s">
-        <v>1523</v>
       </c>
       <c r="D789" s="0" t="s">
         <v>1523</v>
@@ -17410,7 +17426,7 @@
         <v>1524</v>
       </c>
       <c r="B790" s="0" t="n">
-        <v>357024</v>
+        <v>264030</v>
       </c>
       <c r="C790" s="0" t="s">
         <v>1525</v>
@@ -17421,27 +17437,27 @@
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B791" s="0" t="s">
-        <v>4</v>
+        <v>1526</v>
+      </c>
+      <c r="B791" s="0" t="n">
+        <v>357024</v>
       </c>
       <c r="C791" s="0" t="s">
-        <v>4</v>
+        <v>1527</v>
       </c>
       <c r="D791" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B792" s="0" t="n">
-        <v>300340</v>
+        <v>4</v>
+      </c>
+      <c r="B792" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C792" s="0" t="s">
-        <v>1528</v>
+        <v>4</v>
       </c>
       <c r="D792" s="0" t="s">
         <v>1528</v>
@@ -17452,7 +17468,7 @@
         <v>1529</v>
       </c>
       <c r="B793" s="0" t="n">
-        <v>351011</v>
+        <v>300340</v>
       </c>
       <c r="C793" s="0" t="s">
         <v>1530</v>
@@ -17466,7 +17482,7 @@
         <v>1531</v>
       </c>
       <c r="B794" s="0" t="n">
-        <v>344060</v>
+        <v>351011</v>
       </c>
       <c r="C794" s="0" t="s">
         <v>1532</v>
@@ -17480,7 +17496,7 @@
         <v>1533</v>
       </c>
       <c r="B795" s="0" t="n">
-        <v>241100</v>
+        <v>344060</v>
       </c>
       <c r="C795" s="0" t="s">
         <v>1534</v>
@@ -17494,7 +17510,7 @@
         <v>1535</v>
       </c>
       <c r="B796" s="0" t="n">
-        <v>290091</v>
+        <v>241100</v>
       </c>
       <c r="C796" s="0" t="s">
         <v>1536</v>
@@ -17508,7 +17524,7 @@
         <v>1537</v>
       </c>
       <c r="B797" s="0" t="n">
-        <v>290112</v>
+        <v>290091</v>
       </c>
       <c r="C797" s="0" t="s">
         <v>1538</v>
@@ -17522,7 +17538,7 @@
         <v>1539</v>
       </c>
       <c r="B798" s="0" t="n">
-        <v>222166</v>
+        <v>290112</v>
       </c>
       <c r="C798" s="0" t="s">
         <v>1540</v>
@@ -17536,24 +17552,24 @@
         <v>1541</v>
       </c>
       <c r="B799" s="0" t="n">
-        <v>290021</v>
+        <v>222166</v>
       </c>
       <c r="C799" s="0" t="s">
         <v>1542</v>
       </c>
       <c r="D799" s="0" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B800" s="0" t="n">
+        <v>290021</v>
+      </c>
+      <c r="C800" s="0" t="s">
         <v>1544</v>
-      </c>
-      <c r="B800" s="0" t="n">
-        <v>232002</v>
-      </c>
-      <c r="C800" s="0" t="s">
-        <v>1545</v>
       </c>
       <c r="D800" s="0" t="s">
         <v>1545</v>
@@ -17564,7 +17580,7 @@
         <v>1546</v>
       </c>
       <c r="B801" s="0" t="n">
-        <v>354006</v>
+        <v>232002</v>
       </c>
       <c r="C801" s="0" t="s">
         <v>1547</v>
@@ -17578,7 +17594,7 @@
         <v>1548</v>
       </c>
       <c r="B802" s="0" t="n">
-        <v>232001</v>
+        <v>354006</v>
       </c>
       <c r="C802" s="0" t="s">
         <v>1549</v>
@@ -17592,24 +17608,24 @@
         <v>1550</v>
       </c>
       <c r="B803" s="0" t="n">
-        <v>355091</v>
+        <v>232001</v>
       </c>
       <c r="C803" s="0" t="s">
         <v>1551</v>
       </c>
       <c r="D803" s="0" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B804" s="0" t="n">
+        <v>355091</v>
+      </c>
+      <c r="C804" s="0" t="s">
         <v>1553</v>
-      </c>
-      <c r="B804" s="0" t="n">
-        <v>263050</v>
-      </c>
-      <c r="C804" s="0" t="s">
-        <v>1554</v>
       </c>
       <c r="D804" s="0" t="s">
         <v>1554</v>
@@ -17620,7 +17636,7 @@
         <v>1555</v>
       </c>
       <c r="B805" s="0" t="n">
-        <v>323200</v>
+        <v>263050</v>
       </c>
       <c r="C805" s="0" t="s">
         <v>1556</v>
@@ -17634,7 +17650,7 @@
         <v>1557</v>
       </c>
       <c r="B806" s="0" t="n">
-        <v>214050</v>
+        <v>323200</v>
       </c>
       <c r="C806" s="0" t="s">
         <v>1558</v>
@@ -17645,27 +17661,27 @@
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B807" s="0" t="s">
-        <v>4</v>
+        <v>1559</v>
+      </c>
+      <c r="B807" s="0" t="n">
+        <v>214050</v>
       </c>
       <c r="C807" s="0" t="s">
-        <v>4</v>
+        <v>1560</v>
       </c>
       <c r="D807" s="0" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B808" s="0" t="n">
-        <v>341007</v>
+        <v>4</v>
+      </c>
+      <c r="B808" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C808" s="0" t="s">
-        <v>1561</v>
+        <v>4</v>
       </c>
       <c r="D808" s="0" t="s">
         <v>1561</v>
@@ -17676,7 +17692,7 @@
         <v>1562</v>
       </c>
       <c r="B809" s="0" t="n">
-        <v>224002</v>
+        <v>341007</v>
       </c>
       <c r="C809" s="0" t="s">
         <v>1563</v>
@@ -17690,24 +17706,24 @@
         <v>1564</v>
       </c>
       <c r="B810" s="0" t="n">
-        <v>344020</v>
+        <v>224002</v>
       </c>
       <c r="C810" s="0" t="s">
         <v>1565</v>
       </c>
       <c r="D810" s="0" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B811" s="0" t="n">
+        <v>344020</v>
+      </c>
+      <c r="C811" s="0" t="s">
         <v>1567</v>
-      </c>
-      <c r="B811" s="0" t="n">
-        <v>343001</v>
-      </c>
-      <c r="C811" s="0" t="s">
-        <v>1568</v>
       </c>
       <c r="D811" s="0" t="s">
         <v>1568</v>
@@ -17718,7 +17734,7 @@
         <v>1569</v>
       </c>
       <c r="B812" s="0" t="n">
-        <v>322040</v>
+        <v>343001</v>
       </c>
       <c r="C812" s="0" t="s">
         <v>1570</v>
@@ -17732,7 +17748,7 @@
         <v>1571</v>
       </c>
       <c r="B813" s="0" t="n">
-        <v>329020</v>
+        <v>322040</v>
       </c>
       <c r="C813" s="0" t="s">
         <v>1572</v>
@@ -17746,7 +17762,7 @@
         <v>1573</v>
       </c>
       <c r="B814" s="0" t="n">
-        <v>341024</v>
+        <v>329020</v>
       </c>
       <c r="C814" s="0" t="s">
         <v>1574</v>
@@ -17760,7 +17776,7 @@
         <v>1575</v>
       </c>
       <c r="B815" s="0" t="n">
-        <v>352090</v>
+        <v>341024</v>
       </c>
       <c r="C815" s="0" t="s">
         <v>1576</v>
@@ -17774,7 +17790,7 @@
         <v>1577</v>
       </c>
       <c r="B816" s="0" t="n">
-        <v>264050</v>
+        <v>352090</v>
       </c>
       <c r="C816" s="0" t="s">
         <v>1578</v>
@@ -17788,7 +17804,7 @@
         <v>1579</v>
       </c>
       <c r="B817" s="0" t="n">
-        <v>224003</v>
+        <v>264050</v>
       </c>
       <c r="C817" s="0" t="s">
         <v>1580</v>
@@ -17802,7 +17818,7 @@
         <v>1581</v>
       </c>
       <c r="B818" s="0" t="n">
-        <v>382030</v>
+        <v>224003</v>
       </c>
       <c r="C818" s="0" t="s">
         <v>1582</v>
@@ -17816,38 +17832,38 @@
         <v>1583</v>
       </c>
       <c r="B819" s="0" t="n">
-        <v>357020</v>
+        <v>382030</v>
       </c>
       <c r="C819" s="0" t="s">
         <v>1584</v>
       </c>
       <c r="D819" s="0" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B820" s="0" t="n">
+        <v>357020</v>
+      </c>
+      <c r="C820" s="0" t="s">
         <v>1586</v>
       </c>
-      <c r="B820" s="0" t="n">
-        <v>341110</v>
-      </c>
-      <c r="C820" s="0" t="s">
+      <c r="D820" s="0" t="s">
         <v>1587</v>
-      </c>
-      <c r="D820" s="0" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B821" s="0" t="n">
+        <v>341110</v>
+      </c>
+      <c r="C821" s="0" t="s">
         <v>1589</v>
-      </c>
-      <c r="B821" s="0" t="n">
-        <v>343100</v>
-      </c>
-      <c r="C821" s="0" t="s">
-        <v>1590</v>
       </c>
       <c r="D821" s="0" t="s">
         <v>1590</v>
@@ -17858,7 +17874,7 @@
         <v>1591</v>
       </c>
       <c r="B822" s="0" t="n">
-        <v>273060</v>
+        <v>343100</v>
       </c>
       <c r="C822" s="0" t="s">
         <v>1592</v>
@@ -17872,38 +17888,38 @@
         <v>1593</v>
       </c>
       <c r="B823" s="0" t="n">
-        <v>357062</v>
+        <v>273060</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>1594</v>
       </c>
       <c r="D823" s="0" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B824" s="0" t="n">
+        <v>357062</v>
+      </c>
+      <c r="C824" s="0" t="s">
         <v>1596</v>
       </c>
-      <c r="B824" s="0" t="n">
-        <v>355070</v>
-      </c>
-      <c r="C824" s="0" t="s">
+      <c r="D824" s="0" t="s">
         <v>1597</v>
-      </c>
-      <c r="D824" s="0" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B825" s="0" t="n">
+        <v>355070</v>
+      </c>
+      <c r="C825" s="0" t="s">
         <v>1599</v>
-      </c>
-      <c r="B825" s="0" t="n">
-        <v>343050</v>
-      </c>
-      <c r="C825" s="0" t="s">
-        <v>1600</v>
       </c>
       <c r="D825" s="0" t="s">
         <v>1600</v>
@@ -17914,7 +17930,7 @@
         <v>1601</v>
       </c>
       <c r="B826" s="0" t="n">
-        <v>343020</v>
+        <v>343050</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>1602</v>
@@ -17925,27 +17941,27 @@
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B827" s="0" t="s">
-        <v>4</v>
+        <v>1603</v>
+      </c>
+      <c r="B827" s="0" t="n">
+        <v>343020</v>
       </c>
       <c r="C827" s="0" t="s">
-        <v>4</v>
+        <v>1604</v>
       </c>
       <c r="D827" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B828" s="0" t="n">
-        <v>224004</v>
+        <v>4</v>
+      </c>
+      <c r="B828" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C828" s="0" t="s">
-        <v>1605</v>
+        <v>4</v>
       </c>
       <c r="D828" s="0" t="s">
         <v>1605</v>
@@ -17956,7 +17972,7 @@
         <v>1606</v>
       </c>
       <c r="B829" s="0" t="n">
-        <v>324030</v>
+        <v>224004</v>
       </c>
       <c r="C829" s="0" t="s">
         <v>1607</v>
@@ -17967,27 +17983,27 @@
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B830" s="0" t="s">
-        <v>4</v>
+        <v>1608</v>
+      </c>
+      <c r="B830" s="0" t="n">
+        <v>324030</v>
       </c>
       <c r="C830" s="0" t="s">
-        <v>4</v>
+        <v>1609</v>
       </c>
       <c r="D830" s="0" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B831" s="0" t="n">
-        <v>212040</v>
+        <v>4</v>
+      </c>
+      <c r="B831" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C831" s="0" t="s">
-        <v>1610</v>
+        <v>4</v>
       </c>
       <c r="D831" s="0" t="s">
         <v>1610</v>
@@ -17998,7 +18014,7 @@
         <v>1611</v>
       </c>
       <c r="B832" s="0" t="n">
-        <v>343070</v>
+        <v>212040</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>1612</v>
@@ -18012,7 +18028,7 @@
         <v>1613</v>
       </c>
       <c r="B833" s="0" t="n">
-        <v>354002</v>
+        <v>343070</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>1614</v>
@@ -18026,7 +18042,7 @@
         <v>1615</v>
       </c>
       <c r="B834" s="0" t="n">
-        <v>261131</v>
+        <v>354002</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>1616</v>
@@ -18040,24 +18056,24 @@
         <v>1617</v>
       </c>
       <c r="B835" s="0" t="n">
-        <v>290080</v>
+        <v>261131</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>1618</v>
       </c>
       <c r="D835" s="0" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B836" s="0" t="n">
+        <v>290080</v>
+      </c>
+      <c r="C836" s="0" t="s">
         <v>1620</v>
-      </c>
-      <c r="B836" s="0" t="n">
-        <v>300201</v>
-      </c>
-      <c r="C836" s="0" t="s">
-        <v>1621</v>
       </c>
       <c r="D836" s="0" t="s">
         <v>1621</v>
@@ -18068,7 +18084,7 @@
         <v>1622</v>
       </c>
       <c r="B837" s="0" t="n">
-        <v>300520</v>
+        <v>300201</v>
       </c>
       <c r="C837" s="0" t="s">
         <v>1623</v>
@@ -18082,7 +18098,7 @@
         <v>1624</v>
       </c>
       <c r="B838" s="0" t="n">
-        <v>222050</v>
+        <v>300520</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>1625</v>
@@ -18096,7 +18112,7 @@
         <v>1626</v>
       </c>
       <c r="B839" s="0" t="n">
-        <v>311180</v>
+        <v>222050</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>1627</v>
@@ -18110,7 +18126,7 @@
         <v>1628</v>
       </c>
       <c r="B840" s="0" t="n">
-        <v>311030</v>
+        <v>311180</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>1629</v>
@@ -18124,7 +18140,7 @@
         <v>1630</v>
       </c>
       <c r="B841" s="0" t="n">
-        <v>261260</v>
+        <v>311030</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>1631</v>
@@ -18138,7 +18154,7 @@
         <v>1632</v>
       </c>
       <c r="B842" s="0" t="n">
-        <v>263300</v>
+        <v>261260</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>1633</v>
@@ -18152,38 +18168,38 @@
         <v>1634</v>
       </c>
       <c r="B843" s="0" t="n">
-        <v>341092</v>
+        <v>263300</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>1635</v>
       </c>
       <c r="D843" s="0" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B844" s="0" t="s">
-        <v>4</v>
+        <v>1636</v>
+      </c>
+      <c r="B844" s="0" t="n">
+        <v>341092</v>
       </c>
       <c r="C844" s="0" t="s">
-        <v>4</v>
+        <v>1637</v>
       </c>
       <c r="D844" s="0" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B845" s="0" t="n">
-        <v>261020</v>
+        <v>4</v>
+      </c>
+      <c r="B845" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C845" s="0" t="s">
-        <v>1639</v>
+        <v>4</v>
       </c>
       <c r="D845" s="0" t="s">
         <v>1639</v>
@@ -18194,7 +18210,7 @@
         <v>1640</v>
       </c>
       <c r="B846" s="0" t="n">
-        <v>300700</v>
+        <v>261020</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>1641</v>
@@ -18208,7 +18224,7 @@
         <v>1642</v>
       </c>
       <c r="B847" s="0" t="n">
-        <v>230010</v>
+        <v>300700</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>1643</v>
@@ -18222,7 +18238,7 @@
         <v>1644</v>
       </c>
       <c r="B848" s="0" t="n">
-        <v>323010</v>
+        <v>230010</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>1645</v>
@@ -18236,7 +18252,7 @@
         <v>1646</v>
       </c>
       <c r="B849" s="0" t="n">
-        <v>300270</v>
+        <v>323010</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>1647</v>
@@ -18247,16 +18263,16 @@
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B850" s="0" t="s">
-        <v>4</v>
+        <v>1648</v>
+      </c>
+      <c r="B850" s="0" t="n">
+        <v>300270</v>
       </c>
       <c r="C850" s="0" t="s">
-        <v>4</v>
+        <v>1649</v>
       </c>
       <c r="D850" s="0" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18270,7 +18286,7 @@
         <v>4</v>
       </c>
       <c r="D851" s="0" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18284,7 +18300,7 @@
         <v>4</v>
       </c>
       <c r="D852" s="0" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18298,18 +18314,18 @@
         <v>4</v>
       </c>
       <c r="D853" s="0" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B854" s="0" t="n">
-        <v>300511</v>
+        <v>4</v>
+      </c>
+      <c r="B854" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C854" s="0" t="s">
-        <v>1653</v>
+        <v>4</v>
       </c>
       <c r="D854" s="0" t="s">
         <v>1653</v>
@@ -18320,7 +18336,7 @@
         <v>1654</v>
       </c>
       <c r="B855" s="0" t="n">
-        <v>300580</v>
+        <v>300511</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>1655</v>
@@ -18334,7 +18350,7 @@
         <v>1656</v>
       </c>
       <c r="B856" s="0" t="n">
-        <v>261110</v>
+        <v>300580</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>1657</v>
@@ -18348,7 +18364,7 @@
         <v>1658</v>
       </c>
       <c r="B857" s="0" t="n">
-        <v>353050</v>
+        <v>261110</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>1659</v>
@@ -18362,7 +18378,7 @@
         <v>1660</v>
       </c>
       <c r="B858" s="0" t="n">
-        <v>222052</v>
+        <v>353050</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>1661</v>
@@ -18376,7 +18392,7 @@
         <v>1662</v>
       </c>
       <c r="B859" s="0" t="n">
-        <v>272040</v>
+        <v>222052</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>1663</v>
@@ -18390,7 +18406,7 @@
         <v>1664</v>
       </c>
       <c r="B860" s="0" t="n">
-        <v>320160</v>
+        <v>272040</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>1665</v>
@@ -18404,7 +18420,7 @@
         <v>1666</v>
       </c>
       <c r="B861" s="0" t="n">
-        <v>261080</v>
+        <v>320160</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>1667</v>
@@ -18418,7 +18434,7 @@
         <v>1668</v>
       </c>
       <c r="B862" s="0" t="n">
-        <v>261070</v>
+        <v>261080</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>1669</v>
@@ -18432,7 +18448,7 @@
         <v>1670</v>
       </c>
       <c r="B863" s="0" t="n">
-        <v>264270</v>
+        <v>261070</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>1671</v>
@@ -18446,7 +18462,7 @@
         <v>1672</v>
       </c>
       <c r="B864" s="0" t="n">
-        <v>263180</v>
+        <v>264270</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>1673</v>
@@ -18460,7 +18476,7 @@
         <v>1674</v>
       </c>
       <c r="B865" s="0" t="n">
-        <v>370010</v>
+        <v>263180</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>1675</v>
@@ -18474,7 +18490,7 @@
         <v>1676</v>
       </c>
       <c r="B866" s="0" t="n">
-        <v>300690</v>
+        <v>370010</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>1677</v>
@@ -18488,7 +18504,7 @@
         <v>1678</v>
       </c>
       <c r="B867" s="0" t="n">
-        <v>300660</v>
+        <v>300690</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>1679</v>
@@ -18502,7 +18518,7 @@
         <v>1680</v>
       </c>
       <c r="B868" s="0" t="n">
-        <v>312200</v>
+        <v>300660</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>1681</v>
@@ -18516,7 +18532,7 @@
         <v>1682</v>
       </c>
       <c r="B869" s="0" t="n">
-        <v>352001</v>
+        <v>312200</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>1683</v>
@@ -18530,7 +18546,7 @@
         <v>1684</v>
       </c>
       <c r="B870" s="0" t="n">
-        <v>355109</v>
+        <v>352001</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>1685</v>
@@ -18544,7 +18560,7 @@
         <v>1686</v>
       </c>
       <c r="B871" s="0" t="n">
-        <v>326010</v>
+        <v>355109</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>1687</v>
@@ -18558,7 +18574,7 @@
         <v>1688</v>
       </c>
       <c r="B872" s="0" t="n">
-        <v>221222</v>
+        <v>326010</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>1689</v>
@@ -18572,7 +18588,7 @@
         <v>1690</v>
       </c>
       <c r="B873" s="0" t="n">
-        <v>357111</v>
+        <v>221222</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>1691</v>
@@ -18586,7 +18602,7 @@
         <v>1692</v>
       </c>
       <c r="B874" s="0" t="n">
-        <v>266030</v>
+        <v>357111</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>1693</v>
@@ -18600,7 +18616,7 @@
         <v>1694</v>
       </c>
       <c r="B875" s="0" t="n">
-        <v>261120</v>
+        <v>266030</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>1695</v>
@@ -18611,83 +18627,83 @@
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B876" s="0" t="s">
-        <v>4</v>
+        <v>1696</v>
+      </c>
+      <c r="B876" s="0" t="n">
+        <v>261120</v>
       </c>
       <c r="C876" s="0" t="s">
-        <v>4</v>
+        <v>1697</v>
       </c>
       <c r="D876" s="0" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B877" s="0" t="n">
-        <v>351061</v>
+        <v>4</v>
+      </c>
+      <c r="B877" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C877" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D877" s="0" t="s">
         <v>1698</v>
-      </c>
-      <c r="D877" s="0" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B878" s="0" t="n">
+        <v>351061</v>
+      </c>
+      <c r="C878" s="0" t="s">
         <v>1700</v>
       </c>
-      <c r="B878" s="0" t="n">
-        <v>360060</v>
-      </c>
-      <c r="C878" s="0" t="s">
+      <c r="D878" s="0" t="s">
         <v>1701</v>
-      </c>
-      <c r="D878" s="0" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B879" s="0" t="n">
+        <v>360060</v>
+      </c>
+      <c r="C879" s="0" t="s">
         <v>1703</v>
       </c>
-      <c r="B879" s="0" t="n">
-        <v>360050</v>
-      </c>
-      <c r="C879" s="0" t="s">
+      <c r="D879" s="0" t="s">
         <v>1704</v>
-      </c>
-      <c r="D879" s="0" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B880" s="0" t="n">
+        <v>360050</v>
+      </c>
+      <c r="C880" s="0" t="s">
         <v>1706</v>
       </c>
-      <c r="B880" s="0" t="n">
-        <v>360150</v>
-      </c>
-      <c r="C880" s="0" t="s">
+      <c r="D880" s="0" t="s">
         <v>1707</v>
-      </c>
-      <c r="D880" s="0" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B881" s="0" t="n">
+        <v>360150</v>
+      </c>
+      <c r="C881" s="0" t="s">
         <v>1709</v>
-      </c>
-      <c r="B881" s="0" t="n">
-        <v>222020</v>
-      </c>
-      <c r="C881" s="0" t="s">
-        <v>1710</v>
       </c>
       <c r="D881" s="0" t="s">
         <v>1710</v>
@@ -18698,7 +18714,7 @@
         <v>1711</v>
       </c>
       <c r="B882" s="0" t="n">
-        <v>320070</v>
+        <v>222020</v>
       </c>
       <c r="C882" s="0" t="s">
         <v>1712</v>
@@ -18712,7 +18728,7 @@
         <v>1713</v>
       </c>
       <c r="B883" s="0" t="n">
-        <v>300671</v>
+        <v>320070</v>
       </c>
       <c r="C883" s="0" t="s">
         <v>1714</v>
@@ -18726,7 +18742,7 @@
         <v>1715</v>
       </c>
       <c r="B884" s="0" t="n">
-        <v>360170</v>
+        <v>300671</v>
       </c>
       <c r="C884" s="0" t="s">
         <v>1716</v>
@@ -18740,24 +18756,24 @@
         <v>1717</v>
       </c>
       <c r="B885" s="0" t="n">
-        <v>312220</v>
+        <v>360170</v>
       </c>
       <c r="C885" s="0" t="s">
         <v>1718</v>
       </c>
       <c r="D885" s="0" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B886" s="0" t="n">
+        <v>312220</v>
+      </c>
+      <c r="C886" s="0" t="s">
         <v>1720</v>
-      </c>
-      <c r="B886" s="0" t="n">
-        <v>321050</v>
-      </c>
-      <c r="C886" s="0" t="s">
-        <v>1721</v>
       </c>
       <c r="D886" s="0" t="s">
         <v>1721</v>
@@ -18768,7 +18784,7 @@
         <v>1722</v>
       </c>
       <c r="B887" s="0" t="n">
-        <v>211040</v>
+        <v>321050</v>
       </c>
       <c r="C887" s="0" t="s">
         <v>1723</v>
@@ -18782,24 +18798,24 @@
         <v>1724</v>
       </c>
       <c r="B888" s="0" t="n">
-        <v>342160</v>
+        <v>211040</v>
       </c>
       <c r="C888" s="0" t="s">
         <v>1725</v>
       </c>
       <c r="D888" s="0" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B889" s="0" t="n">
+        <v>342160</v>
+      </c>
+      <c r="C889" s="0" t="s">
         <v>1727</v>
-      </c>
-      <c r="B889" s="0" t="n">
-        <v>264120</v>
-      </c>
-      <c r="C889" s="0" t="s">
-        <v>1728</v>
       </c>
       <c r="D889" s="0" t="s">
         <v>1728</v>
@@ -18807,27 +18823,27 @@
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B890" s="0" t="s">
-        <v>4</v>
+        <v>1729</v>
+      </c>
+      <c r="B890" s="0" t="n">
+        <v>264120</v>
       </c>
       <c r="C890" s="0" t="s">
-        <v>4</v>
+        <v>1730</v>
       </c>
       <c r="D890" s="0" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B891" s="0" t="n">
-        <v>352040</v>
+        <v>4</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C891" s="0" t="s">
-        <v>1731</v>
+        <v>4</v>
       </c>
       <c r="D891" s="0" t="s">
         <v>1731</v>
@@ -18838,7 +18854,7 @@
         <v>1732</v>
       </c>
       <c r="B892" s="0" t="n">
-        <v>261180</v>
+        <v>352040</v>
       </c>
       <c r="C892" s="0" t="s">
         <v>1733</v>
@@ -18852,7 +18868,7 @@
         <v>1734</v>
       </c>
       <c r="B893" s="0" t="n">
-        <v>263210</v>
+        <v>261180</v>
       </c>
       <c r="C893" s="0" t="s">
         <v>1735</v>
@@ -18866,7 +18882,7 @@
         <v>1736</v>
       </c>
       <c r="B894" s="0" t="n">
-        <v>261270</v>
+        <v>263210</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>1737</v>
@@ -18880,7 +18896,7 @@
         <v>1738</v>
       </c>
       <c r="B895" s="0" t="n">
-        <v>222110</v>
+        <v>261270</v>
       </c>
       <c r="C895" s="0" t="s">
         <v>1739</v>
@@ -18891,27 +18907,27 @@
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B896" s="0" t="s">
-        <v>4</v>
+        <v>1740</v>
+      </c>
+      <c r="B896" s="0" t="n">
+        <v>222110</v>
       </c>
       <c r="C896" s="0" t="s">
-        <v>4</v>
+        <v>1741</v>
       </c>
       <c r="D896" s="0" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B897" s="0" t="n">
-        <v>273070</v>
+        <v>4</v>
+      </c>
+      <c r="B897" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C897" s="0" t="s">
-        <v>1742</v>
+        <v>4</v>
       </c>
       <c r="D897" s="0" t="s">
         <v>1742</v>
@@ -18922,7 +18938,7 @@
         <v>1743</v>
       </c>
       <c r="B898" s="0" t="n">
-        <v>355011</v>
+        <v>273070</v>
       </c>
       <c r="C898" s="0" t="s">
         <v>1744</v>
@@ -18936,7 +18952,7 @@
         <v>1745</v>
       </c>
       <c r="B899" s="0" t="n">
-        <v>343072</v>
+        <v>355011</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>1746</v>
@@ -18950,24 +18966,24 @@
         <v>1747</v>
       </c>
       <c r="B900" s="0" t="n">
-        <v>341130</v>
+        <v>343072</v>
       </c>
       <c r="C900" s="0" t="s">
         <v>1748</v>
       </c>
       <c r="D900" s="0" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B901" s="0" t="n">
+        <v>341130</v>
+      </c>
+      <c r="C901" s="0" t="s">
         <v>1750</v>
-      </c>
-      <c r="B901" s="0" t="n">
-        <v>355010</v>
-      </c>
-      <c r="C901" s="0" t="s">
-        <v>1751</v>
       </c>
       <c r="D901" s="0" t="s">
         <v>1751</v>
@@ -18978,7 +18994,7 @@
         <v>1752</v>
       </c>
       <c r="B902" s="0" t="n">
-        <v>232050</v>
+        <v>355010</v>
       </c>
       <c r="C902" s="0" t="s">
         <v>1753</v>
@@ -18992,7 +19008,7 @@
         <v>1754</v>
       </c>
       <c r="B903" s="0" t="n">
-        <v>225004</v>
+        <v>232050</v>
       </c>
       <c r="C903" s="0" t="s">
         <v>1755</v>
@@ -19006,7 +19022,7 @@
         <v>1756</v>
       </c>
       <c r="B904" s="0" t="n">
-        <v>342141</v>
+        <v>225004</v>
       </c>
       <c r="C904" s="0" t="s">
         <v>1757</v>
@@ -19017,27 +19033,27 @@
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B905" s="0" t="s">
-        <v>4</v>
+        <v>1758</v>
+      </c>
+      <c r="B905" s="0" t="n">
+        <v>342141</v>
       </c>
       <c r="C905" s="0" t="s">
-        <v>4</v>
+        <v>1759</v>
       </c>
       <c r="D905" s="0" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B906" s="0" t="n">
-        <v>342020</v>
+        <v>4</v>
+      </c>
+      <c r="B906" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C906" s="0" t="s">
-        <v>1760</v>
+        <v>4</v>
       </c>
       <c r="D906" s="0" t="s">
         <v>1760</v>
@@ -19045,27 +19061,27 @@
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B907" s="0" t="s">
-        <v>4</v>
+        <v>1761</v>
+      </c>
+      <c r="B907" s="0" t="n">
+        <v>342020</v>
       </c>
       <c r="C907" s="0" t="s">
-        <v>4</v>
+        <v>1762</v>
       </c>
       <c r="D907" s="0" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B908" s="0" t="n">
-        <v>311090</v>
+        <v>4</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C908" s="0" t="s">
-        <v>1763</v>
+        <v>4</v>
       </c>
       <c r="D908" s="0" t="s">
         <v>1763</v>
@@ -19073,27 +19089,27 @@
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B909" s="0" t="s">
-        <v>4</v>
+        <v>1764</v>
+      </c>
+      <c r="B909" s="0" t="n">
+        <v>311090</v>
       </c>
       <c r="C909" s="0" t="s">
-        <v>4</v>
+        <v>1765</v>
       </c>
       <c r="D909" s="0" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B910" s="0" t="n">
-        <v>263150</v>
+        <v>4</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C910" s="0" t="s">
-        <v>1766</v>
+        <v>4</v>
       </c>
       <c r="D910" s="0" t="s">
         <v>1766</v>
@@ -19104,7 +19120,7 @@
         <v>1767</v>
       </c>
       <c r="B911" s="0" t="n">
-        <v>261130</v>
+        <v>263150</v>
       </c>
       <c r="C911" s="0" t="s">
         <v>1768</v>
@@ -19118,7 +19134,7 @@
         <v>1769</v>
       </c>
       <c r="B912" s="0" t="n">
-        <v>261160</v>
+        <v>261130</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>1770</v>
@@ -19132,7 +19148,7 @@
         <v>1771</v>
       </c>
       <c r="B913" s="0" t="n">
-        <v>355021</v>
+        <v>261160</v>
       </c>
       <c r="C913" s="0" t="s">
         <v>1772</v>
@@ -19146,7 +19162,7 @@
         <v>1773</v>
       </c>
       <c r="B914" s="0" t="n">
-        <v>264040</v>
+        <v>355021</v>
       </c>
       <c r="C914" s="0" t="s">
         <v>1774</v>
@@ -19160,7 +19176,7 @@
         <v>1775</v>
       </c>
       <c r="B915" s="0" t="n">
-        <v>263131</v>
+        <v>264040</v>
       </c>
       <c r="C915" s="0" t="s">
         <v>1776</v>
@@ -19174,7 +19190,7 @@
         <v>1777</v>
       </c>
       <c r="B916" s="0" t="n">
-        <v>311241</v>
+        <v>263131</v>
       </c>
       <c r="C916" s="0" t="s">
         <v>1778</v>
@@ -19188,7 +19204,7 @@
         <v>1779</v>
       </c>
       <c r="B917" s="0" t="n">
-        <v>311080</v>
+        <v>311241</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>1780</v>
@@ -19202,7 +19218,7 @@
         <v>1781</v>
       </c>
       <c r="B918" s="0" t="n">
-        <v>261150</v>
+        <v>311080</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>1782</v>
@@ -19216,7 +19232,7 @@
         <v>1783</v>
       </c>
       <c r="B919" s="0" t="n">
-        <v>266130</v>
+        <v>261150</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>1784</v>
@@ -19230,7 +19246,7 @@
         <v>1785</v>
       </c>
       <c r="B920" s="0" t="n">
-        <v>263090</v>
+        <v>266130</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>1786</v>
@@ -19244,7 +19260,7 @@
         <v>1787</v>
       </c>
       <c r="B921" s="0" t="n">
-        <v>268001</v>
+        <v>263090</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>1788</v>
@@ -19258,24 +19274,24 @@
         <v>1789</v>
       </c>
       <c r="B922" s="0" t="n">
-        <v>241030</v>
+        <v>268001</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>1790</v>
       </c>
       <c r="D922" s="0" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B923" s="0" t="n">
+        <v>241030</v>
+      </c>
+      <c r="C923" s="0" t="s">
         <v>1792</v>
-      </c>
-      <c r="B923" s="0" t="n">
-        <v>225009</v>
-      </c>
-      <c r="C923" s="0" t="s">
-        <v>1793</v>
       </c>
       <c r="D923" s="0" t="s">
         <v>1793</v>
@@ -19286,7 +19302,7 @@
         <v>1794</v>
       </c>
       <c r="B924" s="0" t="n">
-        <v>225010</v>
+        <v>225009</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>1795</v>
@@ -19300,7 +19316,7 @@
         <v>1796</v>
       </c>
       <c r="B925" s="0" t="n">
-        <v>225020</v>
+        <v>225010</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>1797</v>
@@ -19314,7 +19330,7 @@
         <v>1798</v>
       </c>
       <c r="B926" s="0" t="n">
-        <v>303010</v>
+        <v>225020</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>1799</v>
@@ -19328,7 +19344,7 @@
         <v>1800</v>
       </c>
       <c r="B927" s="0" t="n">
-        <v>221106</v>
+        <v>303010</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>1801</v>
@@ -19342,7 +19358,7 @@
         <v>1802</v>
       </c>
       <c r="B928" s="0" t="n">
-        <v>355032</v>
+        <v>221106</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>1803</v>
@@ -19356,7 +19372,7 @@
         <v>1804</v>
       </c>
       <c r="B929" s="0" t="n">
-        <v>300160</v>
+        <v>355032</v>
       </c>
       <c r="C929" s="0" t="s">
         <v>1805</v>
@@ -19370,7 +19386,7 @@
         <v>1806</v>
       </c>
       <c r="B930" s="0" t="n">
-        <v>241070</v>
+        <v>300160</v>
       </c>
       <c r="C930" s="0" t="s">
         <v>1807</v>
@@ -19381,27 +19397,27 @@
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B931" s="0" t="s">
-        <v>4</v>
+        <v>1808</v>
+      </c>
+      <c r="B931" s="0" t="n">
+        <v>241070</v>
       </c>
       <c r="C931" s="0" t="s">
-        <v>4</v>
+        <v>1809</v>
       </c>
       <c r="D931" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B932" s="0" t="n">
-        <v>343080</v>
+        <v>4</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C932" s="0" t="s">
-        <v>1810</v>
+        <v>4</v>
       </c>
       <c r="D932" s="0" t="s">
         <v>1810</v>
@@ -19412,7 +19428,7 @@
         <v>1811</v>
       </c>
       <c r="B933" s="0" t="n">
-        <v>342120</v>
+        <v>343080</v>
       </c>
       <c r="C933" s="0" t="s">
         <v>1812</v>
@@ -19426,7 +19442,7 @@
         <v>1813</v>
       </c>
       <c r="B934" s="0" t="n">
-        <v>344040</v>
+        <v>342120</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>1814</v>
@@ -19440,7 +19456,7 @@
         <v>1815</v>
       </c>
       <c r="B935" s="0" t="n">
-        <v>263231</v>
+        <v>344040</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>1816</v>
@@ -19451,27 +19467,27 @@
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B936" s="0" t="s">
-        <v>4</v>
+        <v>1817</v>
+      </c>
+      <c r="B936" s="0" t="n">
+        <v>263231</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>4</v>
+        <v>1818</v>
       </c>
       <c r="D936" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B937" s="0" t="n">
-        <v>213030</v>
+        <v>4</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C937" s="0" t="s">
-        <v>1819</v>
+        <v>4</v>
       </c>
       <c r="D937" s="0" t="s">
         <v>1819</v>
@@ -19482,7 +19498,7 @@
         <v>1820</v>
       </c>
       <c r="B938" s="0" t="n">
-        <v>383030</v>
+        <v>213030</v>
       </c>
       <c r="C938" s="0" t="s">
         <v>1821</v>
@@ -19496,7 +19512,7 @@
         <v>1822</v>
       </c>
       <c r="B939" s="0" t="n">
-        <v>263310</v>
+        <v>383030</v>
       </c>
       <c r="C939" s="0" t="s">
         <v>1823</v>
@@ -19510,7 +19526,7 @@
         <v>1824</v>
       </c>
       <c r="B940" s="0" t="n">
-        <v>345031</v>
+        <v>263310</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>1825</v>
@@ -19524,7 +19540,7 @@
         <v>1826</v>
       </c>
       <c r="B941" s="0" t="n">
-        <v>221292</v>
+        <v>345031</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>1827</v>
@@ -19538,7 +19554,7 @@
         <v>1828</v>
       </c>
       <c r="B942" s="0" t="n">
-        <v>382050</v>
+        <v>221292</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>1829</v>
@@ -19552,7 +19568,7 @@
         <v>1830</v>
       </c>
       <c r="B943" s="0" t="n">
-        <v>300512</v>
+        <v>382050</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>1831</v>
@@ -19566,7 +19582,7 @@
         <v>1832</v>
       </c>
       <c r="B944" s="0" t="n">
-        <v>222030</v>
+        <v>300512</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>1833</v>
@@ -19577,27 +19593,27 @@
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B945" s="0" t="s">
-        <v>4</v>
+        <v>1834</v>
+      </c>
+      <c r="B945" s="0" t="n">
+        <v>222030</v>
       </c>
       <c r="C945" s="0" t="s">
-        <v>4</v>
+        <v>1835</v>
       </c>
       <c r="D945" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B946" s="0" t="n">
-        <v>322070</v>
+        <v>4</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C946" s="0" t="s">
-        <v>1836</v>
+        <v>4</v>
       </c>
       <c r="D946" s="0" t="s">
         <v>1836</v>
@@ -19608,7 +19624,7 @@
         <v>1837</v>
       </c>
       <c r="B947" s="0" t="n">
-        <v>354031</v>
+        <v>322070</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>1838</v>
@@ -19622,7 +19638,7 @@
         <v>1839</v>
       </c>
       <c r="B948" s="0" t="n">
-        <v>268061</v>
+        <v>354031</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>1840</v>
@@ -19636,7 +19652,7 @@
         <v>1841</v>
       </c>
       <c r="B949" s="0" t="n">
-        <v>268071</v>
+        <v>268061</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>1842</v>
@@ -19650,7 +19666,7 @@
         <v>1843</v>
       </c>
       <c r="B950" s="0" t="n">
-        <v>355105</v>
+        <v>268071</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>1844</v>
@@ -19664,7 +19680,7 @@
         <v>1845</v>
       </c>
       <c r="B951" s="0" t="n">
-        <v>372040</v>
+        <v>355105</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>1846</v>
@@ -19678,7 +19694,7 @@
         <v>1847</v>
       </c>
       <c r="B952" s="0" t="n">
-        <v>357030</v>
+        <v>372040</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>1848</v>
@@ -19692,7 +19708,7 @@
         <v>1849</v>
       </c>
       <c r="B953" s="0" t="n">
-        <v>225002</v>
+        <v>357030</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>1850</v>
@@ -19706,7 +19722,7 @@
         <v>1851</v>
       </c>
       <c r="B954" s="0" t="n">
-        <v>355220</v>
+        <v>225002</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>1852</v>
@@ -19720,7 +19736,7 @@
         <v>1853</v>
       </c>
       <c r="B955" s="0" t="n">
-        <v>300560</v>
+        <v>355220</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>1854</v>
@@ -19734,7 +19750,7 @@
         <v>1855</v>
       </c>
       <c r="B956" s="0" t="n">
-        <v>315060</v>
+        <v>300560</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>1856</v>
@@ -19748,7 +19764,7 @@
         <v>1857</v>
       </c>
       <c r="B957" s="0" t="n">
-        <v>261090</v>
+        <v>315060</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>1858</v>
@@ -19762,7 +19778,7 @@
         <v>1859</v>
       </c>
       <c r="B958" s="0" t="n">
-        <v>268020</v>
+        <v>261090</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>1860</v>
@@ -19776,7 +19792,7 @@
         <v>1861</v>
       </c>
       <c r="B959" s="0" t="n">
-        <v>268050</v>
+        <v>268020</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>1862</v>
@@ -19787,27 +19803,27 @@
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B960" s="0" t="s">
-        <v>4</v>
+        <v>1863</v>
+      </c>
+      <c r="B960" s="0" t="n">
+        <v>268050</v>
       </c>
       <c r="C960" s="0" t="s">
-        <v>4</v>
+        <v>1864</v>
       </c>
       <c r="D960" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B961" s="0" t="n">
-        <v>300240</v>
+        <v>4</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C961" s="0" t="s">
-        <v>1865</v>
+        <v>4</v>
       </c>
       <c r="D961" s="0" t="s">
         <v>1865</v>
@@ -19818,7 +19834,7 @@
         <v>1866</v>
       </c>
       <c r="B962" s="0" t="n">
-        <v>357093</v>
+        <v>300240</v>
       </c>
       <c r="C962" s="0" t="s">
         <v>1867</v>
@@ -19832,24 +19848,24 @@
         <v>1868</v>
       </c>
       <c r="B963" s="0" t="n">
-        <v>342070</v>
+        <v>357093</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>1869</v>
       </c>
       <c r="D963" s="0" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B964" s="0" t="n">
+        <v>342070</v>
+      </c>
+      <c r="C964" s="0" t="s">
         <v>1871</v>
-      </c>
-      <c r="B964" s="0" t="n">
-        <v>300082</v>
-      </c>
-      <c r="C964" s="0" t="s">
-        <v>1872</v>
       </c>
       <c r="D964" s="0" t="s">
         <v>1872</v>
@@ -19860,38 +19876,38 @@
         <v>1873</v>
       </c>
       <c r="B965" s="0" t="n">
-        <v>2900010</v>
+        <v>300082</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>1874</v>
       </c>
       <c r="D965" s="0" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B966" s="0" t="n">
+        <v>2900010</v>
+      </c>
+      <c r="C966" s="0" t="s">
         <v>1876</v>
       </c>
-      <c r="B966" s="0" t="n">
-        <v>266070</v>
-      </c>
-      <c r="C966" s="0" t="s">
+      <c r="D966" s="0" t="s">
         <v>1877</v>
-      </c>
-      <c r="D966" s="0" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B967" s="0" t="n">
+        <v>266070</v>
+      </c>
+      <c r="C967" s="0" t="s">
         <v>1879</v>
-      </c>
-      <c r="B967" s="0" t="n">
-        <v>241080</v>
-      </c>
-      <c r="C967" s="0" t="s">
-        <v>1880</v>
       </c>
       <c r="D967" s="0" t="s">
         <v>1880</v>
@@ -19899,27 +19915,27 @@
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B968" s="0" t="s">
-        <v>4</v>
+        <v>1881</v>
+      </c>
+      <c r="B968" s="0" t="n">
+        <v>241080</v>
       </c>
       <c r="C968" s="0" t="s">
-        <v>4</v>
+        <v>1882</v>
       </c>
       <c r="D968" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B969" s="0" t="n">
-        <v>372050</v>
+        <v>4</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C969" s="0" t="s">
-        <v>1883</v>
+        <v>4</v>
       </c>
       <c r="D969" s="0" t="s">
         <v>1883</v>
@@ -19930,7 +19946,7 @@
         <v>1884</v>
       </c>
       <c r="B970" s="0" t="n">
-        <v>275030</v>
+        <v>372050</v>
       </c>
       <c r="C970" s="0" t="s">
         <v>1885</v>
@@ -19944,7 +19960,7 @@
         <v>1886</v>
       </c>
       <c r="B971" s="0" t="n">
-        <v>221310</v>
+        <v>275030</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>1887</v>
@@ -19955,16 +19971,16 @@
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B972" s="0" t="s">
-        <v>4</v>
+        <v>1888</v>
+      </c>
+      <c r="B972" s="0" t="n">
+        <v>221310</v>
       </c>
       <c r="C972" s="0" t="s">
-        <v>4</v>
+        <v>1889</v>
       </c>
       <c r="D972" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19978,7 +19994,7 @@
         <v>4</v>
       </c>
       <c r="D973" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19992,7 +20008,7 @@
         <v>4</v>
       </c>
       <c r="D974" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20006,18 +20022,18 @@
         <v>4</v>
       </c>
       <c r="D975" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B976" s="0" t="n">
-        <v>357101</v>
+        <v>4</v>
+      </c>
+      <c r="B976" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C976" s="0" t="s">
-        <v>1893</v>
+        <v>4</v>
       </c>
       <c r="D976" s="0" t="s">
         <v>1893</v>
@@ -20028,24 +20044,24 @@
         <v>1894</v>
       </c>
       <c r="B977" s="0" t="n">
-        <v>341010</v>
+        <v>357101</v>
       </c>
       <c r="C977" s="0" t="s">
         <v>1895</v>
       </c>
       <c r="D977" s="0" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B978" s="0" t="n">
+        <v>341010</v>
+      </c>
+      <c r="C978" s="0" t="s">
         <v>1897</v>
-      </c>
-      <c r="B978" s="0" t="n">
-        <v>-16312160</v>
-      </c>
-      <c r="C978" s="0" t="s">
-        <v>1898</v>
       </c>
       <c r="D978" s="0" t="s">
         <v>1898</v>
@@ -20056,7 +20072,7 @@
         <v>1899</v>
       </c>
       <c r="B979" s="0" t="n">
-        <v>290113</v>
+        <v>-16312160</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>1900</v>
@@ -20070,7 +20086,7 @@
         <v>1901</v>
       </c>
       <c r="B980" s="0" t="n">
-        <v>357081</v>
+        <v>290113</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>1902</v>
@@ -20084,7 +20100,7 @@
         <v>1903</v>
       </c>
       <c r="B981" s="0" t="n">
-        <v>357072</v>
+        <v>357081</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>1904</v>
@@ -20098,7 +20114,7 @@
         <v>1905</v>
       </c>
       <c r="B982" s="0" t="n">
-        <v>358011</v>
+        <v>357072</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>1906</v>
@@ -20112,7 +20128,7 @@
         <v>1907</v>
       </c>
       <c r="B983" s="0" t="n">
-        <v>320100</v>
+        <v>358011</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>1908</v>
@@ -20126,7 +20142,7 @@
         <v>1909</v>
       </c>
       <c r="B984" s="0" t="n">
-        <v>223080</v>
+        <v>320100</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>1910</v>
@@ -20140,24 +20156,24 @@
         <v>1911</v>
       </c>
       <c r="B985" s="0" t="n">
-        <v>214100</v>
+        <v>223080</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>1912</v>
       </c>
       <c r="D985" s="0" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B986" s="0" t="n">
+        <v>214100</v>
+      </c>
+      <c r="C986" s="0" t="s">
         <v>1914</v>
-      </c>
-      <c r="B986" s="0" t="n">
-        <v>221250</v>
-      </c>
-      <c r="C986" s="0" t="s">
-        <v>1915</v>
       </c>
       <c r="D986" s="0" t="s">
         <v>1915</v>
@@ -20168,7 +20184,7 @@
         <v>1916</v>
       </c>
       <c r="B987" s="0" t="n">
-        <v>373040</v>
+        <v>221250</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>1917</v>
@@ -20182,7 +20198,7 @@
         <v>1918</v>
       </c>
       <c r="B988" s="0" t="n">
-        <v>352080</v>
+        <v>373040</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>1919</v>
@@ -20196,7 +20212,7 @@
         <v>1920</v>
       </c>
       <c r="B989" s="0" t="n">
-        <v>302050</v>
+        <v>352080</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>1921</v>
@@ -20210,7 +20226,7 @@
         <v>1922</v>
       </c>
       <c r="B990" s="0" t="n">
-        <v>357010</v>
+        <v>302050</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>1923</v>
@@ -20224,7 +20240,7 @@
         <v>1924</v>
       </c>
       <c r="B991" s="0" t="n">
-        <v>345070</v>
+        <v>357010</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>1925</v>
@@ -20238,7 +20254,7 @@
         <v>1926</v>
       </c>
       <c r="B992" s="0" t="n">
-        <v>354040</v>
+        <v>345070</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>1927</v>
@@ -20252,7 +20268,7 @@
         <v>1928</v>
       </c>
       <c r="B993" s="0" t="n">
-        <v>320031</v>
+        <v>354040</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>1929</v>
@@ -20266,7 +20282,7 @@
         <v>1930</v>
       </c>
       <c r="B994" s="0" t="n">
-        <v>355150</v>
+        <v>320031</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>1931</v>
@@ -20280,7 +20296,7 @@
         <v>1932</v>
       </c>
       <c r="B995" s="0" t="n">
-        <v>300540</v>
+        <v>355150</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>1933</v>
@@ -20294,7 +20310,7 @@
         <v>1934</v>
       </c>
       <c r="B996" s="0" t="n">
-        <v>323160</v>
+        <v>300540</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>1935</v>
@@ -20308,7 +20324,7 @@
         <v>1936</v>
       </c>
       <c r="B997" s="0" t="n">
-        <v>354020</v>
+        <v>323160</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>1937</v>
@@ -20322,7 +20338,7 @@
         <v>1938</v>
       </c>
       <c r="B998" s="0" t="n">
-        <v>300241</v>
+        <v>354020</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>1939</v>
@@ -20336,7 +20352,7 @@
         <v>1940</v>
       </c>
       <c r="B999" s="0" t="n">
-        <v>302030</v>
+        <v>300241</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>1941</v>
@@ -20350,7 +20366,7 @@
         <v>1942</v>
       </c>
       <c r="B1000" s="0" t="n">
-        <v>312130</v>
+        <v>302030</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>1943</v>
@@ -20364,7 +20380,7 @@
         <v>1944</v>
       </c>
       <c r="B1001" s="0" t="n">
-        <v>329010</v>
+        <v>312130</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>1945</v>
@@ -20378,7 +20394,7 @@
         <v>1946</v>
       </c>
       <c r="B1002" s="0" t="n">
-        <v>300610</v>
+        <v>329010</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>1947</v>
@@ -20392,7 +20408,7 @@
         <v>1948</v>
       </c>
       <c r="B1003" s="0" t="n">
-        <v>312131</v>
+        <v>300610</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>1949</v>
@@ -20406,7 +20422,7 @@
         <v>1950</v>
       </c>
       <c r="B1004" s="0" t="n">
-        <v>300350</v>
+        <v>312131</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>1951</v>
@@ -20417,27 +20433,27 @@
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1005" s="0" t="s">
-        <v>4</v>
+        <v>1952</v>
+      </c>
+      <c r="B1005" s="0" t="n">
+        <v>300350</v>
       </c>
       <c r="C1005" s="0" t="s">
-        <v>4</v>
+        <v>1953</v>
       </c>
       <c r="D1005" s="0" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B1006" s="0" t="n">
-        <v>311250</v>
+        <v>4</v>
+      </c>
+      <c r="B1006" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1006" s="0" t="s">
-        <v>1954</v>
+        <v>4</v>
       </c>
       <c r="D1006" s="0" t="s">
         <v>1954</v>
@@ -20448,7 +20464,7 @@
         <v>1955</v>
       </c>
       <c r="B1007" s="0" t="n">
-        <v>306030</v>
+        <v>311250</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>1956</v>
@@ -20459,27 +20475,27 @@
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1008" s="0" t="s">
-        <v>4</v>
+        <v>1957</v>
+      </c>
+      <c r="B1008" s="0" t="n">
+        <v>306030</v>
       </c>
       <c r="C1008" s="0" t="s">
-        <v>4</v>
+        <v>1958</v>
       </c>
       <c r="D1008" s="0" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1009" s="0" t="n">
-        <v>263230</v>
+        <v>4</v>
+      </c>
+      <c r="B1009" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1009" s="0" t="s">
-        <v>1959</v>
+        <v>4</v>
       </c>
       <c r="D1009" s="0" t="s">
         <v>1959</v>
@@ -20487,27 +20503,27 @@
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1010" s="0" t="s">
-        <v>4</v>
+        <v>1960</v>
+      </c>
+      <c r="B1010" s="0" t="n">
+        <v>263230</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>4</v>
+        <v>1961</v>
       </c>
       <c r="D1010" s="0" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1011" s="0" t="n">
-        <v>290191</v>
+        <v>4</v>
+      </c>
+      <c r="B1011" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1011" s="0" t="s">
-        <v>1962</v>
+        <v>4</v>
       </c>
       <c r="D1011" s="0" t="s">
         <v>1962</v>
@@ -20518,7 +20534,7 @@
         <v>1963</v>
       </c>
       <c r="B1012" s="0" t="n">
-        <v>300261</v>
+        <v>290191</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>1964</v>
@@ -20532,24 +20548,24 @@
         <v>1965</v>
       </c>
       <c r="B1013" s="0" t="n">
-        <v>343081</v>
+        <v>300261</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>1966</v>
       </c>
       <c r="D1013" s="0" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1014" s="0" t="n">
+        <v>343081</v>
+      </c>
+      <c r="C1014" s="0" t="s">
         <v>1968</v>
-      </c>
-      <c r="B1014" s="0" t="n">
-        <v>355838</v>
-      </c>
-      <c r="C1014" s="0" t="s">
-        <v>1969</v>
       </c>
       <c r="D1014" s="0" t="s">
         <v>1969</v>
@@ -20560,7 +20576,7 @@
         <v>1970</v>
       </c>
       <c r="B1015" s="0" t="n">
-        <v>300170</v>
+        <v>355838</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>1971</v>
@@ -20574,7 +20590,7 @@
         <v>1972</v>
       </c>
       <c r="B1016" s="0" t="n">
-        <v>300121</v>
+        <v>300170</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>1973</v>
@@ -20588,7 +20604,7 @@
         <v>1974</v>
       </c>
       <c r="B1017" s="0" t="n">
-        <v>300440</v>
+        <v>300121</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>1975</v>
@@ -20602,7 +20618,7 @@
         <v>1976</v>
       </c>
       <c r="B1018" s="0" t="n">
-        <v>372010</v>
+        <v>300440</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>1977</v>
@@ -20616,7 +20632,7 @@
         <v>1978</v>
       </c>
       <c r="B1019" s="0" t="n">
-        <v>211010</v>
+        <v>372010</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>1979</v>
@@ -20627,27 +20643,27 @@
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1020" s="0" t="s">
-        <v>4</v>
+        <v>1980</v>
+      </c>
+      <c r="B1020" s="0" t="n">
+        <v>211010</v>
       </c>
       <c r="C1020" s="0" t="s">
-        <v>4</v>
+        <v>1981</v>
       </c>
       <c r="D1020" s="0" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B1021" s="0" t="n">
-        <v>358061</v>
+        <v>4</v>
+      </c>
+      <c r="B1021" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>1982</v>
+        <v>4</v>
       </c>
       <c r="D1021" s="0" t="s">
         <v>1982</v>
@@ -20658,7 +20674,7 @@
         <v>1983</v>
       </c>
       <c r="B1022" s="0" t="n">
-        <v>357120</v>
+        <v>358061</v>
       </c>
       <c r="C1022" s="0" t="s">
         <v>1984</v>
@@ -20672,7 +20688,7 @@
         <v>1985</v>
       </c>
       <c r="B1023" s="0" t="n">
-        <v>300083</v>
+        <v>357120</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>1986</v>
@@ -20686,7 +20702,7 @@
         <v>1987</v>
       </c>
       <c r="B1024" s="0" t="n">
-        <v>223050</v>
+        <v>300083</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>1988</v>
@@ -20700,7 +20716,7 @@
         <v>1989</v>
       </c>
       <c r="B1025" s="0" t="n">
-        <v>300059</v>
+        <v>223050</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>1990</v>
@@ -20714,24 +20730,24 @@
         <v>1991</v>
       </c>
       <c r="B1026" s="0" t="n">
-        <v>344140</v>
+        <v>300059</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>1992</v>
       </c>
       <c r="D1026" s="0" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1027" s="0" t="n">
+        <v>344140</v>
+      </c>
+      <c r="C1027" s="0" t="s">
         <v>1994</v>
-      </c>
-      <c r="B1027" s="0" t="n">
-        <v>300720</v>
-      </c>
-      <c r="C1027" s="0" t="s">
-        <v>1995</v>
       </c>
       <c r="D1027" s="0" t="s">
         <v>1995</v>
@@ -20742,7 +20758,7 @@
         <v>1996</v>
       </c>
       <c r="B1028" s="0" t="n">
-        <v>211050</v>
+        <v>300720</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>1997</v>
@@ -20756,7 +20772,7 @@
         <v>1998</v>
       </c>
       <c r="B1029" s="0" t="n">
-        <v>211003</v>
+        <v>211050</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>1999</v>
@@ -20770,7 +20786,7 @@
         <v>2000</v>
       </c>
       <c r="B1030" s="0" t="n">
-        <v>300221</v>
+        <v>211003</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>2001</v>
@@ -20781,27 +20797,27 @@
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1031" s="0" t="s">
-        <v>4</v>
+        <v>2002</v>
+      </c>
+      <c r="B1031" s="0" t="n">
+        <v>300221</v>
       </c>
       <c r="C1031" s="0" t="s">
-        <v>4</v>
+        <v>2003</v>
       </c>
       <c r="D1031" s="0" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>2003</v>
-      </c>
-      <c r="B1032" s="0" t="n">
-        <v>264060</v>
+        <v>4</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1032" s="0" t="s">
-        <v>2004</v>
+        <v>4</v>
       </c>
       <c r="D1032" s="0" t="s">
         <v>2004</v>
@@ -20812,7 +20828,7 @@
         <v>2005</v>
       </c>
       <c r="B1033" s="0" t="n">
-        <v>324030</v>
+        <v>264060</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>2006</v>
@@ -20823,27 +20839,27 @@
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1034" s="0" t="s">
-        <v>4</v>
+        <v>2007</v>
+      </c>
+      <c r="B1034" s="0" t="n">
+        <v>324030</v>
       </c>
       <c r="C1034" s="0" t="s">
-        <v>4</v>
+        <v>2008</v>
       </c>
       <c r="D1034" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B1035" s="0" t="n">
-        <v>320150</v>
+        <v>4</v>
+      </c>
+      <c r="B1035" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1035" s="0" t="s">
-        <v>2009</v>
+        <v>4</v>
       </c>
       <c r="D1035" s="0" t="s">
         <v>2009</v>
@@ -20854,7 +20870,7 @@
         <v>2010</v>
       </c>
       <c r="B1036" s="0" t="n">
-        <v>321060</v>
+        <v>320150</v>
       </c>
       <c r="C1036" s="0" t="s">
         <v>2011</v>
@@ -20868,7 +20884,7 @@
         <v>2012</v>
       </c>
       <c r="B1037" s="0" t="n">
-        <v>311340</v>
+        <v>321060</v>
       </c>
       <c r="C1037" s="0" t="s">
         <v>2013</v>
@@ -20882,7 +20898,7 @@
         <v>2014</v>
       </c>
       <c r="B1038" s="0" t="n">
-        <v>210010</v>
+        <v>311340</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>2015</v>
@@ -20896,7 +20912,7 @@
         <v>2016</v>
       </c>
       <c r="B1039" s="0" t="n">
-        <v>241011</v>
+        <v>210010</v>
       </c>
       <c r="C1039" s="0" t="s">
         <v>2017</v>
@@ -20910,7 +20926,7 @@
         <v>2018</v>
       </c>
       <c r="B1040" s="0" t="n">
-        <v>241040</v>
+        <v>241011</v>
       </c>
       <c r="C1040" s="0" t="s">
         <v>2019</v>
@@ -20924,7 +20940,7 @@
         <v>2020</v>
       </c>
       <c r="B1041" s="0" t="n">
-        <v>263270</v>
+        <v>241040</v>
       </c>
       <c r="C1041" s="0" t="s">
         <v>2021</v>
@@ -20935,27 +20951,27 @@
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1042" s="0" t="s">
-        <v>4</v>
+        <v>2022</v>
+      </c>
+      <c r="B1042" s="0" t="n">
+        <v>263270</v>
       </c>
       <c r="C1042" s="0" t="s">
-        <v>4</v>
+        <v>2023</v>
       </c>
       <c r="D1042" s="0" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B1043" s="0" t="n">
-        <v>353020</v>
+        <v>4</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1043" s="0" t="s">
-        <v>2024</v>
+        <v>4</v>
       </c>
       <c r="D1043" s="0" t="s">
         <v>2024</v>
@@ -20963,27 +20979,27 @@
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1044" s="0" t="s">
-        <v>4</v>
+        <v>2025</v>
+      </c>
+      <c r="B1044" s="0" t="n">
+        <v>353020</v>
       </c>
       <c r="C1044" s="0" t="s">
-        <v>4</v>
+        <v>2026</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1045" s="0" t="n">
-        <v>212051</v>
+        <v>4</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1045" s="0" t="s">
-        <v>2027</v>
+        <v>4</v>
       </c>
       <c r="D1045" s="0" t="s">
         <v>2027</v>
@@ -20994,7 +21010,7 @@
         <v>2028</v>
       </c>
       <c r="B1046" s="0" t="n">
-        <v>221151</v>
+        <v>212051</v>
       </c>
       <c r="C1046" s="0" t="s">
         <v>2029</v>
@@ -21008,7 +21024,7 @@
         <v>2030</v>
       </c>
       <c r="B1047" s="0" t="n">
-        <v>312100</v>
+        <v>221151</v>
       </c>
       <c r="C1047" s="0" t="s">
         <v>2031</v>
@@ -21022,7 +21038,7 @@
         <v>2032</v>
       </c>
       <c r="B1048" s="0" t="n">
-        <v>358049</v>
+        <v>312100</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>2033</v>
@@ -21033,27 +21049,27 @@
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1049" s="0" t="s">
-        <v>4</v>
+        <v>2034</v>
+      </c>
+      <c r="B1049" s="0" t="n">
+        <v>358049</v>
       </c>
       <c r="C1049" s="0" t="s">
-        <v>4</v>
+        <v>2035</v>
       </c>
       <c r="D1049" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>2035</v>
-      </c>
-      <c r="B1050" s="0" t="n">
-        <v>358022</v>
+        <v>4</v>
+      </c>
+      <c r="B1050" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>2036</v>
+        <v>4</v>
       </c>
       <c r="D1050" s="0" t="s">
         <v>2036</v>
@@ -21064,7 +21080,7 @@
         <v>2037</v>
       </c>
       <c r="B1051" s="0" t="n">
-        <v>300021</v>
+        <v>358022</v>
       </c>
       <c r="C1051" s="0" t="s">
         <v>2038</v>
@@ -21078,7 +21094,7 @@
         <v>2039</v>
       </c>
       <c r="B1052" s="0" t="n">
-        <v>325010</v>
+        <v>300021</v>
       </c>
       <c r="C1052" s="0" t="s">
         <v>2040</v>
@@ -21089,16 +21105,16 @@
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1053" s="0" t="s">
-        <v>4</v>
+        <v>2041</v>
+      </c>
+      <c r="B1053" s="0" t="n">
+        <v>325010</v>
       </c>
       <c r="C1053" s="0" t="s">
-        <v>4</v>
+        <v>2042</v>
       </c>
       <c r="D1053" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21112,7 +21128,7 @@
         <v>4</v>
       </c>
       <c r="D1054" s="0" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21126,7 +21142,7 @@
         <v>4</v>
       </c>
       <c r="D1055" s="0" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21140,18 +21156,18 @@
         <v>4</v>
       </c>
       <c r="D1056" s="0" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B1057" s="0" t="n">
-        <v>354050</v>
+        <v>4</v>
+      </c>
+      <c r="B1057" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1057" s="0" t="s">
-        <v>2046</v>
+        <v>4</v>
       </c>
       <c r="D1057" s="0" t="s">
         <v>2046</v>
@@ -21159,27 +21175,27 @@
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1058" s="0" t="s">
-        <v>4</v>
+        <v>2047</v>
+      </c>
+      <c r="B1058" s="0" t="n">
+        <v>354050</v>
       </c>
       <c r="C1058" s="0" t="s">
-        <v>4</v>
+        <v>2048</v>
       </c>
       <c r="D1058" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B1059" s="0" t="n">
-        <v>311210</v>
+        <v>4</v>
+      </c>
+      <c r="B1059" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>2049</v>
+        <v>4</v>
       </c>
       <c r="D1059" s="0" t="s">
         <v>2049</v>
@@ -21187,27 +21203,27 @@
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1060" s="0" t="s">
-        <v>4</v>
+        <v>2050</v>
+      </c>
+      <c r="B1060" s="0" t="n">
+        <v>311210</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>4</v>
+        <v>2051</v>
       </c>
       <c r="D1060" s="0" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B1061" s="0" t="n">
-        <v>300480</v>
+        <v>4</v>
+      </c>
+      <c r="B1061" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1061" s="0" t="s">
-        <v>2052</v>
+        <v>4</v>
       </c>
       <c r="D1061" s="0" t="s">
         <v>2052</v>
@@ -21218,7 +21234,7 @@
         <v>2053</v>
       </c>
       <c r="B1062" s="0" t="n">
-        <v>344111</v>
+        <v>300480</v>
       </c>
       <c r="C1062" s="0" t="s">
         <v>2054</v>
@@ -21232,7 +21248,7 @@
         <v>2055</v>
       </c>
       <c r="B1063" s="0" t="n">
-        <v>300124</v>
+        <v>344111</v>
       </c>
       <c r="C1063" s="0" t="s">
         <v>2056</v>
@@ -21246,7 +21262,7 @@
         <v>2057</v>
       </c>
       <c r="B1064" s="0" t="n">
-        <v>290180</v>
+        <v>300124</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>2058</v>
@@ -21260,7 +21276,7 @@
         <v>2059</v>
       </c>
       <c r="B1065" s="0" t="n">
-        <v>300040</v>
+        <v>290180</v>
       </c>
       <c r="C1065" s="0" t="s">
         <v>2060</v>
@@ -21274,7 +21290,7 @@
         <v>2061</v>
       </c>
       <c r="B1066" s="0" t="n">
-        <v>300120</v>
+        <v>300040</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>2062</v>
@@ -21288,7 +21304,7 @@
         <v>2063</v>
       </c>
       <c r="B1067" s="0" t="n">
-        <v>300242</v>
+        <v>300120</v>
       </c>
       <c r="C1067" s="0" t="s">
         <v>2064</v>
@@ -21302,24 +21318,24 @@
         <v>2065</v>
       </c>
       <c r="B1068" s="0" t="n">
-        <v>341061</v>
+        <v>300242</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>2066</v>
       </c>
       <c r="D1068" s="0" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1069" s="0" t="n">
+        <v>341061</v>
+      </c>
+      <c r="C1069" s="0" t="s">
         <v>2068</v>
-      </c>
-      <c r="B1069" s="0" t="n">
-        <v>221021</v>
-      </c>
-      <c r="C1069" s="0" t="s">
-        <v>2069</v>
       </c>
       <c r="D1069" s="0" t="s">
         <v>2069</v>
@@ -21330,13 +21346,27 @@
         <v>2070</v>
       </c>
       <c r="B1070" s="0" t="n">
-        <v>327120</v>
+        <v>221021</v>
       </c>
       <c r="C1070" s="0" t="s">
         <v>2071</v>
       </c>
       <c r="D1070" s="0" t="s">
         <v>2071</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="0" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1071" s="0" t="n">
+        <v>327120</v>
+      </c>
+      <c r="C1071" s="0" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1071" s="0" t="s">
+        <v>2073</v>
       </c>
     </row>
   </sheetData>

--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="2076">
   <si>
     <t xml:space="preserve">db_name</t>
   </si>
@@ -2765,6 +2765,9 @@
   </si>
   <si>
     <t xml:space="preserve">kinenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirishimayama</t>
   </si>
   <si>
     <t xml:space="preserve">kirishimayama</t>
@@ -6353,8 +6356,8 @@
   </sheetPr>
   <dimension ref="A1:F1071"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A448" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D478" activeCellId="0" sqref="D478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12954,72 +12957,72 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>4</v>
+        <v>915</v>
+      </c>
+      <c r="B471" s="0" t="n">
+        <v>282090</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>4</v>
+        <v>916</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B472" s="0" t="n">
         <v>311020</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B473" s="0" t="n">
         <v>300230</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B474" s="0" t="n">
         <v>266120</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D474" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B475" s="0" t="n">
         <v>300260</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13033,77 +13036,77 @@
         <v>4</v>
       </c>
       <c r="D476" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>375010</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>290120</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B479" s="0" t="n">
         <v>300220</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B480" s="0" t="n">
         <v>221200</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D480" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B481" s="0" t="n">
         <v>311140</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13117,91 +13120,91 @@
         <v>4</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B483" s="0" t="n">
         <v>221320</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B484" s="0" t="n">
         <v>222054</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D484" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B485" s="0" t="n">
         <v>311161</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B486" s="0" t="n">
         <v>300090</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B487" s="0" t="n">
         <v>300020</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B488" s="0" t="n">
         <v>300122</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13215,91 +13218,91 @@
         <v>4</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B490" s="0" t="n">
         <v>300330</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B491" s="0" t="n">
         <v>373</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B492" s="0" t="n">
         <v>300400</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D492" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B493" s="0" t="n">
         <v>262000</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D493" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B494" s="0" t="n">
         <v>300190</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D494" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B495" s="0" t="n">
         <v>300200</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D495" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13313,35 +13316,35 @@
         <v>4</v>
       </c>
       <c r="D496" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B497" s="0" t="n">
         <v>371030</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D497" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B498" s="0" t="n">
         <v>300050</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D498" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13355,7 +13358,7 @@
         <v>4</v>
       </c>
       <c r="D499" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13369,7 +13372,7 @@
         <v>4</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13383,7 +13386,7 @@
         <v>4</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13397,63 +13400,63 @@
         <v>4</v>
       </c>
       <c r="D502" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B503" s="0" t="n">
         <v>312230</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D503" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B504" s="0" t="n">
         <v>213000</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D504" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B505" s="0" t="n">
         <v>300370</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D505" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B506" s="0" t="n">
         <v>304030</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13467,35 +13470,35 @@
         <v>4</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B508" s="0" t="n">
         <v>300023</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B509" s="0" t="n">
         <v>221120</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13509,7 +13512,7 @@
         <v>4</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13523,7 +13526,7 @@
         <v>4</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13537,63 +13540,63 @@
         <v>4</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B513" s="0" t="n">
         <v>225040</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B514" s="0" t="n">
         <v>373050</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B515" s="0" t="n">
         <v>223002</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B516" s="0" t="n">
         <v>222170</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13607,7 +13610,7 @@
         <v>4</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13621,119 +13624,119 @@
         <v>4</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B519" s="0" t="n">
         <v>343101</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D519" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B520" s="0" t="n">
         <v>357102</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B521" s="0" t="n">
         <v>273080</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B522" s="0" t="n">
         <v>357061</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B523" s="0" t="n">
         <v>355035</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B524" s="0" t="n">
         <v>357092</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B525" s="0" t="n">
         <v>343150</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B526" s="0" t="n">
         <v>321091</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13747,35 +13750,35 @@
         <v>4</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B528" s="0" t="n">
         <v>263320</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B529" s="0" t="n">
         <v>355108</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13789,21 +13792,21 @@
         <v>4</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>311080</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13817,259 +13820,259 @@
         <v>4</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>383060</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>211001</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>355100</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>341098</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>344133</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D537" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B538" s="0" t="n">
         <v>344080</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B539" s="0" t="n">
         <v>323080</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B540" s="0" t="n">
         <v>355120</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B541" s="0" t="n">
         <v>271050</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B542" s="0" t="n">
         <v>358060</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B543" s="0" t="n">
         <v>323190</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B544" s="0" t="n">
         <v>263260</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B545" s="0" t="n">
         <v>271031</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B546" s="0" t="n">
         <v>264200</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B547" s="0" t="n">
         <v>300530</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B548" s="0" t="n">
         <v>320050</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B549" s="0" t="n">
         <v>264180</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>264230</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,35 +14086,35 @@
         <v>4</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>360030</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B553" s="0" t="n">
         <v>355092</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14125,77 +14128,77 @@
         <v>4</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B555" s="0" t="n">
         <v>211042</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B556" s="0" t="n">
         <v>370030</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B557" s="0" t="n">
         <v>357110</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B558" s="0" t="n">
         <v>355110</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B559" s="0" t="n">
         <v>266100</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14209,7 +14212,7 @@
         <v>4</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14223,35 +14226,35 @@
         <v>4</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B562" s="0" t="n">
         <v>357064</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B563" s="0" t="n">
         <v>305050</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14265,217 +14268,217 @@
         <v>4</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B565" s="0" t="n">
         <v>222100</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B566" s="0" t="n">
         <v>357100</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B567" s="0" t="n">
         <v>341094</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B568" s="0" t="n">
         <v>341093</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B569" s="0" t="n">
         <v>261111</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B570" s="0" t="n">
         <v>221111</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B571" s="0" t="n">
         <v>358056</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B572" s="0" t="n">
         <v>351040</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B573" s="0" t="n">
         <v>312150</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B574" s="0" t="n">
         <v>272070</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D574" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B575" s="0" t="n">
         <v>266110</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D575" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B576" s="0" t="n">
         <v>357021</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B577" s="0" t="n">
         <v>271040</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B578" s="0" t="n">
         <v>268070</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B579" s="0" t="n">
         <v>311310</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14489,49 +14492,49 @@
         <v>4</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B581" s="0" t="n">
         <v>271071</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B582" s="0" t="n">
         <v>273044</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B583" s="0" t="n">
         <v>261121</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14545,49 +14548,49 @@
         <v>4</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B585" s="0" t="n">
         <v>300290</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B586" s="0" t="n">
         <v>300140</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B587" s="0" t="n">
         <v>323150</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14601,77 +14604,77 @@
         <v>4</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B589" s="0" t="n">
         <v>221127</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B590" s="0" t="n">
         <v>221115</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B591" s="0" t="n">
         <v>221122</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B592" s="0" t="n">
         <v>272030</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B593" s="0" t="n">
         <v>261140</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14685,91 +14688,91 @@
         <v>4</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B595" s="0" t="n">
         <v>268062</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B596" s="0" t="n">
         <v>273081</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B597" s="0" t="n">
         <v>327040</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B598" s="0" t="n">
         <v>241061</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B599" s="0" t="n">
         <v>222021</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B600" s="0" t="n">
         <v>313140</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14783,63 +14786,63 @@
         <v>4</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B602" s="0" t="n">
         <v>273031</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B603" s="0" t="n">
         <v>344100</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B604" s="0" t="n">
         <v>341031</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B605" s="0" t="n">
         <v>300001</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14853,133 +14856,133 @@
         <v>4</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B607" s="0" t="n">
         <v>221105</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B608" s="0" t="n">
         <v>271020</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B609" s="0" t="n">
         <v>332030</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B610" s="0" t="n">
         <v>332020</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B611" s="0" t="n">
         <v>273030</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B612" s="0" t="n">
         <v>241021</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D612" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B613" s="0" t="n">
         <v>320180</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B614" s="0" t="n">
         <v>323020</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B615" s="0" t="n">
         <v>221330</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14993,175 +14996,175 @@
         <v>4</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B617" s="0" t="n">
         <v>225050</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B618" s="0" t="n">
         <v>358052</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B619" s="0" t="n">
         <v>222060</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B620" s="0" t="n">
         <v>358054</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B621" s="0" t="n">
         <v>263250</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B622" s="0" t="n">
         <v>263240</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B623" s="0" t="n">
         <v>222160</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B624" s="0" t="n">
         <v>212020</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B625" s="0" t="n">
         <v>358064</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B626" s="0" t="n">
         <v>300570</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B627" s="0" t="n">
         <v>358040</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B628" s="0" t="n">
         <v>341060</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15175,21 +15178,21 @@
         <v>4</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B630" s="0" t="n">
         <v>303050</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15203,77 +15206,77 @@
         <v>4</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B632" s="0" t="n">
         <v>320120</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B633" s="0" t="n">
         <v>290161</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D633" s="0" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B634" s="0" t="n">
         <v>212030</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D634" s="0" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B635" s="0" t="n">
         <v>355102</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B636" s="0" t="n">
         <v>345030</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D636" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15287,217 +15290,217 @@
         <v>4</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B638" s="0" t="n">
         <v>357130</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B639" s="0" t="n">
         <v>290041</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B640" s="0" t="n">
         <v>311111</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B641" s="0" t="n">
         <v>344110</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B642" s="0" t="n">
         <v>344090</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B643" s="0" t="n">
         <v>323120</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B644" s="0" t="n">
         <v>323110</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B645" s="0" t="n">
         <v>358070</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B646" s="0" t="n">
         <v>360080</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B647" s="0" t="n">
         <v>360090</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B648" s="0" t="n">
         <v>268063</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B649" s="0" t="n">
         <v>221123</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B650" s="0" t="n">
         <v>290100</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B651" s="0" t="n">
         <v>342130</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B652" s="0" t="n">
         <v>223060</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15511,49 +15514,49 @@
         <v>4</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B654" s="0" t="n">
         <v>263251</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B655" s="0" t="n">
         <v>271070</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B656" s="0" t="n">
         <v>300060</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15567,21 +15570,21 @@
         <v>4</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B658" s="0" t="n">
         <v>221101</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15595,21 +15598,21 @@
         <v>4</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B660" s="0" t="n">
         <v>222040</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15623,21 +15626,21 @@
         <v>4</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B662" s="0" t="n">
         <v>341095</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15651,7 +15654,7 @@
         <v>4</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15665,245 +15668,245 @@
         <v>4</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B665" s="0" t="n">
         <v>273082</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B666" s="0" t="n">
         <v>320140</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B667" s="0" t="n">
         <v>344092</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B668" s="0" t="n">
         <v>213020</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B669" s="0" t="n">
         <v>354007</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B670" s="0" t="n">
         <v>355125</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B671" s="0" t="n">
         <v>351050</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B672" s="0" t="n">
         <v>357063</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B673" s="0" t="n">
         <v>351020</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B674" s="0" t="n">
         <v>351030</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D674" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B675" s="0" t="n">
         <v>341070</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B676" s="0" t="n">
         <v>354060</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B677" s="0" t="n">
         <v>357079</v>
       </c>
       <c r="C677" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D677" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B678" s="0" t="n">
         <v>355130</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B679" s="0" t="n">
         <v>360040</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D679" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B680" s="0" t="n">
         <v>322110</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B681" s="0" t="n">
         <v>222164</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15917,7 +15920,7 @@
         <v>4</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15931,7 +15934,7 @@
         <v>4</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15945,7 +15948,7 @@
         <v>4</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15959,35 +15962,35 @@
         <v>4</v>
       </c>
       <c r="D685" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B686" s="0" t="n">
         <v>290060</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D686" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B687" s="0" t="n">
         <v>212050</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16001,35 +16004,35 @@
         <v>4</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B689" s="0" t="n">
         <v>222001</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D689" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B690" s="0" t="n">
         <v>312180</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16043,111 +16046,111 @@
         <v>4</v>
       </c>
       <c r="D691" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B692" s="0" t="n">
         <v>222056</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D692" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B693" s="0" t="n">
         <v>223020</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D693" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B694" s="0" t="n">
         <v>223030</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D694" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B695" s="0" t="n">
         <v>300650</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D695" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C696" s="0" t="n">
         <v>221280</v>
       </c>
       <c r="D696" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E696" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="F696" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B697" s="0" t="n">
         <v>290072</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D697" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B698" s="0" t="n">
         <v>241050</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16161,147 +16164,147 @@
         <v>4</v>
       </c>
       <c r="D699" s="0" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B700" s="0" t="n">
         <v>311290</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D700" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B701" s="0" t="n">
         <v>224030</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D701" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B702" s="0" t="n">
         <v>355050</v>
       </c>
       <c r="C702" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D702" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B703" s="0" t="n">
         <v>222080</v>
       </c>
       <c r="C703" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D703" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B704" s="0" t="n">
         <v>222120</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D704" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B705" s="0" t="n">
         <v>222090</v>
       </c>
       <c r="C705" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D705" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B706" s="0" t="n">
         <v>222055</v>
       </c>
       <c r="C706" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D706" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B707" s="0" t="n">
         <v>300052</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D707" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B708" s="0" t="n">
         <v>355060</v>
       </c>
       <c r="C708" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D708" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B709" s="0" t="n">
         <v>210030</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D709" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16315,7 +16318,7 @@
         <v>4</v>
       </c>
       <c r="D710" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16329,49 +16332,49 @@
         <v>4</v>
       </c>
       <c r="D711" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B712" s="0" t="n">
         <v>300080</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D712" s="0" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B713" s="0" t="n">
         <v>374010</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D713" s="0" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B714" s="0" t="n">
         <v>345010</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D714" s="0" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16385,7 +16388,7 @@
         <v>4</v>
       </c>
       <c r="D715" s="0" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16399,497 +16402,497 @@
         <v>4</v>
       </c>
       <c r="D716" s="0" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>358010</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D717" s="0" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>300055</v>
       </c>
       <c r="C718" s="0" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D718" s="0" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>300680</v>
       </c>
       <c r="C719" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D719" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B720" s="0" t="n">
         <v>300056</v>
       </c>
       <c r="C720" s="0" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D720" s="0" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B721" s="0" t="n">
         <v>300051</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D721" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B722" s="0" t="n">
         <v>342110</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D722" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B723" s="0" t="n">
         <v>222053</v>
       </c>
       <c r="C723" s="0" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D723" s="0" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B724" s="0" t="n">
         <v>357022</v>
       </c>
       <c r="C724" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D724" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B725" s="0" t="n">
         <v>264150</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D725" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B726" s="0" t="n">
         <v>355042</v>
       </c>
       <c r="C726" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D726" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B727" s="0" t="n">
         <v>211041</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D727" s="0" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B728" s="0" t="n">
         <v>211071</v>
       </c>
       <c r="C728" s="0" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D728" s="0" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B729" s="0" t="n">
         <v>263100</v>
       </c>
       <c r="C729" s="0" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D729" s="0" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B730" s="0" t="n">
         <v>341081</v>
       </c>
       <c r="C730" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D730" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B731" s="0" t="n">
         <v>355012</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D731" s="0" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B732" s="0" t="n">
         <v>271011</v>
       </c>
       <c r="C732" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D732" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B733" s="0" t="n">
         <v>261231</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D733" s="0" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B734" s="0" t="n">
         <v>273087</v>
       </c>
       <c r="C734" s="0" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D734" s="0" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B735" s="0" t="n">
         <v>263070</v>
       </c>
       <c r="C735" s="0" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D735" s="0" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B736" s="0" t="n">
         <v>357066</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D736" s="0" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B737" s="0" t="n">
         <v>355200</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D737" s="0" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B738" s="0" t="n">
         <v>263291</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D738" s="0" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B739" s="0" t="n">
         <v>263040</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D739" s="0" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B740" s="0" t="n">
         <v>261030</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D740" s="0" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B741" s="0" t="n">
         <v>382020</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B742" s="0" t="n">
         <v>341100</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D742" s="0" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B743" s="0" t="n">
         <v>341001</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D743" s="0" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B744" s="0" t="n">
         <v>273083</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D744" s="0" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B745" s="0" t="n">
         <v>300054</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D745" s="0" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B746" s="0" t="n">
         <v>357040</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D746" s="0" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B747" s="0" t="n">
         <v>345034</v>
       </c>
       <c r="C747" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D747" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B748" s="0" t="n">
         <v>300310</v>
       </c>
       <c r="C748" s="0" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D748" s="0" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B749" s="0" t="n">
         <v>345040</v>
       </c>
       <c r="C749" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D749" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B750" s="0" t="n">
         <v>345050</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D750" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B751" s="0" t="n">
         <v>273020</v>
       </c>
       <c r="C751" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D751" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16903,273 +16906,273 @@
         <v>4</v>
       </c>
       <c r="D752" s="0" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B753" s="0" t="n">
         <v>300470</v>
       </c>
       <c r="C753" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D753" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B754" s="0" t="n">
         <v>341090</v>
       </c>
       <c r="C754" s="0" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D754" s="0" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B755" s="0" t="n">
         <v>214090</v>
       </c>
       <c r="C755" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D755" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B756" s="0" t="n">
         <v>371070</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D756" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B757" s="0" t="n">
         <v>290190</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D757" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B758" s="0" t="n">
         <v>355107</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D758" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B759" s="0" t="n">
         <v>263010</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D759" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B760" s="0" t="n">
         <v>352011</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D760" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B761" s="0" t="n">
         <v>357160</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D761" s="0" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B762" s="0" t="n">
         <v>351060</v>
       </c>
       <c r="C762" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D762" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B763" s="0" t="n">
         <v>355094</v>
       </c>
       <c r="C763" s="0" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D763" s="0" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B764" s="0" t="n">
         <v>355090</v>
       </c>
       <c r="C764" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D764" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B765" s="0" t="n">
         <v>357150</v>
       </c>
       <c r="C765" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D765" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B766" s="0" t="n">
         <v>358053</v>
       </c>
       <c r="C766" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D766" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B767" s="0" t="n">
         <v>360140</v>
       </c>
       <c r="C767" s="0" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D767" s="0" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B768" s="0" t="n">
         <v>357121</v>
       </c>
       <c r="C768" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D768" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B769" s="0" t="n">
         <v>342210</v>
       </c>
       <c r="C769" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D769" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B770" s="0" t="n">
         <v>352060</v>
       </c>
       <c r="C770" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D770" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B771" s="0" t="n">
         <v>354000</v>
       </c>
       <c r="C771" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D771" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17183,105 +17186,105 @@
         <v>4</v>
       </c>
       <c r="D772" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B773" s="0" t="n">
         <v>271060</v>
       </c>
       <c r="C773" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D773" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B774" s="0" t="n">
         <v>321030</v>
       </c>
       <c r="C774" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D774" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B775" s="0" t="n">
         <v>261290</v>
       </c>
       <c r="C775" s="0" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D775" s="0" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B776" s="0" t="n">
         <v>290110</v>
       </c>
       <c r="C776" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D776" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B777" s="0" t="n">
         <v>264071</v>
       </c>
       <c r="C777" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D777" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B778" s="0" t="n">
         <v>261251</v>
       </c>
       <c r="C778" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D778" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B779" s="0" t="n">
         <v>263340</v>
       </c>
       <c r="C779" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D779" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17295,35 +17298,35 @@
         <v>4</v>
       </c>
       <c r="D780" s="0" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B781" s="0" t="n">
         <v>2290020</v>
       </c>
       <c r="C781" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D781" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B782" s="0" t="n">
         <v>358063</v>
       </c>
       <c r="C782" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D782" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17337,119 +17340,119 @@
         <v>4</v>
       </c>
       <c r="D783" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B784" s="0" t="n">
         <v>241040</v>
       </c>
       <c r="C784" s="0" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D784" s="0" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B785" s="0" t="n">
         <v>357065</v>
       </c>
       <c r="C785" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D785" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B786" s="0" t="n">
         <v>352010</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D786" s="0" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B787" s="0" t="n">
         <v>371020</v>
       </c>
       <c r="C787" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D787" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B788" s="0" t="n">
         <v>266040</v>
       </c>
       <c r="C788" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D788" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B789" s="0" t="n">
         <v>345020</v>
       </c>
       <c r="C789" s="0" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D789" s="0" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B790" s="0" t="n">
         <v>264030</v>
       </c>
       <c r="C790" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D790" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B791" s="0" t="n">
         <v>357024</v>
       </c>
       <c r="C791" s="0" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D791" s="0" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17463,217 +17466,217 @@
         <v>4</v>
       </c>
       <c r="D792" s="0" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B793" s="0" t="n">
         <v>300340</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D793" s="0" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B794" s="0" t="n">
         <v>351011</v>
       </c>
       <c r="C794" s="0" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D794" s="0" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B795" s="0" t="n">
         <v>344060</v>
       </c>
       <c r="C795" s="0" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D795" s="0" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B796" s="0" t="n">
         <v>241100</v>
       </c>
       <c r="C796" s="0" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D796" s="0" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B797" s="0" t="n">
         <v>290091</v>
       </c>
       <c r="C797" s="0" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D797" s="0" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B798" s="0" t="n">
         <v>290112</v>
       </c>
       <c r="C798" s="0" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D798" s="0" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B799" s="0" t="n">
         <v>222166</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D799" s="0" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B800" s="0" t="n">
         <v>290021</v>
       </c>
       <c r="C800" s="0" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D800" s="0" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B801" s="0" t="n">
         <v>232002</v>
       </c>
       <c r="C801" s="0" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D801" s="0" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B802" s="0" t="n">
         <v>354006</v>
       </c>
       <c r="C802" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D802" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B803" s="0" t="n">
         <v>232001</v>
       </c>
       <c r="C803" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D803" s="0" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B804" s="0" t="n">
         <v>355091</v>
       </c>
       <c r="C804" s="0" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D804" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B805" s="0" t="n">
         <v>263050</v>
       </c>
       <c r="C805" s="0" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D805" s="0" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B806" s="0" t="n">
         <v>323200</v>
       </c>
       <c r="C806" s="0" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D806" s="0" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B807" s="0" t="n">
         <v>214050</v>
       </c>
       <c r="C807" s="0" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D807" s="0" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17687,273 +17690,273 @@
         <v>4</v>
       </c>
       <c r="D808" s="0" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B809" s="0" t="n">
         <v>341007</v>
       </c>
       <c r="C809" s="0" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D809" s="0" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B810" s="0" t="n">
         <v>224002</v>
       </c>
       <c r="C810" s="0" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D810" s="0" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B811" s="0" t="n">
         <v>344020</v>
       </c>
       <c r="C811" s="0" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D811" s="0" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B812" s="0" t="n">
         <v>343001</v>
       </c>
       <c r="C812" s="0" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D812" s="0" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B813" s="0" t="n">
         <v>322040</v>
       </c>
       <c r="C813" s="0" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D813" s="0" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B814" s="0" t="n">
         <v>329020</v>
       </c>
       <c r="C814" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D814" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B815" s="0" t="n">
         <v>341024</v>
       </c>
       <c r="C815" s="0" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D815" s="0" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B816" s="0" t="n">
         <v>352090</v>
       </c>
       <c r="C816" s="0" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D816" s="0" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B817" s="0" t="n">
         <v>264050</v>
       </c>
       <c r="C817" s="0" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D817" s="0" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B818" s="0" t="n">
         <v>224003</v>
       </c>
       <c r="C818" s="0" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D818" s="0" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B819" s="0" t="n">
         <v>382030</v>
       </c>
       <c r="C819" s="0" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D819" s="0" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B820" s="0" t="n">
         <v>357020</v>
       </c>
       <c r="C820" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D820" s="0" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B821" s="0" t="n">
         <v>341110</v>
       </c>
       <c r="C821" s="0" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D821" s="0" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B822" s="0" t="n">
         <v>343100</v>
       </c>
       <c r="C822" s="0" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D822" s="0" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B823" s="0" t="n">
         <v>273060</v>
       </c>
       <c r="C823" s="0" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D823" s="0" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B824" s="0" t="n">
         <v>357062</v>
       </c>
       <c r="C824" s="0" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D824" s="0" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B825" s="0" t="n">
         <v>355070</v>
       </c>
       <c r="C825" s="0" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D825" s="0" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B826" s="0" t="n">
         <v>343050</v>
       </c>
       <c r="C826" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D826" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B827" s="0" t="n">
         <v>343020</v>
       </c>
       <c r="C827" s="0" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D827" s="0" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17967,35 +17970,35 @@
         <v>4</v>
       </c>
       <c r="D828" s="0" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B829" s="0" t="n">
         <v>224004</v>
       </c>
       <c r="C829" s="0" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D829" s="0" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B830" s="0" t="n">
         <v>324030</v>
       </c>
       <c r="C830" s="0" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D830" s="0" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18009,189 +18012,189 @@
         <v>4</v>
       </c>
       <c r="D831" s="0" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B832" s="0" t="n">
         <v>212040</v>
       </c>
       <c r="C832" s="0" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D832" s="0" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B833" s="0" t="n">
         <v>343070</v>
       </c>
       <c r="C833" s="0" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D833" s="0" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B834" s="0" t="n">
         <v>354002</v>
       </c>
       <c r="C834" s="0" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="D834" s="0" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B835" s="0" t="n">
         <v>261131</v>
       </c>
       <c r="C835" s="0" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D835" s="0" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B836" s="0" t="n">
         <v>290080</v>
       </c>
       <c r="C836" s="0" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D836" s="0" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B837" s="0" t="n">
         <v>300201</v>
       </c>
       <c r="C837" s="0" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D837" s="0" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B838" s="0" t="n">
         <v>300520</v>
       </c>
       <c r="C838" s="0" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D838" s="0" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B839" s="0" t="n">
         <v>222050</v>
       </c>
       <c r="C839" s="0" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D839" s="0" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B840" s="0" t="n">
         <v>311180</v>
       </c>
       <c r="C840" s="0" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D840" s="0" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B841" s="0" t="n">
         <v>311030</v>
       </c>
       <c r="C841" s="0" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D841" s="0" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B842" s="0" t="n">
         <v>261260</v>
       </c>
       <c r="C842" s="0" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D842" s="0" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B843" s="0" t="n">
         <v>263300</v>
       </c>
       <c r="C843" s="0" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D843" s="0" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B844" s="0" t="n">
         <v>341092</v>
       </c>
       <c r="C844" s="0" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D844" s="0" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18205,77 +18208,77 @@
         <v>4</v>
       </c>
       <c r="D845" s="0" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B846" s="0" t="n">
         <v>261020</v>
       </c>
       <c r="C846" s="0" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D846" s="0" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B847" s="0" t="n">
         <v>300700</v>
       </c>
       <c r="C847" s="0" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D847" s="0" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B848" s="0" t="n">
         <v>230010</v>
       </c>
       <c r="C848" s="0" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="D848" s="0" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B849" s="0" t="n">
         <v>323010</v>
       </c>
       <c r="C849" s="0" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D849" s="0" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B850" s="0" t="n">
         <v>300270</v>
       </c>
       <c r="C850" s="0" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D850" s="0" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18289,7 +18292,7 @@
         <v>4</v>
       </c>
       <c r="D851" s="0" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18303,7 +18306,7 @@
         <v>4</v>
       </c>
       <c r="D852" s="0" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18317,7 +18320,7 @@
         <v>4</v>
       </c>
       <c r="D853" s="0" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18331,315 +18334,315 @@
         <v>4</v>
       </c>
       <c r="D854" s="0" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B855" s="0" t="n">
         <v>300511</v>
       </c>
       <c r="C855" s="0" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D855" s="0" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B856" s="0" t="n">
         <v>300580</v>
       </c>
       <c r="C856" s="0" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D856" s="0" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B857" s="0" t="n">
         <v>261110</v>
       </c>
       <c r="C857" s="0" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D857" s="0" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B858" s="0" t="n">
         <v>353050</v>
       </c>
       <c r="C858" s="0" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D858" s="0" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B859" s="0" t="n">
         <v>222052</v>
       </c>
       <c r="C859" s="0" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D859" s="0" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B860" s="0" t="n">
         <v>272040</v>
       </c>
       <c r="C860" s="0" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D860" s="0" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B861" s="0" t="n">
         <v>320160</v>
       </c>
       <c r="C861" s="0" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="D861" s="0" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B862" s="0" t="n">
         <v>261080</v>
       </c>
       <c r="C862" s="0" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D862" s="0" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B863" s="0" t="n">
         <v>261070</v>
       </c>
       <c r="C863" s="0" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D863" s="0" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B864" s="0" t="n">
         <v>264270</v>
       </c>
       <c r="C864" s="0" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D864" s="0" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B865" s="0" t="n">
         <v>263180</v>
       </c>
       <c r="C865" s="0" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D865" s="0" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B866" s="0" t="n">
         <v>370010</v>
       </c>
       <c r="C866" s="0" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="D866" s="0" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B867" s="0" t="n">
         <v>300690</v>
       </c>
       <c r="C867" s="0" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D867" s="0" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B868" s="0" t="n">
         <v>300660</v>
       </c>
       <c r="C868" s="0" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D868" s="0" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B869" s="0" t="n">
         <v>312200</v>
       </c>
       <c r="C869" s="0" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D869" s="0" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B870" s="0" t="n">
         <v>352001</v>
       </c>
       <c r="C870" s="0" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D870" s="0" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B871" s="0" t="n">
         <v>355109</v>
       </c>
       <c r="C871" s="0" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D871" s="0" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B872" s="0" t="n">
         <v>326010</v>
       </c>
       <c r="C872" s="0" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="D872" s="0" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B873" s="0" t="n">
         <v>221222</v>
       </c>
       <c r="C873" s="0" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D873" s="0" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B874" s="0" t="n">
         <v>357111</v>
       </c>
       <c r="C874" s="0" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D874" s="0" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B875" s="0" t="n">
         <v>266030</v>
       </c>
       <c r="C875" s="0" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D875" s="0" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B876" s="0" t="n">
         <v>261120</v>
       </c>
       <c r="C876" s="0" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D876" s="0" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18653,189 +18656,189 @@
         <v>4</v>
       </c>
       <c r="D877" s="0" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B878" s="0" t="n">
         <v>351061</v>
       </c>
       <c r="C878" s="0" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D878" s="0" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B879" s="0" t="n">
         <v>360060</v>
       </c>
       <c r="C879" s="0" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D879" s="0" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B880" s="0" t="n">
         <v>360050</v>
       </c>
       <c r="C880" s="0" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D880" s="0" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B881" s="0" t="n">
         <v>360150</v>
       </c>
       <c r="C881" s="0" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D881" s="0" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B882" s="0" t="n">
         <v>222020</v>
       </c>
       <c r="C882" s="0" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D882" s="0" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B883" s="0" t="n">
         <v>320070</v>
       </c>
       <c r="C883" s="0" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D883" s="0" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B884" s="0" t="n">
         <v>300671</v>
       </c>
       <c r="C884" s="0" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D884" s="0" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B885" s="0" t="n">
         <v>360170</v>
       </c>
       <c r="C885" s="0" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D885" s="0" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B886" s="0" t="n">
         <v>312220</v>
       </c>
       <c r="C886" s="0" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D886" s="0" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B887" s="0" t="n">
         <v>321050</v>
       </c>
       <c r="C887" s="0" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D887" s="0" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B888" s="0" t="n">
         <v>211040</v>
       </c>
       <c r="C888" s="0" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D888" s="0" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B889" s="0" t="n">
         <v>342160</v>
       </c>
       <c r="C889" s="0" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D889" s="0" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B890" s="0" t="n">
         <v>264120</v>
       </c>
       <c r="C890" s="0" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D890" s="0" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18849,77 +18852,77 @@
         <v>4</v>
       </c>
       <c r="D891" s="0" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B892" s="0" t="n">
         <v>352040</v>
       </c>
       <c r="C892" s="0" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D892" s="0" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B893" s="0" t="n">
         <v>261180</v>
       </c>
       <c r="C893" s="0" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D893" s="0" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B894" s="0" t="n">
         <v>263210</v>
       </c>
       <c r="C894" s="0" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D894" s="0" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B895" s="0" t="n">
         <v>261270</v>
       </c>
       <c r="C895" s="0" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D895" s="0" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B896" s="0" t="n">
         <v>222110</v>
       </c>
       <c r="C896" s="0" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D896" s="0" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18933,119 +18936,119 @@
         <v>4</v>
       </c>
       <c r="D897" s="0" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B898" s="0" t="n">
         <v>273070</v>
       </c>
       <c r="C898" s="0" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D898" s="0" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B899" s="0" t="n">
         <v>355011</v>
       </c>
       <c r="C899" s="0" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D899" s="0" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B900" s="0" t="n">
         <v>343072</v>
       </c>
       <c r="C900" s="0" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D900" s="0" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B901" s="0" t="n">
         <v>341130</v>
       </c>
       <c r="C901" s="0" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D901" s="0" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B902" s="0" t="n">
         <v>355010</v>
       </c>
       <c r="C902" s="0" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D902" s="0" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B903" s="0" t="n">
         <v>232050</v>
       </c>
       <c r="C903" s="0" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D903" s="0" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B904" s="0" t="n">
         <v>225004</v>
       </c>
       <c r="C904" s="0" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D904" s="0" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B905" s="0" t="n">
         <v>342141</v>
       </c>
       <c r="C905" s="0" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D905" s="0" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19059,21 +19062,21 @@
         <v>4</v>
       </c>
       <c r="D906" s="0" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B907" s="0" t="n">
         <v>342020</v>
       </c>
       <c r="C907" s="0" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D907" s="0" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19087,21 +19090,21 @@
         <v>4</v>
       </c>
       <c r="D908" s="0" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B909" s="0" t="n">
         <v>311090</v>
       </c>
       <c r="C909" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D909" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19115,301 +19118,301 @@
         <v>4</v>
       </c>
       <c r="D910" s="0" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B911" s="0" t="n">
         <v>263150</v>
       </c>
       <c r="C911" s="0" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="D911" s="0" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B912" s="0" t="n">
         <v>261130</v>
       </c>
       <c r="C912" s="0" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D912" s="0" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="B913" s="0" t="n">
         <v>261160</v>
       </c>
       <c r="C913" s="0" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="D913" s="0" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B914" s="0" t="n">
         <v>355021</v>
       </c>
       <c r="C914" s="0" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D914" s="0" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B915" s="0" t="n">
         <v>264040</v>
       </c>
       <c r="C915" s="0" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D915" s="0" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B916" s="0" t="n">
         <v>263131</v>
       </c>
       <c r="C916" s="0" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D916" s="0" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B917" s="0" t="n">
         <v>311241</v>
       </c>
       <c r="C917" s="0" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="D917" s="0" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B918" s="0" t="n">
         <v>311080</v>
       </c>
       <c r="C918" s="0" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D918" s="0" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B919" s="0" t="n">
         <v>261150</v>
       </c>
       <c r="C919" s="0" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D919" s="0" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B920" s="0" t="n">
         <v>266130</v>
       </c>
       <c r="C920" s="0" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D920" s="0" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B921" s="0" t="n">
         <v>263090</v>
       </c>
       <c r="C921" s="0" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D921" s="0" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B922" s="0" t="n">
         <v>268001</v>
       </c>
       <c r="C922" s="0" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D922" s="0" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B923" s="0" t="n">
         <v>241030</v>
       </c>
       <c r="C923" s="0" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D923" s="0" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B924" s="0" t="n">
         <v>225009</v>
       </c>
       <c r="C924" s="0" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D924" s="0" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B925" s="0" t="n">
         <v>225010</v>
       </c>
       <c r="C925" s="0" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D925" s="0" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B926" s="0" t="n">
         <v>225020</v>
       </c>
       <c r="C926" s="0" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D926" s="0" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B927" s="0" t="n">
         <v>303010</v>
       </c>
       <c r="C927" s="0" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D927" s="0" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B928" s="0" t="n">
         <v>221106</v>
       </c>
       <c r="C928" s="0" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D928" s="0" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B929" s="0" t="n">
         <v>355032</v>
       </c>
       <c r="C929" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D929" s="0" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B930" s="0" t="n">
         <v>300160</v>
       </c>
       <c r="C930" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D930" s="0" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B931" s="0" t="n">
         <v>241070</v>
       </c>
       <c r="C931" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D931" s="0" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19423,63 +19426,63 @@
         <v>4</v>
       </c>
       <c r="D932" s="0" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B933" s="0" t="n">
         <v>343080</v>
       </c>
       <c r="C933" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D933" s="0" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B934" s="0" t="n">
         <v>342120</v>
       </c>
       <c r="C934" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D934" s="0" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B935" s="0" t="n">
         <v>344040</v>
       </c>
       <c r="C935" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D935" s="0" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B936" s="0" t="n">
         <v>263231</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D936" s="0" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19493,119 +19496,119 @@
         <v>4</v>
       </c>
       <c r="D937" s="0" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B938" s="0" t="n">
         <v>213030</v>
       </c>
       <c r="C938" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D938" s="0" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B939" s="0" t="n">
         <v>383030</v>
       </c>
       <c r="C939" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D939" s="0" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B940" s="0" t="n">
         <v>263310</v>
       </c>
       <c r="C940" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D940" s="0" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B941" s="0" t="n">
         <v>345031</v>
       </c>
       <c r="C941" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D941" s="0" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B942" s="0" t="n">
         <v>221292</v>
       </c>
       <c r="C942" s="0" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D942" s="0" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B943" s="0" t="n">
         <v>382050</v>
       </c>
       <c r="C943" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D943" s="0" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B944" s="0" t="n">
         <v>300512</v>
       </c>
       <c r="C944" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="D944" s="0" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B945" s="0" t="n">
         <v>222030</v>
       </c>
       <c r="C945" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D945" s="0" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19619,203 +19622,203 @@
         <v>4</v>
       </c>
       <c r="D946" s="0" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B947" s="0" t="n">
         <v>322070</v>
       </c>
       <c r="C947" s="0" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D947" s="0" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B948" s="0" t="n">
         <v>354031</v>
       </c>
       <c r="C948" s="0" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D948" s="0" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B949" s="0" t="n">
         <v>268061</v>
       </c>
       <c r="C949" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D949" s="0" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B950" s="0" t="n">
         <v>268071</v>
       </c>
       <c r="C950" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D950" s="0" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B951" s="0" t="n">
         <v>355105</v>
       </c>
       <c r="C951" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D951" s="0" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B952" s="0" t="n">
         <v>372040</v>
       </c>
       <c r="C952" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D952" s="0" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B953" s="0" t="n">
         <v>357030</v>
       </c>
       <c r="C953" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D953" s="0" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B954" s="0" t="n">
         <v>225002</v>
       </c>
       <c r="C954" s="0" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D954" s="0" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B955" s="0" t="n">
         <v>355220</v>
       </c>
       <c r="C955" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D955" s="0" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B956" s="0" t="n">
         <v>300560</v>
       </c>
       <c r="C956" s="0" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D956" s="0" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B957" s="0" t="n">
         <v>315060</v>
       </c>
       <c r="C957" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D957" s="0" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B958" s="0" t="n">
         <v>261090</v>
       </c>
       <c r="C958" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="D958" s="0" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B959" s="0" t="n">
         <v>268020</v>
       </c>
       <c r="C959" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D959" s="0" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B960" s="0" t="n">
         <v>268050</v>
       </c>
       <c r="C960" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D960" s="0" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19829,105 +19832,105 @@
         <v>4</v>
       </c>
       <c r="D961" s="0" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B962" s="0" t="n">
         <v>300240</v>
       </c>
       <c r="C962" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D962" s="0" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B963" s="0" t="n">
         <v>357093</v>
       </c>
       <c r="C963" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D963" s="0" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B964" s="0" t="n">
         <v>342070</v>
       </c>
       <c r="C964" s="0" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="D964" s="0" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B965" s="0" t="n">
         <v>300082</v>
       </c>
       <c r="C965" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D965" s="0" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B966" s="0" t="n">
         <v>2900010</v>
       </c>
       <c r="C966" s="0" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D966" s="0" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B967" s="0" t="n">
         <v>266070</v>
       </c>
       <c r="C967" s="0" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D967" s="0" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B968" s="0" t="n">
         <v>241080</v>
       </c>
       <c r="C968" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D968" s="0" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19941,49 +19944,49 @@
         <v>4</v>
       </c>
       <c r="D969" s="0" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B970" s="0" t="n">
         <v>372050</v>
       </c>
       <c r="C970" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="D970" s="0" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B971" s="0" t="n">
         <v>275030</v>
       </c>
       <c r="C971" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D971" s="0" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B972" s="0" t="n">
         <v>221310</v>
       </c>
       <c r="C972" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D972" s="0" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19997,7 +20000,7 @@
         <v>4</v>
       </c>
       <c r="D973" s="0" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20011,7 +20014,7 @@
         <v>4</v>
       </c>
       <c r="D974" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20025,7 +20028,7 @@
         <v>4</v>
       </c>
       <c r="D975" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20039,413 +20042,413 @@
         <v>4</v>
       </c>
       <c r="D976" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B977" s="0" t="n">
         <v>357101</v>
       </c>
       <c r="C977" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="D977" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B978" s="0" t="n">
         <v>341010</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="D978" s="0" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B979" s="0" t="n">
         <v>-16312160</v>
       </c>
       <c r="C979" s="0" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D979" s="0" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B980" s="0" t="n">
         <v>290113</v>
       </c>
       <c r="C980" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D980" s="0" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B981" s="0" t="n">
         <v>357081</v>
       </c>
       <c r="C981" s="0" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D981" s="0" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B982" s="0" t="n">
         <v>357072</v>
       </c>
       <c r="C982" s="0" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D982" s="0" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B983" s="0" t="n">
         <v>358011</v>
       </c>
       <c r="C983" s="0" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D983" s="0" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B984" s="0" t="n">
         <v>320100</v>
       </c>
       <c r="C984" s="0" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="D984" s="0" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B985" s="0" t="n">
         <v>223080</v>
       </c>
       <c r="C985" s="0" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D985" s="0" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B986" s="0" t="n">
         <v>214100</v>
       </c>
       <c r="C986" s="0" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D986" s="0" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B987" s="0" t="n">
         <v>221250</v>
       </c>
       <c r="C987" s="0" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="D987" s="0" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B988" s="0" t="n">
         <v>373040</v>
       </c>
       <c r="C988" s="0" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D988" s="0" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B989" s="0" t="n">
         <v>352080</v>
       </c>
       <c r="C989" s="0" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="D989" s="0" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B990" s="0" t="n">
         <v>302050</v>
       </c>
       <c r="C990" s="0" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="D990" s="0" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B991" s="0" t="n">
         <v>357010</v>
       </c>
       <c r="C991" s="0" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D991" s="0" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B992" s="0" t="n">
         <v>345070</v>
       </c>
       <c r="C992" s="0" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="D992" s="0" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B993" s="0" t="n">
         <v>354040</v>
       </c>
       <c r="C993" s="0" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="D993" s="0" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B994" s="0" t="n">
         <v>320031</v>
       </c>
       <c r="C994" s="0" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="D994" s="0" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B995" s="0" t="n">
         <v>355150</v>
       </c>
       <c r="C995" s="0" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D995" s="0" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B996" s="0" t="n">
         <v>300540</v>
       </c>
       <c r="C996" s="0" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D996" s="0" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B997" s="0" t="n">
         <v>323160</v>
       </c>
       <c r="C997" s="0" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="D997" s="0" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B998" s="0" t="n">
         <v>354020</v>
       </c>
       <c r="C998" s="0" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D998" s="0" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B999" s="0" t="n">
         <v>300241</v>
       </c>
       <c r="C999" s="0" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D999" s="0" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1000" s="0" t="n">
         <v>302030</v>
       </c>
       <c r="C1000" s="0" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="D1000" s="0" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1001" s="0" t="n">
         <v>312130</v>
       </c>
       <c r="C1001" s="0" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D1001" s="0" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1002" s="0" t="n">
         <v>329010</v>
       </c>
       <c r="C1002" s="0" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D1002" s="0" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1003" s="0" t="n">
         <v>300610</v>
       </c>
       <c r="C1003" s="0" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="D1003" s="0" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1004" s="0" t="n">
         <v>312131</v>
       </c>
       <c r="C1004" s="0" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="D1004" s="0" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1005" s="0" t="n">
         <v>300350</v>
       </c>
       <c r="C1005" s="0" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="D1005" s="0" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20459,35 +20462,35 @@
         <v>4</v>
       </c>
       <c r="D1006" s="0" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1007" s="0" t="n">
         <v>311250</v>
       </c>
       <c r="C1007" s="0" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D1007" s="0" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1008" s="0" t="n">
         <v>306030</v>
       </c>
       <c r="C1008" s="0" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D1008" s="0" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20501,21 +20504,21 @@
         <v>4</v>
       </c>
       <c r="D1009" s="0" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1010" s="0" t="n">
         <v>263230</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D1010" s="0" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20529,133 +20532,133 @@
         <v>4</v>
       </c>
       <c r="D1011" s="0" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B1012" s="0" t="n">
         <v>290191</v>
       </c>
       <c r="C1012" s="0" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D1012" s="0" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1013" s="0" t="n">
         <v>300261</v>
       </c>
       <c r="C1013" s="0" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D1013" s="0" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1014" s="0" t="n">
         <v>343081</v>
       </c>
       <c r="C1014" s="0" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D1014" s="0" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1015" s="0" t="n">
         <v>355838</v>
       </c>
       <c r="C1015" s="0" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D1015" s="0" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1016" s="0" t="n">
         <v>300170</v>
       </c>
       <c r="C1016" s="0" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D1016" s="0" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1017" s="0" t="n">
         <v>300121</v>
       </c>
       <c r="C1017" s="0" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D1017" s="0" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1018" s="0" t="n">
         <v>300440</v>
       </c>
       <c r="C1018" s="0" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D1018" s="0" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1019" s="0" t="n">
         <v>372010</v>
       </c>
       <c r="C1019" s="0" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="D1019" s="0" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1020" s="0" t="n">
         <v>211010</v>
       </c>
       <c r="C1020" s="0" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="D1020" s="0" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20669,147 +20672,147 @@
         <v>4</v>
       </c>
       <c r="D1021" s="0" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1022" s="0" t="n">
         <v>358061</v>
       </c>
       <c r="C1022" s="0" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D1022" s="0" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1023" s="0" t="n">
         <v>357120</v>
       </c>
       <c r="C1023" s="0" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D1023" s="0" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1024" s="0" t="n">
         <v>300083</v>
       </c>
       <c r="C1024" s="0" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D1024" s="0" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1025" s="0" t="n">
         <v>223050</v>
       </c>
       <c r="C1025" s="0" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D1025" s="0" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1026" s="0" t="n">
         <v>300059</v>
       </c>
       <c r="C1026" s="0" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D1026" s="0" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1027" s="0" t="n">
         <v>344140</v>
       </c>
       <c r="C1027" s="0" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D1027" s="0" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1028" s="0" t="n">
         <v>300720</v>
       </c>
       <c r="C1028" s="0" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D1028" s="0" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1029" s="0" t="n">
         <v>211050</v>
       </c>
       <c r="C1029" s="0" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D1029" s="0" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1030" s="0" t="n">
         <v>211003</v>
       </c>
       <c r="C1030" s="0" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D1030" s="0" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1031" s="0" t="n">
         <v>300221</v>
       </c>
       <c r="C1031" s="0" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D1031" s="0" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20823,35 +20826,35 @@
         <v>4</v>
       </c>
       <c r="D1032" s="0" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1033" s="0" t="n">
         <v>264060</v>
       </c>
       <c r="C1033" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D1033" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1034" s="0" t="n">
         <v>324030</v>
       </c>
       <c r="C1034" s="0" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D1034" s="0" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20865,105 +20868,105 @@
         <v>4</v>
       </c>
       <c r="D1035" s="0" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B1036" s="0" t="n">
         <v>320150</v>
       </c>
       <c r="C1036" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D1036" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B1037" s="0" t="n">
         <v>321060</v>
       </c>
       <c r="C1037" s="0" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D1037" s="0" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B1038" s="0" t="n">
         <v>311340</v>
       </c>
       <c r="C1038" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1038" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B1039" s="0" t="n">
         <v>210010</v>
       </c>
       <c r="C1039" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D1039" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B1040" s="0" t="n">
         <v>241011</v>
       </c>
       <c r="C1040" s="0" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D1040" s="0" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B1041" s="0" t="n">
         <v>241040</v>
       </c>
       <c r="C1041" s="0" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D1041" s="0" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B1042" s="0" t="n">
         <v>263270</v>
       </c>
       <c r="C1042" s="0" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D1042" s="0" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20977,21 +20980,21 @@
         <v>4</v>
       </c>
       <c r="D1043" s="0" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B1044" s="0" t="n">
         <v>353020</v>
       </c>
       <c r="C1044" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21005,63 +21008,63 @@
         <v>4</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B1046" s="0" t="n">
         <v>212051</v>
       </c>
       <c r="C1046" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D1046" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B1047" s="0" t="n">
         <v>221151</v>
       </c>
       <c r="C1047" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D1047" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B1048" s="0" t="n">
         <v>312100</v>
       </c>
       <c r="C1048" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D1048" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B1049" s="0" t="n">
         <v>358049</v>
       </c>
       <c r="C1049" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="D1049" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21075,49 +21078,49 @@
         <v>4</v>
       </c>
       <c r="D1050" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B1051" s="0" t="n">
         <v>358022</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D1051" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B1052" s="0" t="n">
         <v>300021</v>
       </c>
       <c r="C1052" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D1052" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B1053" s="0" t="n">
         <v>325010</v>
       </c>
       <c r="C1053" s="0" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="D1053" s="0" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21131,7 +21134,7 @@
         <v>4</v>
       </c>
       <c r="D1054" s="0" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21145,7 +21148,7 @@
         <v>4</v>
       </c>
       <c r="D1055" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21159,7 +21162,7 @@
         <v>4</v>
       </c>
       <c r="D1056" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21173,21 +21176,21 @@
         <v>4</v>
       </c>
       <c r="D1057" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B1058" s="0" t="n">
         <v>354050</v>
       </c>
       <c r="C1058" s="0" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="D1058" s="0" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21201,21 +21204,21 @@
         <v>4</v>
       </c>
       <c r="D1059" s="0" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B1060" s="0" t="n">
         <v>311210</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="D1060" s="0" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21229,147 +21232,147 @@
         <v>4</v>
       </c>
       <c r="D1061" s="0" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B1062" s="0" t="n">
         <v>300480</v>
       </c>
       <c r="C1062" s="0" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D1062" s="0" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B1063" s="0" t="n">
         <v>344111</v>
       </c>
       <c r="C1063" s="0" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="D1063" s="0" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="B1064" s="0" t="n">
         <v>300124</v>
       </c>
       <c r="C1064" s="0" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="D1064" s="0" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="B1065" s="0" t="n">
         <v>290180</v>
       </c>
       <c r="C1065" s="0" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="D1065" s="0" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="B1066" s="0" t="n">
         <v>300040</v>
       </c>
       <c r="C1066" s="0" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D1066" s="0" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B1067" s="0" t="n">
         <v>300120</v>
       </c>
       <c r="C1067" s="0" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="D1067" s="0" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B1068" s="0" t="n">
         <v>300242</v>
       </c>
       <c r="C1068" s="0" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D1068" s="0" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B1069" s="0" t="n">
         <v>341061</v>
       </c>
       <c r="C1069" s="0" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D1069" s="0" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1070" s="0" t="n">
         <v>221021</v>
       </c>
       <c r="C1070" s="0" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="D1070" s="0" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1071" s="0" t="n">
         <v>327120</v>
       </c>
       <c r="C1071" s="0" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="D1071" s="0" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
   </sheetData>

--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="2078">
   <si>
     <t xml:space="preserve">db_name</t>
   </si>
@@ -3113,6 +3113,12 @@
   </si>
   <si>
     <t xml:space="preserve">las_cumbres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Palma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la_palma</t>
   </si>
   <si>
     <t xml:space="preserve">Las Lajas</t>
@@ -6354,10 +6360,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1071"/>
+  <dimension ref="A1:F1072"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A448" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D478" activeCellId="0" sqref="D478"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A490" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F539" activeCellId="0" sqref="F539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13884,7 +13890,7 @@
         <v>1031</v>
       </c>
       <c r="B537" s="0" t="n">
-        <v>344133</v>
+        <v>383010</v>
       </c>
       <c r="C537" s="0" t="s">
         <v>1032</v>
@@ -13898,7 +13904,7 @@
         <v>1033</v>
       </c>
       <c r="B538" s="0" t="n">
-        <v>344080</v>
+        <v>344133</v>
       </c>
       <c r="C538" s="0" t="s">
         <v>1034</v>
@@ -13912,7 +13918,7 @@
         <v>1035</v>
       </c>
       <c r="B539" s="0" t="n">
-        <v>323080</v>
+        <v>344080</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>1036</v>
@@ -13926,7 +13932,7 @@
         <v>1037</v>
       </c>
       <c r="B540" s="0" t="n">
-        <v>355120</v>
+        <v>323080</v>
       </c>
       <c r="C540" s="0" t="s">
         <v>1038</v>
@@ -13940,7 +13946,7 @@
         <v>1039</v>
       </c>
       <c r="B541" s="0" t="n">
-        <v>271050</v>
+        <v>355120</v>
       </c>
       <c r="C541" s="0" t="s">
         <v>1040</v>
@@ -13954,7 +13960,7 @@
         <v>1041</v>
       </c>
       <c r="B542" s="0" t="n">
-        <v>358060</v>
+        <v>271050</v>
       </c>
       <c r="C542" s="0" t="s">
         <v>1042</v>
@@ -13968,7 +13974,7 @@
         <v>1043</v>
       </c>
       <c r="B543" s="0" t="n">
-        <v>323190</v>
+        <v>358060</v>
       </c>
       <c r="C543" s="0" t="s">
         <v>1044</v>
@@ -13982,7 +13988,7 @@
         <v>1045</v>
       </c>
       <c r="B544" s="0" t="n">
-        <v>263260</v>
+        <v>323190</v>
       </c>
       <c r="C544" s="0" t="s">
         <v>1046</v>
@@ -13996,7 +14002,7 @@
         <v>1047</v>
       </c>
       <c r="B545" s="0" t="n">
-        <v>271031</v>
+        <v>263260</v>
       </c>
       <c r="C545" s="0" t="s">
         <v>1048</v>
@@ -14010,7 +14016,7 @@
         <v>1049</v>
       </c>
       <c r="B546" s="0" t="n">
-        <v>264200</v>
+        <v>271031</v>
       </c>
       <c r="C546" s="0" t="s">
         <v>1050</v>
@@ -14024,7 +14030,7 @@
         <v>1051</v>
       </c>
       <c r="B547" s="0" t="n">
-        <v>300530</v>
+        <v>264200</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>1052</v>
@@ -14038,7 +14044,7 @@
         <v>1053</v>
       </c>
       <c r="B548" s="0" t="n">
-        <v>320050</v>
+        <v>300530</v>
       </c>
       <c r="C548" s="0" t="s">
         <v>1054</v>
@@ -14052,7 +14058,7 @@
         <v>1055</v>
       </c>
       <c r="B549" s="0" t="n">
-        <v>264180</v>
+        <v>320050</v>
       </c>
       <c r="C549" s="0" t="s">
         <v>1056</v>
@@ -14066,7 +14072,7 @@
         <v>1057</v>
       </c>
       <c r="B550" s="0" t="n">
-        <v>264230</v>
+        <v>264180</v>
       </c>
       <c r="C550" s="0" t="s">
         <v>1058</v>
@@ -14077,27 +14083,27 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B551" s="0" t="s">
-        <v>4</v>
+        <v>1059</v>
+      </c>
+      <c r="B551" s="0" t="n">
+        <v>264230</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>4</v>
+        <v>1060</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B552" s="0" t="n">
-        <v>360030</v>
+        <v>4</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1061</v>
+        <v>4</v>
       </c>
       <c r="D552" s="0" t="s">
         <v>1061</v>
@@ -14108,7 +14114,7 @@
         <v>1062</v>
       </c>
       <c r="B553" s="0" t="n">
-        <v>355092</v>
+        <v>360030</v>
       </c>
       <c r="C553" s="0" t="s">
         <v>1063</v>
@@ -14119,27 +14125,27 @@
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B554" s="0" t="s">
-        <v>4</v>
+        <v>1064</v>
+      </c>
+      <c r="B554" s="0" t="n">
+        <v>355092</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>4</v>
+        <v>1065</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B555" s="0" t="n">
-        <v>211042</v>
+        <v>4</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1066</v>
+        <v>4</v>
       </c>
       <c r="D555" s="0" t="s">
         <v>1066</v>
@@ -14150,7 +14156,7 @@
         <v>1067</v>
       </c>
       <c r="B556" s="0" t="n">
-        <v>370030</v>
+        <v>211042</v>
       </c>
       <c r="C556" s="0" t="s">
         <v>1068</v>
@@ -14164,7 +14170,7 @@
         <v>1069</v>
       </c>
       <c r="B557" s="0" t="n">
-        <v>357110</v>
+        <v>370030</v>
       </c>
       <c r="C557" s="0" t="s">
         <v>1070</v>
@@ -14178,7 +14184,7 @@
         <v>1071</v>
       </c>
       <c r="B558" s="0" t="n">
-        <v>355110</v>
+        <v>357110</v>
       </c>
       <c r="C558" s="0" t="s">
         <v>1072</v>
@@ -14192,7 +14198,7 @@
         <v>1073</v>
       </c>
       <c r="B559" s="0" t="n">
-        <v>266100</v>
+        <v>355110</v>
       </c>
       <c r="C559" s="0" t="s">
         <v>1074</v>
@@ -14203,16 +14209,16 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B560" s="0" t="s">
-        <v>4</v>
+        <v>1075</v>
+      </c>
+      <c r="B560" s="0" t="n">
+        <v>266100</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>4</v>
+        <v>1076</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14226,18 +14232,18 @@
         <v>4</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B562" s="0" t="n">
-        <v>357064</v>
+        <v>4</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1078</v>
+        <v>4</v>
       </c>
       <c r="D562" s="0" t="s">
         <v>1078</v>
@@ -14248,7 +14254,7 @@
         <v>1079</v>
       </c>
       <c r="B563" s="0" t="n">
-        <v>305050</v>
+        <v>357064</v>
       </c>
       <c r="C563" s="0" t="s">
         <v>1080</v>
@@ -14259,27 +14265,27 @@
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B564" s="0" t="s">
-        <v>4</v>
+        <v>1081</v>
+      </c>
+      <c r="B564" s="0" t="n">
+        <v>305050</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>4</v>
+        <v>1082</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B565" s="0" t="n">
-        <v>222100</v>
+        <v>4</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1083</v>
+        <v>4</v>
       </c>
       <c r="D565" s="0" t="s">
         <v>1083</v>
@@ -14290,7 +14296,7 @@
         <v>1084</v>
       </c>
       <c r="B566" s="0" t="n">
-        <v>357100</v>
+        <v>222100</v>
       </c>
       <c r="C566" s="0" t="s">
         <v>1085</v>
@@ -14304,7 +14310,7 @@
         <v>1086</v>
       </c>
       <c r="B567" s="0" t="n">
-        <v>341094</v>
+        <v>357100</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>1087</v>
@@ -14318,7 +14324,7 @@
         <v>1088</v>
       </c>
       <c r="B568" s="0" t="n">
-        <v>341093</v>
+        <v>341094</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>1089</v>
@@ -14332,7 +14338,7 @@
         <v>1090</v>
       </c>
       <c r="B569" s="0" t="n">
-        <v>261111</v>
+        <v>341093</v>
       </c>
       <c r="C569" s="0" t="s">
         <v>1091</v>
@@ -14346,7 +14352,7 @@
         <v>1092</v>
       </c>
       <c r="B570" s="0" t="n">
-        <v>221111</v>
+        <v>261111</v>
       </c>
       <c r="C570" s="0" t="s">
         <v>1093</v>
@@ -14360,38 +14366,38 @@
         <v>1094</v>
       </c>
       <c r="B571" s="0" t="n">
-        <v>358056</v>
+        <v>221111</v>
       </c>
       <c r="C571" s="0" t="s">
         <v>1095</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B572" s="0" t="n">
+        <v>358056</v>
+      </c>
+      <c r="C572" s="0" t="s">
         <v>1097</v>
       </c>
-      <c r="B572" s="0" t="n">
-        <v>351040</v>
-      </c>
-      <c r="C572" s="0" t="s">
+      <c r="D572" s="0" t="s">
         <v>1098</v>
-      </c>
-      <c r="D572" s="0" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B573" s="0" t="n">
+        <v>351040</v>
+      </c>
+      <c r="C573" s="0" t="s">
         <v>1100</v>
-      </c>
-      <c r="B573" s="0" t="n">
-        <v>312150</v>
-      </c>
-      <c r="C573" s="0" t="s">
-        <v>1101</v>
       </c>
       <c r="D573" s="0" t="s">
         <v>1101</v>
@@ -14402,7 +14408,7 @@
         <v>1102</v>
       </c>
       <c r="B574" s="0" t="n">
-        <v>272070</v>
+        <v>312150</v>
       </c>
       <c r="C574" s="0" t="s">
         <v>1103</v>
@@ -14416,7 +14422,7 @@
         <v>1104</v>
       </c>
       <c r="B575" s="0" t="n">
-        <v>266110</v>
+        <v>272070</v>
       </c>
       <c r="C575" s="0" t="s">
         <v>1105</v>
@@ -14430,7 +14436,7 @@
         <v>1106</v>
       </c>
       <c r="B576" s="0" t="n">
-        <v>357021</v>
+        <v>266110</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>1107</v>
@@ -14444,7 +14450,7 @@
         <v>1108</v>
       </c>
       <c r="B577" s="0" t="n">
-        <v>271040</v>
+        <v>357021</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>1109</v>
@@ -14458,7 +14464,7 @@
         <v>1110</v>
       </c>
       <c r="B578" s="0" t="n">
-        <v>268070</v>
+        <v>271040</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>1111</v>
@@ -14472,7 +14478,7 @@
         <v>1112</v>
       </c>
       <c r="B579" s="0" t="n">
-        <v>311310</v>
+        <v>268070</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>1113</v>
@@ -14483,27 +14489,27 @@
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B580" s="0" t="s">
-        <v>4</v>
+        <v>1114</v>
+      </c>
+      <c r="B580" s="0" t="n">
+        <v>311310</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>4</v>
+        <v>1115</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B581" s="0" t="n">
-        <v>271071</v>
+        <v>4</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1116</v>
+        <v>4</v>
       </c>
       <c r="D581" s="0" t="s">
         <v>1116</v>
@@ -14514,7 +14520,7 @@
         <v>1117</v>
       </c>
       <c r="B582" s="0" t="n">
-        <v>273044</v>
+        <v>271071</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>1118</v>
@@ -14528,7 +14534,7 @@
         <v>1119</v>
       </c>
       <c r="B583" s="0" t="n">
-        <v>261121</v>
+        <v>273044</v>
       </c>
       <c r="C583" s="0" t="s">
         <v>1120</v>
@@ -14539,27 +14545,27 @@
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B584" s="0" t="s">
-        <v>4</v>
+        <v>1121</v>
+      </c>
+      <c r="B584" s="0" t="n">
+        <v>261121</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>4</v>
+        <v>1122</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B585" s="0" t="n">
-        <v>300290</v>
+        <v>4</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>1123</v>
+        <v>4</v>
       </c>
       <c r="D585" s="0" t="s">
         <v>1123</v>
@@ -14570,7 +14576,7 @@
         <v>1124</v>
       </c>
       <c r="B586" s="0" t="n">
-        <v>300140</v>
+        <v>300290</v>
       </c>
       <c r="C586" s="0" t="s">
         <v>1125</v>
@@ -14584,7 +14590,7 @@
         <v>1126</v>
       </c>
       <c r="B587" s="0" t="n">
-        <v>323150</v>
+        <v>300140</v>
       </c>
       <c r="C587" s="0" t="s">
         <v>1127</v>
@@ -14595,27 +14601,27 @@
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B588" s="0" t="s">
-        <v>4</v>
+        <v>1128</v>
+      </c>
+      <c r="B588" s="0" t="n">
+        <v>323150</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>4</v>
+        <v>1129</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B589" s="0" t="n">
-        <v>221127</v>
+        <v>4</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1130</v>
+        <v>4</v>
       </c>
       <c r="D589" s="0" t="s">
         <v>1130</v>
@@ -14626,7 +14632,7 @@
         <v>1131</v>
       </c>
       <c r="B590" s="0" t="n">
-        <v>221115</v>
+        <v>221127</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>1132</v>
@@ -14640,7 +14646,7 @@
         <v>1133</v>
       </c>
       <c r="B591" s="0" t="n">
-        <v>221122</v>
+        <v>221115</v>
       </c>
       <c r="C591" s="0" t="s">
         <v>1134</v>
@@ -14654,7 +14660,7 @@
         <v>1135</v>
       </c>
       <c r="B592" s="0" t="n">
-        <v>272030</v>
+        <v>221122</v>
       </c>
       <c r="C592" s="0" t="s">
         <v>1136</v>
@@ -14668,7 +14674,7 @@
         <v>1137</v>
       </c>
       <c r="B593" s="0" t="n">
-        <v>261140</v>
+        <v>272030</v>
       </c>
       <c r="C593" s="0" t="s">
         <v>1138</v>
@@ -14679,27 +14685,27 @@
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B594" s="0" t="s">
-        <v>4</v>
+        <v>1139</v>
+      </c>
+      <c r="B594" s="0" t="n">
+        <v>261140</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>4</v>
+        <v>1140</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B595" s="0" t="n">
-        <v>268062</v>
+        <v>4</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1141</v>
+        <v>4</v>
       </c>
       <c r="D595" s="0" t="s">
         <v>1141</v>
@@ -14710,7 +14716,7 @@
         <v>1142</v>
       </c>
       <c r="B596" s="0" t="n">
-        <v>273081</v>
+        <v>268062</v>
       </c>
       <c r="C596" s="0" t="s">
         <v>1143</v>
@@ -14724,7 +14730,7 @@
         <v>1144</v>
       </c>
       <c r="B597" s="0" t="n">
-        <v>327040</v>
+        <v>273081</v>
       </c>
       <c r="C597" s="0" t="s">
         <v>1145</v>
@@ -14738,7 +14744,7 @@
         <v>1146</v>
       </c>
       <c r="B598" s="0" t="n">
-        <v>241061</v>
+        <v>327040</v>
       </c>
       <c r="C598" s="0" t="s">
         <v>1147</v>
@@ -14752,7 +14758,7 @@
         <v>1148</v>
       </c>
       <c r="B599" s="0" t="n">
-        <v>222021</v>
+        <v>241061</v>
       </c>
       <c r="C599" s="0" t="s">
         <v>1149</v>
@@ -14766,7 +14772,7 @@
         <v>1150</v>
       </c>
       <c r="B600" s="0" t="n">
-        <v>313140</v>
+        <v>222021</v>
       </c>
       <c r="C600" s="0" t="s">
         <v>1151</v>
@@ -14777,27 +14783,27 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B601" s="0" t="s">
-        <v>4</v>
+        <v>1152</v>
+      </c>
+      <c r="B601" s="0" t="n">
+        <v>313140</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>4</v>
+        <v>1153</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B602" s="0" t="n">
-        <v>273031</v>
+        <v>4</v>
+      </c>
+      <c r="B602" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1154</v>
+        <v>4</v>
       </c>
       <c r="D602" s="0" t="s">
         <v>1154</v>
@@ -14808,7 +14814,7 @@
         <v>1155</v>
       </c>
       <c r="B603" s="0" t="n">
-        <v>344100</v>
+        <v>273031</v>
       </c>
       <c r="C603" s="0" t="s">
         <v>1156</v>
@@ -14822,7 +14828,7 @@
         <v>1157</v>
       </c>
       <c r="B604" s="0" t="n">
-        <v>341031</v>
+        <v>344100</v>
       </c>
       <c r="C604" s="0" t="s">
         <v>1158</v>
@@ -14836,7 +14842,7 @@
         <v>1159</v>
       </c>
       <c r="B605" s="0" t="n">
-        <v>300001</v>
+        <v>341031</v>
       </c>
       <c r="C605" s="0" t="s">
         <v>1160</v>
@@ -14847,27 +14853,27 @@
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B606" s="0" t="s">
-        <v>4</v>
+        <v>1161</v>
+      </c>
+      <c r="B606" s="0" t="n">
+        <v>300001</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>4</v>
+        <v>1162</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B607" s="0" t="n">
-        <v>221105</v>
+        <v>4</v>
+      </c>
+      <c r="B607" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1163</v>
+        <v>4</v>
       </c>
       <c r="D607" s="0" t="s">
         <v>1163</v>
@@ -14878,7 +14884,7 @@
         <v>1164</v>
       </c>
       <c r="B608" s="0" t="n">
-        <v>271020</v>
+        <v>221105</v>
       </c>
       <c r="C608" s="0" t="s">
         <v>1165</v>
@@ -14892,7 +14898,7 @@
         <v>1166</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>332030</v>
+        <v>271020</v>
       </c>
       <c r="C609" s="0" t="s">
         <v>1167</v>
@@ -14906,7 +14912,7 @@
         <v>1168</v>
       </c>
       <c r="B610" s="0" t="n">
-        <v>332020</v>
+        <v>332030</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>1169</v>
@@ -14920,7 +14926,7 @@
         <v>1170</v>
       </c>
       <c r="B611" s="0" t="n">
-        <v>273030</v>
+        <v>332020</v>
       </c>
       <c r="C611" s="0" t="s">
         <v>1171</v>
@@ -14934,7 +14940,7 @@
         <v>1172</v>
       </c>
       <c r="B612" s="0" t="n">
-        <v>241021</v>
+        <v>273030</v>
       </c>
       <c r="C612" s="0" t="s">
         <v>1173</v>
@@ -14948,7 +14954,7 @@
         <v>1174</v>
       </c>
       <c r="B613" s="0" t="n">
-        <v>320180</v>
+        <v>241021</v>
       </c>
       <c r="C613" s="0" t="s">
         <v>1175</v>
@@ -14962,7 +14968,7 @@
         <v>1176</v>
       </c>
       <c r="B614" s="0" t="n">
-        <v>323020</v>
+        <v>320180</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>1177</v>
@@ -14976,7 +14982,7 @@
         <v>1178</v>
       </c>
       <c r="B615" s="0" t="n">
-        <v>221330</v>
+        <v>323020</v>
       </c>
       <c r="C615" s="0" t="s">
         <v>1179</v>
@@ -14987,27 +14993,27 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B616" s="0" t="s">
-        <v>4</v>
+        <v>1180</v>
+      </c>
+      <c r="B616" s="0" t="n">
+        <v>221330</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>4</v>
+        <v>1181</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B617" s="0" t="n">
-        <v>225050</v>
+        <v>4</v>
+      </c>
+      <c r="B617" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1182</v>
+        <v>4</v>
       </c>
       <c r="D617" s="0" t="s">
         <v>1182</v>
@@ -15018,7 +15024,7 @@
         <v>1183</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>358052</v>
+        <v>225050</v>
       </c>
       <c r="C618" s="0" t="s">
         <v>1184</v>
@@ -15032,7 +15038,7 @@
         <v>1185</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>222060</v>
+        <v>358052</v>
       </c>
       <c r="C619" s="0" t="s">
         <v>1186</v>
@@ -15046,7 +15052,7 @@
         <v>1187</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>358054</v>
+        <v>222060</v>
       </c>
       <c r="C620" s="0" t="s">
         <v>1188</v>
@@ -15060,7 +15066,7 @@
         <v>1189</v>
       </c>
       <c r="B621" s="0" t="n">
-        <v>263250</v>
+        <v>358054</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>1190</v>
@@ -15074,7 +15080,7 @@
         <v>1191</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>263240</v>
+        <v>263250</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>1192</v>
@@ -15088,7 +15094,7 @@
         <v>1193</v>
       </c>
       <c r="B623" s="0" t="n">
-        <v>222160</v>
+        <v>263240</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>1194</v>
@@ -15102,7 +15108,7 @@
         <v>1195</v>
       </c>
       <c r="B624" s="0" t="n">
-        <v>212020</v>
+        <v>222160</v>
       </c>
       <c r="C624" s="0" t="s">
         <v>1196</v>
@@ -15116,24 +15122,24 @@
         <v>1197</v>
       </c>
       <c r="B625" s="0" t="n">
-        <v>358064</v>
+        <v>212020</v>
       </c>
       <c r="C625" s="0" t="s">
         <v>1198</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B626" s="0" t="n">
+        <v>358064</v>
+      </c>
+      <c r="C626" s="0" t="s">
         <v>1200</v>
-      </c>
-      <c r="B626" s="0" t="n">
-        <v>300570</v>
-      </c>
-      <c r="C626" s="0" t="s">
-        <v>1201</v>
       </c>
       <c r="D626" s="0" t="s">
         <v>1201</v>
@@ -15144,7 +15150,7 @@
         <v>1202</v>
       </c>
       <c r="B627" s="0" t="n">
-        <v>358040</v>
+        <v>300570</v>
       </c>
       <c r="C627" s="0" t="s">
         <v>1203</v>
@@ -15158,38 +15164,38 @@
         <v>1204</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>341060</v>
+        <v>358040</v>
       </c>
       <c r="C628" s="0" t="s">
         <v>1205</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B629" s="0" t="s">
-        <v>4</v>
+        <v>1206</v>
+      </c>
+      <c r="B629" s="0" t="n">
+        <v>341060</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>4</v>
+        <v>1207</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B630" s="0" t="n">
-        <v>303050</v>
+        <v>4</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1209</v>
+        <v>4</v>
       </c>
       <c r="D630" s="0" t="s">
         <v>1209</v>
@@ -15197,27 +15203,27 @@
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B631" s="0" t="s">
-        <v>4</v>
+        <v>1210</v>
+      </c>
+      <c r="B631" s="0" t="n">
+        <v>303050</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>4</v>
+        <v>1211</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B632" s="0" t="n">
-        <v>320120</v>
+        <v>4</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1212</v>
+        <v>4</v>
       </c>
       <c r="D632" s="0" t="s">
         <v>1212</v>
@@ -15228,7 +15234,7 @@
         <v>1213</v>
       </c>
       <c r="B633" s="0" t="n">
-        <v>290161</v>
+        <v>320120</v>
       </c>
       <c r="C633" s="0" t="s">
         <v>1214</v>
@@ -15242,7 +15248,7 @@
         <v>1215</v>
       </c>
       <c r="B634" s="0" t="n">
-        <v>212030</v>
+        <v>290161</v>
       </c>
       <c r="C634" s="0" t="s">
         <v>1216</v>
@@ -15256,24 +15262,24 @@
         <v>1217</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>355102</v>
+        <v>212030</v>
       </c>
       <c r="C635" s="0" t="s">
         <v>1218</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B636" s="0" t="n">
+        <v>355102</v>
+      </c>
+      <c r="C636" s="0" t="s">
         <v>1220</v>
-      </c>
-      <c r="B636" s="0" t="n">
-        <v>345030</v>
-      </c>
-      <c r="C636" s="0" t="s">
-        <v>1221</v>
       </c>
       <c r="D636" s="0" t="s">
         <v>1221</v>
@@ -15281,27 +15287,27 @@
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B637" s="0" t="s">
-        <v>4</v>
+        <v>1222</v>
+      </c>
+      <c r="B637" s="0" t="n">
+        <v>345030</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>4</v>
+        <v>1223</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B638" s="0" t="n">
-        <v>357130</v>
+        <v>4</v>
+      </c>
+      <c r="B638" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1224</v>
+        <v>4</v>
       </c>
       <c r="D638" s="0" t="s">
         <v>1224</v>
@@ -15312,24 +15318,24 @@
         <v>1225</v>
       </c>
       <c r="B639" s="0" t="n">
-        <v>290041</v>
+        <v>357130</v>
       </c>
       <c r="C639" s="0" t="s">
         <v>1226</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B640" s="0" t="n">
+        <v>290041</v>
+      </c>
+      <c r="C640" s="0" t="s">
         <v>1228</v>
-      </c>
-      <c r="B640" s="0" t="n">
-        <v>311111</v>
-      </c>
-      <c r="C640" s="0" t="s">
-        <v>1229</v>
       </c>
       <c r="D640" s="0" t="s">
         <v>1229</v>
@@ -15340,7 +15346,7 @@
         <v>1230</v>
       </c>
       <c r="B641" s="0" t="n">
-        <v>344110</v>
+        <v>311111</v>
       </c>
       <c r="C641" s="0" t="s">
         <v>1231</v>
@@ -15354,7 +15360,7 @@
         <v>1232</v>
       </c>
       <c r="B642" s="0" t="n">
-        <v>344090</v>
+        <v>344110</v>
       </c>
       <c r="C642" s="0" t="s">
         <v>1233</v>
@@ -15368,24 +15374,24 @@
         <v>1234</v>
       </c>
       <c r="B643" s="0" t="n">
-        <v>323120</v>
+        <v>344090</v>
       </c>
       <c r="C643" s="0" t="s">
         <v>1235</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B644" s="0" t="n">
+        <v>323120</v>
+      </c>
+      <c r="C644" s="0" t="s">
         <v>1237</v>
-      </c>
-      <c r="B644" s="0" t="n">
-        <v>323110</v>
-      </c>
-      <c r="C644" s="0" t="s">
-        <v>1238</v>
       </c>
       <c r="D644" s="0" t="s">
         <v>1238</v>
@@ -15396,7 +15402,7 @@
         <v>1239</v>
       </c>
       <c r="B645" s="0" t="n">
-        <v>358070</v>
+        <v>323110</v>
       </c>
       <c r="C645" s="0" t="s">
         <v>1240</v>
@@ -15410,7 +15416,7 @@
         <v>1241</v>
       </c>
       <c r="B646" s="0" t="n">
-        <v>360080</v>
+        <v>358070</v>
       </c>
       <c r="C646" s="0" t="s">
         <v>1242</v>
@@ -15424,7 +15430,7 @@
         <v>1243</v>
       </c>
       <c r="B647" s="0" t="n">
-        <v>360090</v>
+        <v>360080</v>
       </c>
       <c r="C647" s="0" t="s">
         <v>1244</v>
@@ -15438,7 +15444,7 @@
         <v>1245</v>
       </c>
       <c r="B648" s="0" t="n">
-        <v>268063</v>
+        <v>360090</v>
       </c>
       <c r="C648" s="0" t="s">
         <v>1246</v>
@@ -15452,38 +15458,38 @@
         <v>1247</v>
       </c>
       <c r="B649" s="0" t="n">
-        <v>221123</v>
+        <v>268063</v>
       </c>
       <c r="C649" s="0" t="s">
         <v>1248</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B650" s="0" t="n">
+        <v>221123</v>
+      </c>
+      <c r="C650" s="0" t="s">
         <v>1250</v>
       </c>
-      <c r="B650" s="0" t="n">
-        <v>290100</v>
-      </c>
-      <c r="C650" s="0" t="s">
+      <c r="D650" s="0" t="s">
         <v>1251</v>
-      </c>
-      <c r="D650" s="0" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B651" s="0" t="n">
+        <v>290100</v>
+      </c>
+      <c r="C651" s="0" t="s">
         <v>1253</v>
-      </c>
-      <c r="B651" s="0" t="n">
-        <v>342130</v>
-      </c>
-      <c r="C651" s="0" t="s">
-        <v>1254</v>
       </c>
       <c r="D651" s="0" t="s">
         <v>1254</v>
@@ -15494,7 +15500,7 @@
         <v>1255</v>
       </c>
       <c r="B652" s="0" t="n">
-        <v>223060</v>
+        <v>342130</v>
       </c>
       <c r="C652" s="0" t="s">
         <v>1256</v>
@@ -15505,27 +15511,27 @@
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B653" s="0" t="s">
-        <v>4</v>
+        <v>1257</v>
+      </c>
+      <c r="B653" s="0" t="n">
+        <v>223060</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>4</v>
+        <v>1258</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B654" s="0" t="n">
-        <v>263251</v>
+        <v>4</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1259</v>
+        <v>4</v>
       </c>
       <c r="D654" s="0" t="s">
         <v>1259</v>
@@ -15536,7 +15542,7 @@
         <v>1260</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>271070</v>
+        <v>263251</v>
       </c>
       <c r="C655" s="0" t="s">
         <v>1261</v>
@@ -15550,7 +15556,7 @@
         <v>1262</v>
       </c>
       <c r="B656" s="0" t="n">
-        <v>300060</v>
+        <v>271070</v>
       </c>
       <c r="C656" s="0" t="s">
         <v>1263</v>
@@ -15561,27 +15567,27 @@
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B657" s="0" t="s">
-        <v>4</v>
+        <v>1264</v>
+      </c>
+      <c r="B657" s="0" t="n">
+        <v>300060</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>4</v>
+        <v>1265</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B658" s="0" t="n">
-        <v>221101</v>
+        <v>4</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1266</v>
+        <v>4</v>
       </c>
       <c r="D658" s="0" t="s">
         <v>1266</v>
@@ -15589,27 +15595,27 @@
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B659" s="0" t="s">
-        <v>4</v>
+        <v>1267</v>
+      </c>
+      <c r="B659" s="0" t="n">
+        <v>221101</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>4</v>
+        <v>1268</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B660" s="0" t="n">
-        <v>222040</v>
+        <v>4</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1269</v>
+        <v>4</v>
       </c>
       <c r="D660" s="0" t="s">
         <v>1269</v>
@@ -15617,27 +15623,27 @@
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B661" s="0" t="s">
-        <v>4</v>
+        <v>1270</v>
+      </c>
+      <c r="B661" s="0" t="n">
+        <v>222040</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>4</v>
+        <v>1271</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B662" s="0" t="n">
-        <v>341095</v>
+        <v>4</v>
+      </c>
+      <c r="B662" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1272</v>
+        <v>4</v>
       </c>
       <c r="D662" s="0" t="s">
         <v>1272</v>
@@ -15645,16 +15651,16 @@
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B663" s="0" t="s">
-        <v>4</v>
+        <v>1273</v>
+      </c>
+      <c r="B663" s="0" t="n">
+        <v>341095</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>4</v>
+        <v>1274</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15668,18 +15674,18 @@
         <v>4</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B665" s="0" t="n">
-        <v>273082</v>
+        <v>4</v>
+      </c>
+      <c r="B665" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1276</v>
+        <v>4</v>
       </c>
       <c r="D665" s="0" t="s">
         <v>1276</v>
@@ -15690,7 +15696,7 @@
         <v>1277</v>
       </c>
       <c r="B666" s="0" t="n">
-        <v>320140</v>
+        <v>273082</v>
       </c>
       <c r="C666" s="0" t="s">
         <v>1278</v>
@@ -15704,7 +15710,7 @@
         <v>1279</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>344092</v>
+        <v>320140</v>
       </c>
       <c r="C667" s="0" t="s">
         <v>1280</v>
@@ -15718,7 +15724,7 @@
         <v>1281</v>
       </c>
       <c r="B668" s="0" t="n">
-        <v>213020</v>
+        <v>344092</v>
       </c>
       <c r="C668" s="0" t="s">
         <v>1282</v>
@@ -15732,7 +15738,7 @@
         <v>1283</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>354007</v>
+        <v>213020</v>
       </c>
       <c r="C669" s="0" t="s">
         <v>1284</v>
@@ -15746,7 +15752,7 @@
         <v>1285</v>
       </c>
       <c r="B670" s="0" t="n">
-        <v>355125</v>
+        <v>354007</v>
       </c>
       <c r="C670" s="0" t="s">
         <v>1286</v>
@@ -15760,7 +15766,7 @@
         <v>1287</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>351050</v>
+        <v>355125</v>
       </c>
       <c r="C671" s="0" t="s">
         <v>1288</v>
@@ -15774,24 +15780,24 @@
         <v>1289</v>
       </c>
       <c r="B672" s="0" t="n">
-        <v>357063</v>
+        <v>351050</v>
       </c>
       <c r="C672" s="0" t="s">
         <v>1290</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B673" s="0" t="n">
+        <v>357063</v>
+      </c>
+      <c r="C673" s="0" t="s">
         <v>1292</v>
-      </c>
-      <c r="B673" s="0" t="n">
-        <v>351020</v>
-      </c>
-      <c r="C673" s="0" t="s">
-        <v>1293</v>
       </c>
       <c r="D673" s="0" t="s">
         <v>1293</v>
@@ -15802,7 +15808,7 @@
         <v>1294</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>351030</v>
+        <v>351020</v>
       </c>
       <c r="C674" s="0" t="s">
         <v>1295</v>
@@ -15816,7 +15822,7 @@
         <v>1296</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>341070</v>
+        <v>351030</v>
       </c>
       <c r="C675" s="0" t="s">
         <v>1297</v>
@@ -15830,7 +15836,7 @@
         <v>1298</v>
       </c>
       <c r="B676" s="0" t="n">
-        <v>354060</v>
+        <v>341070</v>
       </c>
       <c r="C676" s="0" t="s">
         <v>1299</v>
@@ -15844,7 +15850,7 @@
         <v>1300</v>
       </c>
       <c r="B677" s="0" t="n">
-        <v>357079</v>
+        <v>354060</v>
       </c>
       <c r="C677" s="0" t="s">
         <v>1301</v>
@@ -15858,7 +15864,7 @@
         <v>1302</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>355130</v>
+        <v>357079</v>
       </c>
       <c r="C678" s="0" t="s">
         <v>1303</v>
@@ -15872,7 +15878,7 @@
         <v>1304</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>360040</v>
+        <v>355130</v>
       </c>
       <c r="C679" s="0" t="s">
         <v>1305</v>
@@ -15886,7 +15892,7 @@
         <v>1306</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>322110</v>
+        <v>360040</v>
       </c>
       <c r="C680" s="0" t="s">
         <v>1307</v>
@@ -15900,7 +15906,7 @@
         <v>1308</v>
       </c>
       <c r="B681" s="0" t="n">
-        <v>222164</v>
+        <v>322110</v>
       </c>
       <c r="C681" s="0" t="s">
         <v>1309</v>
@@ -15911,16 +15917,16 @@
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B682" s="0" t="s">
-        <v>4</v>
+        <v>1310</v>
+      </c>
+      <c r="B682" s="0" t="n">
+        <v>222164</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>4</v>
+        <v>1311</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15934,7 +15940,7 @@
         <v>4</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15948,7 +15954,7 @@
         <v>4</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15962,18 +15968,18 @@
         <v>4</v>
       </c>
       <c r="D685" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B686" s="0" t="n">
-        <v>290060</v>
+        <v>4</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1315</v>
+        <v>4</v>
       </c>
       <c r="D686" s="0" t="s">
         <v>1315</v>
@@ -15984,7 +15990,7 @@
         <v>1316</v>
       </c>
       <c r="B687" s="0" t="n">
-        <v>212050</v>
+        <v>290060</v>
       </c>
       <c r="C687" s="0" t="s">
         <v>1317</v>
@@ -15995,27 +16001,27 @@
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B688" s="0" t="s">
-        <v>4</v>
+        <v>1318</v>
+      </c>
+      <c r="B688" s="0" t="n">
+        <v>212050</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>4</v>
+        <v>1319</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B689" s="0" t="n">
-        <v>222001</v>
+        <v>4</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1320</v>
+        <v>4</v>
       </c>
       <c r="D689" s="0" t="s">
         <v>1320</v>
@@ -16026,7 +16032,7 @@
         <v>1321</v>
       </c>
       <c r="B690" s="0" t="n">
-        <v>312180</v>
+        <v>222001</v>
       </c>
       <c r="C690" s="0" t="s">
         <v>1322</v>
@@ -16037,27 +16043,27 @@
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B691" s="0" t="s">
-        <v>4</v>
+        <v>1323</v>
+      </c>
+      <c r="B691" s="0" t="n">
+        <v>312180</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>4</v>
+        <v>1324</v>
       </c>
       <c r="D691" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B692" s="0" t="n">
-        <v>222056</v>
+        <v>4</v>
+      </c>
+      <c r="B692" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1325</v>
+        <v>4</v>
       </c>
       <c r="D692" s="0" t="s">
         <v>1325</v>
@@ -16068,7 +16074,7 @@
         <v>1326</v>
       </c>
       <c r="B693" s="0" t="n">
-        <v>223020</v>
+        <v>222056</v>
       </c>
       <c r="C693" s="0" t="s">
         <v>1327</v>
@@ -16082,7 +16088,7 @@
         <v>1328</v>
       </c>
       <c r="B694" s="0" t="n">
-        <v>223030</v>
+        <v>223020</v>
       </c>
       <c r="C694" s="0" t="s">
         <v>1329</v>
@@ -16096,7 +16102,7 @@
         <v>1330</v>
       </c>
       <c r="B695" s="0" t="n">
-        <v>300650</v>
+        <v>223030</v>
       </c>
       <c r="C695" s="0" t="s">
         <v>1331</v>
@@ -16109,45 +16115,45 @@
       <c r="A696" s="0" t="s">
         <v>1332</v>
       </c>
-      <c r="B696" s="0" t="s">
+      <c r="B696" s="0" t="n">
+        <v>300650</v>
+      </c>
+      <c r="C696" s="0" t="s">
         <v>1333</v>
       </c>
-      <c r="C696" s="0" t="n">
-        <v>221280</v>
-      </c>
       <c r="D696" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E696" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="F696" s="0" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B697" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C697" s="0" t="n">
+        <v>221280</v>
+      </c>
+      <c r="D697" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E697" s="0" t="s">
         <v>1337</v>
       </c>
-      <c r="B697" s="0" t="n">
-        <v>290072</v>
-      </c>
-      <c r="C697" s="0" t="s">
+      <c r="F697" s="0" t="s">
         <v>1338</v>
-      </c>
-      <c r="D697" s="0" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B698" s="0" t="n">
+        <v>290072</v>
+      </c>
+      <c r="C698" s="0" t="s">
         <v>1340</v>
-      </c>
-      <c r="B698" s="0" t="n">
-        <v>241050</v>
-      </c>
-      <c r="C698" s="0" t="s">
-        <v>1341</v>
       </c>
       <c r="D698" s="0" t="s">
         <v>1341</v>
@@ -16155,27 +16161,27 @@
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B699" s="0" t="s">
-        <v>4</v>
+        <v>1342</v>
+      </c>
+      <c r="B699" s="0" t="n">
+        <v>241050</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>4</v>
+        <v>1343</v>
       </c>
       <c r="D699" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B700" s="0" t="n">
-        <v>311290</v>
+        <v>4</v>
+      </c>
+      <c r="B700" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>1344</v>
+        <v>4</v>
       </c>
       <c r="D700" s="0" t="s">
         <v>1344</v>
@@ -16186,7 +16192,7 @@
         <v>1345</v>
       </c>
       <c r="B701" s="0" t="n">
-        <v>224030</v>
+        <v>311290</v>
       </c>
       <c r="C701" s="0" t="s">
         <v>1346</v>
@@ -16200,7 +16206,7 @@
         <v>1347</v>
       </c>
       <c r="B702" s="0" t="n">
-        <v>355050</v>
+        <v>224030</v>
       </c>
       <c r="C702" s="0" t="s">
         <v>1348</v>
@@ -16214,7 +16220,7 @@
         <v>1349</v>
       </c>
       <c r="B703" s="0" t="n">
-        <v>222080</v>
+        <v>355050</v>
       </c>
       <c r="C703" s="0" t="s">
         <v>1350</v>
@@ -16228,7 +16234,7 @@
         <v>1351</v>
       </c>
       <c r="B704" s="0" t="n">
-        <v>222120</v>
+        <v>222080</v>
       </c>
       <c r="C704" s="0" t="s">
         <v>1352</v>
@@ -16242,7 +16248,7 @@
         <v>1353</v>
       </c>
       <c r="B705" s="0" t="n">
-        <v>222090</v>
+        <v>222120</v>
       </c>
       <c r="C705" s="0" t="s">
         <v>1354</v>
@@ -16256,7 +16262,7 @@
         <v>1355</v>
       </c>
       <c r="B706" s="0" t="n">
-        <v>222055</v>
+        <v>222090</v>
       </c>
       <c r="C706" s="0" t="s">
         <v>1356</v>
@@ -16270,7 +16276,7 @@
         <v>1357</v>
       </c>
       <c r="B707" s="0" t="n">
-        <v>300052</v>
+        <v>222055</v>
       </c>
       <c r="C707" s="0" t="s">
         <v>1358</v>
@@ -16284,24 +16290,24 @@
         <v>1359</v>
       </c>
       <c r="B708" s="0" t="n">
-        <v>355060</v>
+        <v>300052</v>
       </c>
       <c r="C708" s="0" t="s">
         <v>1360</v>
       </c>
       <c r="D708" s="0" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B709" s="0" t="n">
+        <v>355060</v>
+      </c>
+      <c r="C709" s="0" t="s">
         <v>1362</v>
-      </c>
-      <c r="B709" s="0" t="n">
-        <v>210030</v>
-      </c>
-      <c r="C709" s="0" t="s">
-        <v>1363</v>
       </c>
       <c r="D709" s="0" t="s">
         <v>1363</v>
@@ -16309,16 +16315,16 @@
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B710" s="0" t="s">
-        <v>4</v>
+        <v>1364</v>
+      </c>
+      <c r="B710" s="0" t="n">
+        <v>210030</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>4</v>
+        <v>1365</v>
       </c>
       <c r="D710" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16332,18 +16338,18 @@
         <v>4</v>
       </c>
       <c r="D711" s="0" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B712" s="0" t="n">
-        <v>300080</v>
+        <v>4</v>
+      </c>
+      <c r="B712" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>1367</v>
+        <v>4</v>
       </c>
       <c r="D712" s="0" t="s">
         <v>1367</v>
@@ -16354,7 +16360,7 @@
         <v>1368</v>
       </c>
       <c r="B713" s="0" t="n">
-        <v>374010</v>
+        <v>300080</v>
       </c>
       <c r="C713" s="0" t="s">
         <v>1369</v>
@@ -16368,27 +16374,27 @@
         <v>1370</v>
       </c>
       <c r="B714" s="0" t="n">
-        <v>345010</v>
+        <v>374010</v>
       </c>
       <c r="C714" s="0" t="s">
         <v>1371</v>
       </c>
       <c r="D714" s="0" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B715" s="0" t="s">
-        <v>4</v>
+        <v>1372</v>
+      </c>
+      <c r="B715" s="0" t="n">
+        <v>345010</v>
       </c>
       <c r="C715" s="0" t="s">
-        <v>4</v>
+        <v>1373</v>
       </c>
       <c r="D715" s="0" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16402,18 +16408,18 @@
         <v>4</v>
       </c>
       <c r="D716" s="0" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B717" s="0" t="n">
-        <v>358010</v>
+        <v>4</v>
+      </c>
+      <c r="B717" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C717" s="0" t="s">
-        <v>1376</v>
+        <v>4</v>
       </c>
       <c r="D717" s="0" t="s">
         <v>1376</v>
@@ -16424,7 +16430,7 @@
         <v>1377</v>
       </c>
       <c r="B718" s="0" t="n">
-        <v>300055</v>
+        <v>358010</v>
       </c>
       <c r="C718" s="0" t="s">
         <v>1378</v>
@@ -16438,7 +16444,7 @@
         <v>1379</v>
       </c>
       <c r="B719" s="0" t="n">
-        <v>300680</v>
+        <v>300055</v>
       </c>
       <c r="C719" s="0" t="s">
         <v>1380</v>
@@ -16452,7 +16458,7 @@
         <v>1381</v>
       </c>
       <c r="B720" s="0" t="n">
-        <v>300056</v>
+        <v>300680</v>
       </c>
       <c r="C720" s="0" t="s">
         <v>1382</v>
@@ -16466,7 +16472,7 @@
         <v>1383</v>
       </c>
       <c r="B721" s="0" t="n">
-        <v>300051</v>
+        <v>300056</v>
       </c>
       <c r="C721" s="0" t="s">
         <v>1384</v>
@@ -16480,7 +16486,7 @@
         <v>1385</v>
       </c>
       <c r="B722" s="0" t="n">
-        <v>342110</v>
+        <v>300051</v>
       </c>
       <c r="C722" s="0" t="s">
         <v>1386</v>
@@ -16494,7 +16500,7 @@
         <v>1387</v>
       </c>
       <c r="B723" s="0" t="n">
-        <v>222053</v>
+        <v>342110</v>
       </c>
       <c r="C723" s="0" t="s">
         <v>1388</v>
@@ -16508,7 +16514,7 @@
         <v>1389</v>
       </c>
       <c r="B724" s="0" t="n">
-        <v>357022</v>
+        <v>222053</v>
       </c>
       <c r="C724" s="0" t="s">
         <v>1390</v>
@@ -16522,7 +16528,7 @@
         <v>1391</v>
       </c>
       <c r="B725" s="0" t="n">
-        <v>264150</v>
+        <v>357022</v>
       </c>
       <c r="C725" s="0" t="s">
         <v>1392</v>
@@ -16536,7 +16542,7 @@
         <v>1393</v>
       </c>
       <c r="B726" s="0" t="n">
-        <v>355042</v>
+        <v>264150</v>
       </c>
       <c r="C726" s="0" t="s">
         <v>1394</v>
@@ -16550,7 +16556,7 @@
         <v>1395</v>
       </c>
       <c r="B727" s="0" t="n">
-        <v>211041</v>
+        <v>355042</v>
       </c>
       <c r="C727" s="0" t="s">
         <v>1396</v>
@@ -16564,7 +16570,7 @@
         <v>1397</v>
       </c>
       <c r="B728" s="0" t="n">
-        <v>211071</v>
+        <v>211041</v>
       </c>
       <c r="C728" s="0" t="s">
         <v>1398</v>
@@ -16578,7 +16584,7 @@
         <v>1399</v>
       </c>
       <c r="B729" s="0" t="n">
-        <v>263100</v>
+        <v>211071</v>
       </c>
       <c r="C729" s="0" t="s">
         <v>1400</v>
@@ -16592,7 +16598,7 @@
         <v>1401</v>
       </c>
       <c r="B730" s="0" t="n">
-        <v>341081</v>
+        <v>263100</v>
       </c>
       <c r="C730" s="0" t="s">
         <v>1402</v>
@@ -16606,7 +16612,7 @@
         <v>1403</v>
       </c>
       <c r="B731" s="0" t="n">
-        <v>355012</v>
+        <v>341081</v>
       </c>
       <c r="C731" s="0" t="s">
         <v>1404</v>
@@ -16620,7 +16626,7 @@
         <v>1405</v>
       </c>
       <c r="B732" s="0" t="n">
-        <v>271011</v>
+        <v>355012</v>
       </c>
       <c r="C732" s="0" t="s">
         <v>1406</v>
@@ -16634,7 +16640,7 @@
         <v>1407</v>
       </c>
       <c r="B733" s="0" t="n">
-        <v>261231</v>
+        <v>271011</v>
       </c>
       <c r="C733" s="0" t="s">
         <v>1408</v>
@@ -16648,7 +16654,7 @@
         <v>1409</v>
       </c>
       <c r="B734" s="0" t="n">
-        <v>273087</v>
+        <v>261231</v>
       </c>
       <c r="C734" s="0" t="s">
         <v>1410</v>
@@ -16662,7 +16668,7 @@
         <v>1411</v>
       </c>
       <c r="B735" s="0" t="n">
-        <v>263070</v>
+        <v>273087</v>
       </c>
       <c r="C735" s="0" t="s">
         <v>1412</v>
@@ -16676,24 +16682,24 @@
         <v>1413</v>
       </c>
       <c r="B736" s="0" t="n">
-        <v>357066</v>
+        <v>263070</v>
       </c>
       <c r="C736" s="0" t="s">
         <v>1414</v>
       </c>
       <c r="D736" s="0" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B737" s="0" t="n">
+        <v>357066</v>
+      </c>
+      <c r="C737" s="0" t="s">
         <v>1416</v>
-      </c>
-      <c r="B737" s="0" t="n">
-        <v>355200</v>
-      </c>
-      <c r="C737" s="0" t="s">
-        <v>1417</v>
       </c>
       <c r="D737" s="0" t="s">
         <v>1417</v>
@@ -16704,7 +16710,7 @@
         <v>1418</v>
       </c>
       <c r="B738" s="0" t="n">
-        <v>263291</v>
+        <v>355200</v>
       </c>
       <c r="C738" s="0" t="s">
         <v>1419</v>
@@ -16718,7 +16724,7 @@
         <v>1420</v>
       </c>
       <c r="B739" s="0" t="n">
-        <v>263040</v>
+        <v>263291</v>
       </c>
       <c r="C739" s="0" t="s">
         <v>1421</v>
@@ -16732,7 +16738,7 @@
         <v>1422</v>
       </c>
       <c r="B740" s="0" t="n">
-        <v>261030</v>
+        <v>263040</v>
       </c>
       <c r="C740" s="0" t="s">
         <v>1423</v>
@@ -16746,7 +16752,7 @@
         <v>1424</v>
       </c>
       <c r="B741" s="0" t="n">
-        <v>382020</v>
+        <v>261030</v>
       </c>
       <c r="C741" s="0" t="s">
         <v>1425</v>
@@ -16760,7 +16766,7 @@
         <v>1426</v>
       </c>
       <c r="B742" s="0" t="n">
-        <v>341100</v>
+        <v>382020</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>1427</v>
@@ -16774,7 +16780,7 @@
         <v>1428</v>
       </c>
       <c r="B743" s="0" t="n">
-        <v>341001</v>
+        <v>341100</v>
       </c>
       <c r="C743" s="0" t="s">
         <v>1429</v>
@@ -16788,7 +16794,7 @@
         <v>1430</v>
       </c>
       <c r="B744" s="0" t="n">
-        <v>273083</v>
+        <v>341001</v>
       </c>
       <c r="C744" s="0" t="s">
         <v>1431</v>
@@ -16802,7 +16808,7 @@
         <v>1432</v>
       </c>
       <c r="B745" s="0" t="n">
-        <v>300054</v>
+        <v>273083</v>
       </c>
       <c r="C745" s="0" t="s">
         <v>1433</v>
@@ -16816,24 +16822,24 @@
         <v>1434</v>
       </c>
       <c r="B746" s="0" t="n">
-        <v>357040</v>
+        <v>300054</v>
       </c>
       <c r="C746" s="0" t="s">
         <v>1435</v>
       </c>
       <c r="D746" s="0" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B747" s="0" t="n">
+        <v>357040</v>
+      </c>
+      <c r="C747" s="0" t="s">
         <v>1437</v>
-      </c>
-      <c r="B747" s="0" t="n">
-        <v>345034</v>
-      </c>
-      <c r="C747" s="0" t="s">
-        <v>1438</v>
       </c>
       <c r="D747" s="0" t="s">
         <v>1438</v>
@@ -16844,7 +16850,7 @@
         <v>1439</v>
       </c>
       <c r="B748" s="0" t="n">
-        <v>300310</v>
+        <v>345034</v>
       </c>
       <c r="C748" s="0" t="s">
         <v>1440</v>
@@ -16858,7 +16864,7 @@
         <v>1441</v>
       </c>
       <c r="B749" s="0" t="n">
-        <v>345040</v>
+        <v>300310</v>
       </c>
       <c r="C749" s="0" t="s">
         <v>1442</v>
@@ -16872,13 +16878,13 @@
         <v>1443</v>
       </c>
       <c r="B750" s="0" t="n">
-        <v>345050</v>
+        <v>345040</v>
       </c>
       <c r="C750" s="0" t="s">
         <v>1444</v>
       </c>
       <c r="D750" s="0" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16886,38 +16892,38 @@
         <v>1445</v>
       </c>
       <c r="B751" s="0" t="n">
-        <v>273020</v>
+        <v>345050</v>
       </c>
       <c r="C751" s="0" t="s">
         <v>1446</v>
       </c>
       <c r="D751" s="0" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B752" s="0" t="s">
-        <v>4</v>
+        <v>1447</v>
+      </c>
+      <c r="B752" s="0" t="n">
+        <v>273020</v>
       </c>
       <c r="C752" s="0" t="s">
-        <v>4</v>
+        <v>1448</v>
       </c>
       <c r="D752" s="0" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B753" s="0" t="n">
-        <v>300470</v>
+        <v>4</v>
+      </c>
+      <c r="B753" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C753" s="0" t="s">
-        <v>1449</v>
+        <v>4</v>
       </c>
       <c r="D753" s="0" t="s">
         <v>1449</v>
@@ -16928,24 +16934,24 @@
         <v>1450</v>
       </c>
       <c r="B754" s="0" t="n">
-        <v>341090</v>
+        <v>300470</v>
       </c>
       <c r="C754" s="0" t="s">
         <v>1451</v>
       </c>
       <c r="D754" s="0" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B755" s="0" t="n">
+        <v>341090</v>
+      </c>
+      <c r="C755" s="0" t="s">
         <v>1453</v>
-      </c>
-      <c r="B755" s="0" t="n">
-        <v>214090</v>
-      </c>
-      <c r="C755" s="0" t="s">
-        <v>1454</v>
       </c>
       <c r="D755" s="0" t="s">
         <v>1454</v>
@@ -16956,7 +16962,7 @@
         <v>1455</v>
       </c>
       <c r="B756" s="0" t="n">
-        <v>371070</v>
+        <v>214090</v>
       </c>
       <c r="C756" s="0" t="s">
         <v>1456</v>
@@ -16970,7 +16976,7 @@
         <v>1457</v>
       </c>
       <c r="B757" s="0" t="n">
-        <v>290190</v>
+        <v>371070</v>
       </c>
       <c r="C757" s="0" t="s">
         <v>1458</v>
@@ -16984,7 +16990,7 @@
         <v>1459</v>
       </c>
       <c r="B758" s="0" t="n">
-        <v>355107</v>
+        <v>290190</v>
       </c>
       <c r="C758" s="0" t="s">
         <v>1460</v>
@@ -16998,7 +17004,7 @@
         <v>1461</v>
       </c>
       <c r="B759" s="0" t="n">
-        <v>263010</v>
+        <v>355107</v>
       </c>
       <c r="C759" s="0" t="s">
         <v>1462</v>
@@ -17012,7 +17018,7 @@
         <v>1463</v>
       </c>
       <c r="B760" s="0" t="n">
-        <v>352011</v>
+        <v>263010</v>
       </c>
       <c r="C760" s="0" t="s">
         <v>1464</v>
@@ -17026,38 +17032,38 @@
         <v>1465</v>
       </c>
       <c r="B761" s="0" t="n">
-        <v>357160</v>
+        <v>352011</v>
       </c>
       <c r="C761" s="0" t="s">
         <v>1466</v>
       </c>
       <c r="D761" s="0" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B762" s="0" t="n">
+        <v>357160</v>
+      </c>
+      <c r="C762" s="0" t="s">
         <v>1468</v>
       </c>
-      <c r="B762" s="0" t="n">
-        <v>351060</v>
-      </c>
-      <c r="C762" s="0" t="s">
+      <c r="D762" s="0" t="s">
         <v>1469</v>
-      </c>
-      <c r="D762" s="0" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B763" s="0" t="n">
+        <v>351060</v>
+      </c>
+      <c r="C763" s="0" t="s">
         <v>1471</v>
-      </c>
-      <c r="B763" s="0" t="n">
-        <v>355094</v>
-      </c>
-      <c r="C763" s="0" t="s">
-        <v>1472</v>
       </c>
       <c r="D763" s="0" t="s">
         <v>1472</v>
@@ -17068,7 +17074,7 @@
         <v>1473</v>
       </c>
       <c r="B764" s="0" t="n">
-        <v>355090</v>
+        <v>355094</v>
       </c>
       <c r="C764" s="0" t="s">
         <v>1474</v>
@@ -17082,24 +17088,24 @@
         <v>1475</v>
       </c>
       <c r="B765" s="0" t="n">
-        <v>357150</v>
+        <v>355090</v>
       </c>
       <c r="C765" s="0" t="s">
         <v>1476</v>
       </c>
       <c r="D765" s="0" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B766" s="0" t="n">
+        <v>357150</v>
+      </c>
+      <c r="C766" s="0" t="s">
         <v>1478</v>
-      </c>
-      <c r="B766" s="0" t="n">
-        <v>358053</v>
-      </c>
-      <c r="C766" s="0" t="s">
-        <v>1479</v>
       </c>
       <c r="D766" s="0" t="s">
         <v>1479</v>
@@ -17110,7 +17116,7 @@
         <v>1480</v>
       </c>
       <c r="B767" s="0" t="n">
-        <v>360140</v>
+        <v>358053</v>
       </c>
       <c r="C767" s="0" t="s">
         <v>1481</v>
@@ -17124,7 +17130,7 @@
         <v>1482</v>
       </c>
       <c r="B768" s="0" t="n">
-        <v>357121</v>
+        <v>360140</v>
       </c>
       <c r="C768" s="0" t="s">
         <v>1483</v>
@@ -17138,7 +17144,7 @@
         <v>1484</v>
       </c>
       <c r="B769" s="0" t="n">
-        <v>342210</v>
+        <v>357121</v>
       </c>
       <c r="C769" s="0" t="s">
         <v>1485</v>
@@ -17152,7 +17158,7 @@
         <v>1486</v>
       </c>
       <c r="B770" s="0" t="n">
-        <v>352060</v>
+        <v>342210</v>
       </c>
       <c r="C770" s="0" t="s">
         <v>1487</v>
@@ -17166,7 +17172,7 @@
         <v>1488</v>
       </c>
       <c r="B771" s="0" t="n">
-        <v>354000</v>
+        <v>352060</v>
       </c>
       <c r="C771" s="0" t="s">
         <v>1489</v>
@@ -17177,27 +17183,27 @@
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B772" s="0" t="s">
-        <v>4</v>
+        <v>1490</v>
+      </c>
+      <c r="B772" s="0" t="n">
+        <v>354000</v>
       </c>
       <c r="C772" s="0" t="s">
-        <v>4</v>
+        <v>1491</v>
       </c>
       <c r="D772" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B773" s="0" t="n">
-        <v>271060</v>
+        <v>4</v>
+      </c>
+      <c r="B773" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C773" s="0" t="s">
-        <v>1492</v>
+        <v>4</v>
       </c>
       <c r="D773" s="0" t="s">
         <v>1492</v>
@@ -17208,7 +17214,7 @@
         <v>1493</v>
       </c>
       <c r="B774" s="0" t="n">
-        <v>321030</v>
+        <v>271060</v>
       </c>
       <c r="C774" s="0" t="s">
         <v>1494</v>
@@ -17222,7 +17228,7 @@
         <v>1495</v>
       </c>
       <c r="B775" s="0" t="n">
-        <v>261290</v>
+        <v>321030</v>
       </c>
       <c r="C775" s="0" t="s">
         <v>1496</v>
@@ -17236,24 +17242,24 @@
         <v>1497</v>
       </c>
       <c r="B776" s="0" t="n">
-        <v>290110</v>
+        <v>261290</v>
       </c>
       <c r="C776" s="0" t="s">
         <v>1498</v>
       </c>
       <c r="D776" s="0" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B777" s="0" t="n">
+        <v>290110</v>
+      </c>
+      <c r="C777" s="0" t="s">
         <v>1500</v>
-      </c>
-      <c r="B777" s="0" t="n">
-        <v>264071</v>
-      </c>
-      <c r="C777" s="0" t="s">
-        <v>1501</v>
       </c>
       <c r="D777" s="0" t="s">
         <v>1501</v>
@@ -17264,7 +17270,7 @@
         <v>1502</v>
       </c>
       <c r="B778" s="0" t="n">
-        <v>261251</v>
+        <v>264071</v>
       </c>
       <c r="C778" s="0" t="s">
         <v>1503</v>
@@ -17278,7 +17284,7 @@
         <v>1504</v>
       </c>
       <c r="B779" s="0" t="n">
-        <v>263340</v>
+        <v>261251</v>
       </c>
       <c r="C779" s="0" t="s">
         <v>1505</v>
@@ -17289,41 +17295,41 @@
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B780" s="0" t="s">
-        <v>4</v>
+        <v>1506</v>
+      </c>
+      <c r="B780" s="0" t="n">
+        <v>263340</v>
       </c>
       <c r="C780" s="0" t="s">
-        <v>4</v>
+        <v>1507</v>
       </c>
       <c r="D780" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B781" s="0" t="n">
-        <v>2290020</v>
+        <v>4</v>
+      </c>
+      <c r="B781" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C781" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D781" s="0" t="s">
         <v>1508</v>
-      </c>
-      <c r="D781" s="0" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B782" s="0" t="n">
+        <v>2290020</v>
+      </c>
+      <c r="C782" s="0" t="s">
         <v>1510</v>
-      </c>
-      <c r="B782" s="0" t="n">
-        <v>358063</v>
-      </c>
-      <c r="C782" s="0" t="s">
-        <v>1511</v>
       </c>
       <c r="D782" s="0" t="s">
         <v>1511</v>
@@ -17331,27 +17337,27 @@
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B783" s="0" t="s">
-        <v>4</v>
+        <v>1512</v>
+      </c>
+      <c r="B783" s="0" t="n">
+        <v>358063</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>4</v>
+        <v>1513</v>
       </c>
       <c r="D783" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B784" s="0" t="n">
-        <v>241040</v>
+        <v>4</v>
+      </c>
+      <c r="B784" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C784" s="0" t="s">
-        <v>1514</v>
+        <v>4</v>
       </c>
       <c r="D784" s="0" t="s">
         <v>1514</v>
@@ -17362,7 +17368,7 @@
         <v>1515</v>
       </c>
       <c r="B785" s="0" t="n">
-        <v>357065</v>
+        <v>241040</v>
       </c>
       <c r="C785" s="0" t="s">
         <v>1516</v>
@@ -17376,7 +17382,7 @@
         <v>1517</v>
       </c>
       <c r="B786" s="0" t="n">
-        <v>352010</v>
+        <v>357065</v>
       </c>
       <c r="C786" s="0" t="s">
         <v>1518</v>
@@ -17390,7 +17396,7 @@
         <v>1519</v>
       </c>
       <c r="B787" s="0" t="n">
-        <v>371020</v>
+        <v>352010</v>
       </c>
       <c r="C787" s="0" t="s">
         <v>1520</v>
@@ -17404,7 +17410,7 @@
         <v>1521</v>
       </c>
       <c r="B788" s="0" t="n">
-        <v>266040</v>
+        <v>371020</v>
       </c>
       <c r="C788" s="0" t="s">
         <v>1522</v>
@@ -17418,24 +17424,24 @@
         <v>1523</v>
       </c>
       <c r="B789" s="0" t="n">
-        <v>345020</v>
+        <v>266040</v>
       </c>
       <c r="C789" s="0" t="s">
         <v>1524</v>
       </c>
       <c r="D789" s="0" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B790" s="0" t="n">
+        <v>345020</v>
+      </c>
+      <c r="C790" s="0" t="s">
         <v>1526</v>
-      </c>
-      <c r="B790" s="0" t="n">
-        <v>264030</v>
-      </c>
-      <c r="C790" s="0" t="s">
-        <v>1527</v>
       </c>
       <c r="D790" s="0" t="s">
         <v>1527</v>
@@ -17446,7 +17452,7 @@
         <v>1528</v>
       </c>
       <c r="B791" s="0" t="n">
-        <v>357024</v>
+        <v>264030</v>
       </c>
       <c r="C791" s="0" t="s">
         <v>1529</v>
@@ -17457,27 +17463,27 @@
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B792" s="0" t="s">
-        <v>4</v>
+        <v>1530</v>
+      </c>
+      <c r="B792" s="0" t="n">
+        <v>357024</v>
       </c>
       <c r="C792" s="0" t="s">
-        <v>4</v>
+        <v>1531</v>
       </c>
       <c r="D792" s="0" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B793" s="0" t="n">
-        <v>300340</v>
+        <v>4</v>
+      </c>
+      <c r="B793" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>1532</v>
+        <v>4</v>
       </c>
       <c r="D793" s="0" t="s">
         <v>1532</v>
@@ -17488,7 +17494,7 @@
         <v>1533</v>
       </c>
       <c r="B794" s="0" t="n">
-        <v>351011</v>
+        <v>300340</v>
       </c>
       <c r="C794" s="0" t="s">
         <v>1534</v>
@@ -17502,7 +17508,7 @@
         <v>1535</v>
       </c>
       <c r="B795" s="0" t="n">
-        <v>344060</v>
+        <v>351011</v>
       </c>
       <c r="C795" s="0" t="s">
         <v>1536</v>
@@ -17516,7 +17522,7 @@
         <v>1537</v>
       </c>
       <c r="B796" s="0" t="n">
-        <v>241100</v>
+        <v>344060</v>
       </c>
       <c r="C796" s="0" t="s">
         <v>1538</v>
@@ -17530,7 +17536,7 @@
         <v>1539</v>
       </c>
       <c r="B797" s="0" t="n">
-        <v>290091</v>
+        <v>241100</v>
       </c>
       <c r="C797" s="0" t="s">
         <v>1540</v>
@@ -17544,7 +17550,7 @@
         <v>1541</v>
       </c>
       <c r="B798" s="0" t="n">
-        <v>290112</v>
+        <v>290091</v>
       </c>
       <c r="C798" s="0" t="s">
         <v>1542</v>
@@ -17558,7 +17564,7 @@
         <v>1543</v>
       </c>
       <c r="B799" s="0" t="n">
-        <v>222166</v>
+        <v>290112</v>
       </c>
       <c r="C799" s="0" t="s">
         <v>1544</v>
@@ -17572,24 +17578,24 @@
         <v>1545</v>
       </c>
       <c r="B800" s="0" t="n">
-        <v>290021</v>
+        <v>222166</v>
       </c>
       <c r="C800" s="0" t="s">
         <v>1546</v>
       </c>
       <c r="D800" s="0" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B801" s="0" t="n">
+        <v>290021</v>
+      </c>
+      <c r="C801" s="0" t="s">
         <v>1548</v>
-      </c>
-      <c r="B801" s="0" t="n">
-        <v>232002</v>
-      </c>
-      <c r="C801" s="0" t="s">
-        <v>1549</v>
       </c>
       <c r="D801" s="0" t="s">
         <v>1549</v>
@@ -17600,7 +17606,7 @@
         <v>1550</v>
       </c>
       <c r="B802" s="0" t="n">
-        <v>354006</v>
+        <v>232002</v>
       </c>
       <c r="C802" s="0" t="s">
         <v>1551</v>
@@ -17614,7 +17620,7 @@
         <v>1552</v>
       </c>
       <c r="B803" s="0" t="n">
-        <v>232001</v>
+        <v>354006</v>
       </c>
       <c r="C803" s="0" t="s">
         <v>1553</v>
@@ -17628,24 +17634,24 @@
         <v>1554</v>
       </c>
       <c r="B804" s="0" t="n">
-        <v>355091</v>
+        <v>232001</v>
       </c>
       <c r="C804" s="0" t="s">
         <v>1555</v>
       </c>
       <c r="D804" s="0" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B805" s="0" t="n">
+        <v>355091</v>
+      </c>
+      <c r="C805" s="0" t="s">
         <v>1557</v>
-      </c>
-      <c r="B805" s="0" t="n">
-        <v>263050</v>
-      </c>
-      <c r="C805" s="0" t="s">
-        <v>1558</v>
       </c>
       <c r="D805" s="0" t="s">
         <v>1558</v>
@@ -17656,7 +17662,7 @@
         <v>1559</v>
       </c>
       <c r="B806" s="0" t="n">
-        <v>323200</v>
+        <v>263050</v>
       </c>
       <c r="C806" s="0" t="s">
         <v>1560</v>
@@ -17670,7 +17676,7 @@
         <v>1561</v>
       </c>
       <c r="B807" s="0" t="n">
-        <v>214050</v>
+        <v>323200</v>
       </c>
       <c r="C807" s="0" t="s">
         <v>1562</v>
@@ -17681,27 +17687,27 @@
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B808" s="0" t="s">
-        <v>4</v>
+        <v>1563</v>
+      </c>
+      <c r="B808" s="0" t="n">
+        <v>214050</v>
       </c>
       <c r="C808" s="0" t="s">
-        <v>4</v>
+        <v>1564</v>
       </c>
       <c r="D808" s="0" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B809" s="0" t="n">
-        <v>341007</v>
+        <v>4</v>
+      </c>
+      <c r="B809" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C809" s="0" t="s">
-        <v>1565</v>
+        <v>4</v>
       </c>
       <c r="D809" s="0" t="s">
         <v>1565</v>
@@ -17712,7 +17718,7 @@
         <v>1566</v>
       </c>
       <c r="B810" s="0" t="n">
-        <v>224002</v>
+        <v>341007</v>
       </c>
       <c r="C810" s="0" t="s">
         <v>1567</v>
@@ -17726,24 +17732,24 @@
         <v>1568</v>
       </c>
       <c r="B811" s="0" t="n">
-        <v>344020</v>
+        <v>224002</v>
       </c>
       <c r="C811" s="0" t="s">
         <v>1569</v>
       </c>
       <c r="D811" s="0" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B812" s="0" t="n">
+        <v>344020</v>
+      </c>
+      <c r="C812" s="0" t="s">
         <v>1571</v>
-      </c>
-      <c r="B812" s="0" t="n">
-        <v>343001</v>
-      </c>
-      <c r="C812" s="0" t="s">
-        <v>1572</v>
       </c>
       <c r="D812" s="0" t="s">
         <v>1572</v>
@@ -17754,7 +17760,7 @@
         <v>1573</v>
       </c>
       <c r="B813" s="0" t="n">
-        <v>322040</v>
+        <v>343001</v>
       </c>
       <c r="C813" s="0" t="s">
         <v>1574</v>
@@ -17768,7 +17774,7 @@
         <v>1575</v>
       </c>
       <c r="B814" s="0" t="n">
-        <v>329020</v>
+        <v>322040</v>
       </c>
       <c r="C814" s="0" t="s">
         <v>1576</v>
@@ -17782,7 +17788,7 @@
         <v>1577</v>
       </c>
       <c r="B815" s="0" t="n">
-        <v>341024</v>
+        <v>329020</v>
       </c>
       <c r="C815" s="0" t="s">
         <v>1578</v>
@@ -17796,7 +17802,7 @@
         <v>1579</v>
       </c>
       <c r="B816" s="0" t="n">
-        <v>352090</v>
+        <v>341024</v>
       </c>
       <c r="C816" s="0" t="s">
         <v>1580</v>
@@ -17810,7 +17816,7 @@
         <v>1581</v>
       </c>
       <c r="B817" s="0" t="n">
-        <v>264050</v>
+        <v>352090</v>
       </c>
       <c r="C817" s="0" t="s">
         <v>1582</v>
@@ -17824,7 +17830,7 @@
         <v>1583</v>
       </c>
       <c r="B818" s="0" t="n">
-        <v>224003</v>
+        <v>264050</v>
       </c>
       <c r="C818" s="0" t="s">
         <v>1584</v>
@@ -17838,7 +17844,7 @@
         <v>1585</v>
       </c>
       <c r="B819" s="0" t="n">
-        <v>382030</v>
+        <v>224003</v>
       </c>
       <c r="C819" s="0" t="s">
         <v>1586</v>
@@ -17852,38 +17858,38 @@
         <v>1587</v>
       </c>
       <c r="B820" s="0" t="n">
-        <v>357020</v>
+        <v>382030</v>
       </c>
       <c r="C820" s="0" t="s">
         <v>1588</v>
       </c>
       <c r="D820" s="0" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B821" s="0" t="n">
+        <v>357020</v>
+      </c>
+      <c r="C821" s="0" t="s">
         <v>1590</v>
       </c>
-      <c r="B821" s="0" t="n">
-        <v>341110</v>
-      </c>
-      <c r="C821" s="0" t="s">
+      <c r="D821" s="0" t="s">
         <v>1591</v>
-      </c>
-      <c r="D821" s="0" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B822" s="0" t="n">
+        <v>341110</v>
+      </c>
+      <c r="C822" s="0" t="s">
         <v>1593</v>
-      </c>
-      <c r="B822" s="0" t="n">
-        <v>343100</v>
-      </c>
-      <c r="C822" s="0" t="s">
-        <v>1594</v>
       </c>
       <c r="D822" s="0" t="s">
         <v>1594</v>
@@ -17894,7 +17900,7 @@
         <v>1595</v>
       </c>
       <c r="B823" s="0" t="n">
-        <v>273060</v>
+        <v>343100</v>
       </c>
       <c r="C823" s="0" t="s">
         <v>1596</v>
@@ -17908,38 +17914,38 @@
         <v>1597</v>
       </c>
       <c r="B824" s="0" t="n">
-        <v>357062</v>
+        <v>273060</v>
       </c>
       <c r="C824" s="0" t="s">
         <v>1598</v>
       </c>
       <c r="D824" s="0" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B825" s="0" t="n">
+        <v>357062</v>
+      </c>
+      <c r="C825" s="0" t="s">
         <v>1600</v>
       </c>
-      <c r="B825" s="0" t="n">
-        <v>355070</v>
-      </c>
-      <c r="C825" s="0" t="s">
+      <c r="D825" s="0" t="s">
         <v>1601</v>
-      </c>
-      <c r="D825" s="0" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B826" s="0" t="n">
+        <v>355070</v>
+      </c>
+      <c r="C826" s="0" t="s">
         <v>1603</v>
-      </c>
-      <c r="B826" s="0" t="n">
-        <v>343050</v>
-      </c>
-      <c r="C826" s="0" t="s">
-        <v>1604</v>
       </c>
       <c r="D826" s="0" t="s">
         <v>1604</v>
@@ -17950,7 +17956,7 @@
         <v>1605</v>
       </c>
       <c r="B827" s="0" t="n">
-        <v>343020</v>
+        <v>343050</v>
       </c>
       <c r="C827" s="0" t="s">
         <v>1606</v>
@@ -17961,27 +17967,27 @@
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B828" s="0" t="s">
-        <v>4</v>
+        <v>1607</v>
+      </c>
+      <c r="B828" s="0" t="n">
+        <v>343020</v>
       </c>
       <c r="C828" s="0" t="s">
-        <v>4</v>
+        <v>1608</v>
       </c>
       <c r="D828" s="0" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B829" s="0" t="n">
-        <v>224004</v>
+        <v>4</v>
+      </c>
+      <c r="B829" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C829" s="0" t="s">
-        <v>1609</v>
+        <v>4</v>
       </c>
       <c r="D829" s="0" t="s">
         <v>1609</v>
@@ -17992,7 +17998,7 @@
         <v>1610</v>
       </c>
       <c r="B830" s="0" t="n">
-        <v>324030</v>
+        <v>224004</v>
       </c>
       <c r="C830" s="0" t="s">
         <v>1611</v>
@@ -18003,27 +18009,27 @@
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B831" s="0" t="s">
-        <v>4</v>
+        <v>1612</v>
+      </c>
+      <c r="B831" s="0" t="n">
+        <v>324030</v>
       </c>
       <c r="C831" s="0" t="s">
-        <v>4</v>
+        <v>1613</v>
       </c>
       <c r="D831" s="0" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B832" s="0" t="n">
-        <v>212040</v>
+        <v>4</v>
+      </c>
+      <c r="B832" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C832" s="0" t="s">
-        <v>1614</v>
+        <v>4</v>
       </c>
       <c r="D832" s="0" t="s">
         <v>1614</v>
@@ -18034,7 +18040,7 @@
         <v>1615</v>
       </c>
       <c r="B833" s="0" t="n">
-        <v>343070</v>
+        <v>212040</v>
       </c>
       <c r="C833" s="0" t="s">
         <v>1616</v>
@@ -18048,7 +18054,7 @@
         <v>1617</v>
       </c>
       <c r="B834" s="0" t="n">
-        <v>354002</v>
+        <v>343070</v>
       </c>
       <c r="C834" s="0" t="s">
         <v>1618</v>
@@ -18062,7 +18068,7 @@
         <v>1619</v>
       </c>
       <c r="B835" s="0" t="n">
-        <v>261131</v>
+        <v>354002</v>
       </c>
       <c r="C835" s="0" t="s">
         <v>1620</v>
@@ -18076,24 +18082,24 @@
         <v>1621</v>
       </c>
       <c r="B836" s="0" t="n">
-        <v>290080</v>
+        <v>261131</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>1622</v>
       </c>
       <c r="D836" s="0" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B837" s="0" t="n">
+        <v>290080</v>
+      </c>
+      <c r="C837" s="0" t="s">
         <v>1624</v>
-      </c>
-      <c r="B837" s="0" t="n">
-        <v>300201</v>
-      </c>
-      <c r="C837" s="0" t="s">
-        <v>1625</v>
       </c>
       <c r="D837" s="0" t="s">
         <v>1625</v>
@@ -18104,7 +18110,7 @@
         <v>1626</v>
       </c>
       <c r="B838" s="0" t="n">
-        <v>300520</v>
+        <v>300201</v>
       </c>
       <c r="C838" s="0" t="s">
         <v>1627</v>
@@ -18118,7 +18124,7 @@
         <v>1628</v>
       </c>
       <c r="B839" s="0" t="n">
-        <v>222050</v>
+        <v>300520</v>
       </c>
       <c r="C839" s="0" t="s">
         <v>1629</v>
@@ -18132,7 +18138,7 @@
         <v>1630</v>
       </c>
       <c r="B840" s="0" t="n">
-        <v>311180</v>
+        <v>222050</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>1631</v>
@@ -18146,7 +18152,7 @@
         <v>1632</v>
       </c>
       <c r="B841" s="0" t="n">
-        <v>311030</v>
+        <v>311180</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>1633</v>
@@ -18160,7 +18166,7 @@
         <v>1634</v>
       </c>
       <c r="B842" s="0" t="n">
-        <v>261260</v>
+        <v>311030</v>
       </c>
       <c r="C842" s="0" t="s">
         <v>1635</v>
@@ -18174,7 +18180,7 @@
         <v>1636</v>
       </c>
       <c r="B843" s="0" t="n">
-        <v>263300</v>
+        <v>261260</v>
       </c>
       <c r="C843" s="0" t="s">
         <v>1637</v>
@@ -18188,38 +18194,38 @@
         <v>1638</v>
       </c>
       <c r="B844" s="0" t="n">
-        <v>341092</v>
+        <v>263300</v>
       </c>
       <c r="C844" s="0" t="s">
         <v>1639</v>
       </c>
       <c r="D844" s="0" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B845" s="0" t="s">
-        <v>4</v>
+        <v>1640</v>
+      </c>
+      <c r="B845" s="0" t="n">
+        <v>341092</v>
       </c>
       <c r="C845" s="0" t="s">
-        <v>4</v>
+        <v>1641</v>
       </c>
       <c r="D845" s="0" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B846" s="0" t="n">
-        <v>261020</v>
+        <v>4</v>
+      </c>
+      <c r="B846" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C846" s="0" t="s">
-        <v>1643</v>
+        <v>4</v>
       </c>
       <c r="D846" s="0" t="s">
         <v>1643</v>
@@ -18230,7 +18236,7 @@
         <v>1644</v>
       </c>
       <c r="B847" s="0" t="n">
-        <v>300700</v>
+        <v>261020</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>1645</v>
@@ -18244,7 +18250,7 @@
         <v>1646</v>
       </c>
       <c r="B848" s="0" t="n">
-        <v>230010</v>
+        <v>300700</v>
       </c>
       <c r="C848" s="0" t="s">
         <v>1647</v>
@@ -18258,7 +18264,7 @@
         <v>1648</v>
       </c>
       <c r="B849" s="0" t="n">
-        <v>323010</v>
+        <v>230010</v>
       </c>
       <c r="C849" s="0" t="s">
         <v>1649</v>
@@ -18272,7 +18278,7 @@
         <v>1650</v>
       </c>
       <c r="B850" s="0" t="n">
-        <v>300270</v>
+        <v>323010</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>1651</v>
@@ -18283,16 +18289,16 @@
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B851" s="0" t="s">
-        <v>4</v>
+        <v>1652</v>
+      </c>
+      <c r="B851" s="0" t="n">
+        <v>300270</v>
       </c>
       <c r="C851" s="0" t="s">
-        <v>4</v>
+        <v>1653</v>
       </c>
       <c r="D851" s="0" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18306,7 +18312,7 @@
         <v>4</v>
       </c>
       <c r="D852" s="0" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18320,7 +18326,7 @@
         <v>4</v>
       </c>
       <c r="D853" s="0" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18334,18 +18340,18 @@
         <v>4</v>
       </c>
       <c r="D854" s="0" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B855" s="0" t="n">
-        <v>300511</v>
+        <v>4</v>
+      </c>
+      <c r="B855" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C855" s="0" t="s">
-        <v>1657</v>
+        <v>4</v>
       </c>
       <c r="D855" s="0" t="s">
         <v>1657</v>
@@ -18356,7 +18362,7 @@
         <v>1658</v>
       </c>
       <c r="B856" s="0" t="n">
-        <v>300580</v>
+        <v>300511</v>
       </c>
       <c r="C856" s="0" t="s">
         <v>1659</v>
@@ -18370,7 +18376,7 @@
         <v>1660</v>
       </c>
       <c r="B857" s="0" t="n">
-        <v>261110</v>
+        <v>300580</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>1661</v>
@@ -18384,7 +18390,7 @@
         <v>1662</v>
       </c>
       <c r="B858" s="0" t="n">
-        <v>353050</v>
+        <v>261110</v>
       </c>
       <c r="C858" s="0" t="s">
         <v>1663</v>
@@ -18398,7 +18404,7 @@
         <v>1664</v>
       </c>
       <c r="B859" s="0" t="n">
-        <v>222052</v>
+        <v>353050</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>1665</v>
@@ -18412,7 +18418,7 @@
         <v>1666</v>
       </c>
       <c r="B860" s="0" t="n">
-        <v>272040</v>
+        <v>222052</v>
       </c>
       <c r="C860" s="0" t="s">
         <v>1667</v>
@@ -18426,7 +18432,7 @@
         <v>1668</v>
       </c>
       <c r="B861" s="0" t="n">
-        <v>320160</v>
+        <v>272040</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>1669</v>
@@ -18440,7 +18446,7 @@
         <v>1670</v>
       </c>
       <c r="B862" s="0" t="n">
-        <v>261080</v>
+        <v>320160</v>
       </c>
       <c r="C862" s="0" t="s">
         <v>1671</v>
@@ -18454,7 +18460,7 @@
         <v>1672</v>
       </c>
       <c r="B863" s="0" t="n">
-        <v>261070</v>
+        <v>261080</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>1673</v>
@@ -18468,7 +18474,7 @@
         <v>1674</v>
       </c>
       <c r="B864" s="0" t="n">
-        <v>264270</v>
+        <v>261070</v>
       </c>
       <c r="C864" s="0" t="s">
         <v>1675</v>
@@ -18482,7 +18488,7 @@
         <v>1676</v>
       </c>
       <c r="B865" s="0" t="n">
-        <v>263180</v>
+        <v>264270</v>
       </c>
       <c r="C865" s="0" t="s">
         <v>1677</v>
@@ -18496,7 +18502,7 @@
         <v>1678</v>
       </c>
       <c r="B866" s="0" t="n">
-        <v>370010</v>
+        <v>263180</v>
       </c>
       <c r="C866" s="0" t="s">
         <v>1679</v>
@@ -18510,7 +18516,7 @@
         <v>1680</v>
       </c>
       <c r="B867" s="0" t="n">
-        <v>300690</v>
+        <v>370010</v>
       </c>
       <c r="C867" s="0" t="s">
         <v>1681</v>
@@ -18524,7 +18530,7 @@
         <v>1682</v>
       </c>
       <c r="B868" s="0" t="n">
-        <v>300660</v>
+        <v>300690</v>
       </c>
       <c r="C868" s="0" t="s">
         <v>1683</v>
@@ -18538,7 +18544,7 @@
         <v>1684</v>
       </c>
       <c r="B869" s="0" t="n">
-        <v>312200</v>
+        <v>300660</v>
       </c>
       <c r="C869" s="0" t="s">
         <v>1685</v>
@@ -18552,7 +18558,7 @@
         <v>1686</v>
       </c>
       <c r="B870" s="0" t="n">
-        <v>352001</v>
+        <v>312200</v>
       </c>
       <c r="C870" s="0" t="s">
         <v>1687</v>
@@ -18566,7 +18572,7 @@
         <v>1688</v>
       </c>
       <c r="B871" s="0" t="n">
-        <v>355109</v>
+        <v>352001</v>
       </c>
       <c r="C871" s="0" t="s">
         <v>1689</v>
@@ -18580,7 +18586,7 @@
         <v>1690</v>
       </c>
       <c r="B872" s="0" t="n">
-        <v>326010</v>
+        <v>355109</v>
       </c>
       <c r="C872" s="0" t="s">
         <v>1691</v>
@@ -18594,7 +18600,7 @@
         <v>1692</v>
       </c>
       <c r="B873" s="0" t="n">
-        <v>221222</v>
+        <v>326010</v>
       </c>
       <c r="C873" s="0" t="s">
         <v>1693</v>
@@ -18608,7 +18614,7 @@
         <v>1694</v>
       </c>
       <c r="B874" s="0" t="n">
-        <v>357111</v>
+        <v>221222</v>
       </c>
       <c r="C874" s="0" t="s">
         <v>1695</v>
@@ -18622,7 +18628,7 @@
         <v>1696</v>
       </c>
       <c r="B875" s="0" t="n">
-        <v>266030</v>
+        <v>357111</v>
       </c>
       <c r="C875" s="0" t="s">
         <v>1697</v>
@@ -18636,7 +18642,7 @@
         <v>1698</v>
       </c>
       <c r="B876" s="0" t="n">
-        <v>261120</v>
+        <v>266030</v>
       </c>
       <c r="C876" s="0" t="s">
         <v>1699</v>
@@ -18647,83 +18653,83 @@
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B877" s="0" t="s">
-        <v>4</v>
+        <v>1700</v>
+      </c>
+      <c r="B877" s="0" t="n">
+        <v>261120</v>
       </c>
       <c r="C877" s="0" t="s">
-        <v>4</v>
+        <v>1701</v>
       </c>
       <c r="D877" s="0" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B878" s="0" t="n">
-        <v>351061</v>
+        <v>4</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C878" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D878" s="0" t="s">
         <v>1702</v>
-      </c>
-      <c r="D878" s="0" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B879" s="0" t="n">
+        <v>351061</v>
+      </c>
+      <c r="C879" s="0" t="s">
         <v>1704</v>
       </c>
-      <c r="B879" s="0" t="n">
-        <v>360060</v>
-      </c>
-      <c r="C879" s="0" t="s">
+      <c r="D879" s="0" t="s">
         <v>1705</v>
-      </c>
-      <c r="D879" s="0" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B880" s="0" t="n">
+        <v>360060</v>
+      </c>
+      <c r="C880" s="0" t="s">
         <v>1707</v>
       </c>
-      <c r="B880" s="0" t="n">
-        <v>360050</v>
-      </c>
-      <c r="C880" s="0" t="s">
+      <c r="D880" s="0" t="s">
         <v>1708</v>
-      </c>
-      <c r="D880" s="0" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B881" s="0" t="n">
+        <v>360050</v>
+      </c>
+      <c r="C881" s="0" t="s">
         <v>1710</v>
       </c>
-      <c r="B881" s="0" t="n">
-        <v>360150</v>
-      </c>
-      <c r="C881" s="0" t="s">
+      <c r="D881" s="0" t="s">
         <v>1711</v>
-      </c>
-      <c r="D881" s="0" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B882" s="0" t="n">
+        <v>360150</v>
+      </c>
+      <c r="C882" s="0" t="s">
         <v>1713</v>
-      </c>
-      <c r="B882" s="0" t="n">
-        <v>222020</v>
-      </c>
-      <c r="C882" s="0" t="s">
-        <v>1714</v>
       </c>
       <c r="D882" s="0" t="s">
         <v>1714</v>
@@ -18734,7 +18740,7 @@
         <v>1715</v>
       </c>
       <c r="B883" s="0" t="n">
-        <v>320070</v>
+        <v>222020</v>
       </c>
       <c r="C883" s="0" t="s">
         <v>1716</v>
@@ -18748,7 +18754,7 @@
         <v>1717</v>
       </c>
       <c r="B884" s="0" t="n">
-        <v>300671</v>
+        <v>320070</v>
       </c>
       <c r="C884" s="0" t="s">
         <v>1718</v>
@@ -18762,7 +18768,7 @@
         <v>1719</v>
       </c>
       <c r="B885" s="0" t="n">
-        <v>360170</v>
+        <v>300671</v>
       </c>
       <c r="C885" s="0" t="s">
         <v>1720</v>
@@ -18776,24 +18782,24 @@
         <v>1721</v>
       </c>
       <c r="B886" s="0" t="n">
-        <v>312220</v>
+        <v>360170</v>
       </c>
       <c r="C886" s="0" t="s">
         <v>1722</v>
       </c>
       <c r="D886" s="0" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B887" s="0" t="n">
+        <v>312220</v>
+      </c>
+      <c r="C887" s="0" t="s">
         <v>1724</v>
-      </c>
-      <c r="B887" s="0" t="n">
-        <v>321050</v>
-      </c>
-      <c r="C887" s="0" t="s">
-        <v>1725</v>
       </c>
       <c r="D887" s="0" t="s">
         <v>1725</v>
@@ -18804,7 +18810,7 @@
         <v>1726</v>
       </c>
       <c r="B888" s="0" t="n">
-        <v>211040</v>
+        <v>321050</v>
       </c>
       <c r="C888" s="0" t="s">
         <v>1727</v>
@@ -18818,24 +18824,24 @@
         <v>1728</v>
       </c>
       <c r="B889" s="0" t="n">
-        <v>342160</v>
+        <v>211040</v>
       </c>
       <c r="C889" s="0" t="s">
         <v>1729</v>
       </c>
       <c r="D889" s="0" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B890" s="0" t="n">
+        <v>342160</v>
+      </c>
+      <c r="C890" s="0" t="s">
         <v>1731</v>
-      </c>
-      <c r="B890" s="0" t="n">
-        <v>264120</v>
-      </c>
-      <c r="C890" s="0" t="s">
-        <v>1732</v>
       </c>
       <c r="D890" s="0" t="s">
         <v>1732</v>
@@ -18843,27 +18849,27 @@
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B891" s="0" t="s">
-        <v>4</v>
+        <v>1733</v>
+      </c>
+      <c r="B891" s="0" t="n">
+        <v>264120</v>
       </c>
       <c r="C891" s="0" t="s">
-        <v>4</v>
+        <v>1734</v>
       </c>
       <c r="D891" s="0" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B892" s="0" t="n">
-        <v>352040</v>
+        <v>4</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C892" s="0" t="s">
-        <v>1735</v>
+        <v>4</v>
       </c>
       <c r="D892" s="0" t="s">
         <v>1735</v>
@@ -18874,7 +18880,7 @@
         <v>1736</v>
       </c>
       <c r="B893" s="0" t="n">
-        <v>261180</v>
+        <v>352040</v>
       </c>
       <c r="C893" s="0" t="s">
         <v>1737</v>
@@ -18888,7 +18894,7 @@
         <v>1738</v>
       </c>
       <c r="B894" s="0" t="n">
-        <v>263210</v>
+        <v>261180</v>
       </c>
       <c r="C894" s="0" t="s">
         <v>1739</v>
@@ -18902,7 +18908,7 @@
         <v>1740</v>
       </c>
       <c r="B895" s="0" t="n">
-        <v>261270</v>
+        <v>263210</v>
       </c>
       <c r="C895" s="0" t="s">
         <v>1741</v>
@@ -18916,7 +18922,7 @@
         <v>1742</v>
       </c>
       <c r="B896" s="0" t="n">
-        <v>222110</v>
+        <v>261270</v>
       </c>
       <c r="C896" s="0" t="s">
         <v>1743</v>
@@ -18927,27 +18933,27 @@
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B897" s="0" t="s">
-        <v>4</v>
+        <v>1744</v>
+      </c>
+      <c r="B897" s="0" t="n">
+        <v>222110</v>
       </c>
       <c r="C897" s="0" t="s">
-        <v>4</v>
+        <v>1745</v>
       </c>
       <c r="D897" s="0" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B898" s="0" t="n">
-        <v>273070</v>
+        <v>4</v>
+      </c>
+      <c r="B898" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C898" s="0" t="s">
-        <v>1746</v>
+        <v>4</v>
       </c>
       <c r="D898" s="0" t="s">
         <v>1746</v>
@@ -18958,7 +18964,7 @@
         <v>1747</v>
       </c>
       <c r="B899" s="0" t="n">
-        <v>355011</v>
+        <v>273070</v>
       </c>
       <c r="C899" s="0" t="s">
         <v>1748</v>
@@ -18972,7 +18978,7 @@
         <v>1749</v>
       </c>
       <c r="B900" s="0" t="n">
-        <v>343072</v>
+        <v>355011</v>
       </c>
       <c r="C900" s="0" t="s">
         <v>1750</v>
@@ -18986,24 +18992,24 @@
         <v>1751</v>
       </c>
       <c r="B901" s="0" t="n">
-        <v>341130</v>
+        <v>343072</v>
       </c>
       <c r="C901" s="0" t="s">
         <v>1752</v>
       </c>
       <c r="D901" s="0" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B902" s="0" t="n">
+        <v>341130</v>
+      </c>
+      <c r="C902" s="0" t="s">
         <v>1754</v>
-      </c>
-      <c r="B902" s="0" t="n">
-        <v>355010</v>
-      </c>
-      <c r="C902" s="0" t="s">
-        <v>1755</v>
       </c>
       <c r="D902" s="0" t="s">
         <v>1755</v>
@@ -19014,7 +19020,7 @@
         <v>1756</v>
       </c>
       <c r="B903" s="0" t="n">
-        <v>232050</v>
+        <v>355010</v>
       </c>
       <c r="C903" s="0" t="s">
         <v>1757</v>
@@ -19028,7 +19034,7 @@
         <v>1758</v>
       </c>
       <c r="B904" s="0" t="n">
-        <v>225004</v>
+        <v>232050</v>
       </c>
       <c r="C904" s="0" t="s">
         <v>1759</v>
@@ -19042,7 +19048,7 @@
         <v>1760</v>
       </c>
       <c r="B905" s="0" t="n">
-        <v>342141</v>
+        <v>225004</v>
       </c>
       <c r="C905" s="0" t="s">
         <v>1761</v>
@@ -19053,27 +19059,27 @@
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B906" s="0" t="s">
-        <v>4</v>
+        <v>1762</v>
+      </c>
+      <c r="B906" s="0" t="n">
+        <v>342141</v>
       </c>
       <c r="C906" s="0" t="s">
-        <v>4</v>
+        <v>1763</v>
       </c>
       <c r="D906" s="0" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B907" s="0" t="n">
-        <v>342020</v>
+        <v>4</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C907" s="0" t="s">
-        <v>1764</v>
+        <v>4</v>
       </c>
       <c r="D907" s="0" t="s">
         <v>1764</v>
@@ -19081,27 +19087,27 @@
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B908" s="0" t="s">
-        <v>4</v>
+        <v>1765</v>
+      </c>
+      <c r="B908" s="0" t="n">
+        <v>342020</v>
       </c>
       <c r="C908" s="0" t="s">
-        <v>4</v>
+        <v>1766</v>
       </c>
       <c r="D908" s="0" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B909" s="0" t="n">
-        <v>311090</v>
+        <v>4</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C909" s="0" t="s">
-        <v>1767</v>
+        <v>4</v>
       </c>
       <c r="D909" s="0" t="s">
         <v>1767</v>
@@ -19109,27 +19115,27 @@
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B910" s="0" t="s">
-        <v>4</v>
+        <v>1768</v>
+      </c>
+      <c r="B910" s="0" t="n">
+        <v>311090</v>
       </c>
       <c r="C910" s="0" t="s">
-        <v>4</v>
+        <v>1769</v>
       </c>
       <c r="D910" s="0" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B911" s="0" t="n">
-        <v>263150</v>
+        <v>4</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C911" s="0" t="s">
-        <v>1770</v>
+        <v>4</v>
       </c>
       <c r="D911" s="0" t="s">
         <v>1770</v>
@@ -19140,7 +19146,7 @@
         <v>1771</v>
       </c>
       <c r="B912" s="0" t="n">
-        <v>261130</v>
+        <v>263150</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>1772</v>
@@ -19154,7 +19160,7 @@
         <v>1773</v>
       </c>
       <c r="B913" s="0" t="n">
-        <v>261160</v>
+        <v>261130</v>
       </c>
       <c r="C913" s="0" t="s">
         <v>1774</v>
@@ -19168,7 +19174,7 @@
         <v>1775</v>
       </c>
       <c r="B914" s="0" t="n">
-        <v>355021</v>
+        <v>261160</v>
       </c>
       <c r="C914" s="0" t="s">
         <v>1776</v>
@@ -19182,7 +19188,7 @@
         <v>1777</v>
       </c>
       <c r="B915" s="0" t="n">
-        <v>264040</v>
+        <v>355021</v>
       </c>
       <c r="C915" s="0" t="s">
         <v>1778</v>
@@ -19196,7 +19202,7 @@
         <v>1779</v>
       </c>
       <c r="B916" s="0" t="n">
-        <v>263131</v>
+        <v>264040</v>
       </c>
       <c r="C916" s="0" t="s">
         <v>1780</v>
@@ -19210,7 +19216,7 @@
         <v>1781</v>
       </c>
       <c r="B917" s="0" t="n">
-        <v>311241</v>
+        <v>263131</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>1782</v>
@@ -19224,7 +19230,7 @@
         <v>1783</v>
       </c>
       <c r="B918" s="0" t="n">
-        <v>311080</v>
+        <v>311241</v>
       </c>
       <c r="C918" s="0" t="s">
         <v>1784</v>
@@ -19238,7 +19244,7 @@
         <v>1785</v>
       </c>
       <c r="B919" s="0" t="n">
-        <v>261150</v>
+        <v>311080</v>
       </c>
       <c r="C919" s="0" t="s">
         <v>1786</v>
@@ -19252,7 +19258,7 @@
         <v>1787</v>
       </c>
       <c r="B920" s="0" t="n">
-        <v>266130</v>
+        <v>261150</v>
       </c>
       <c r="C920" s="0" t="s">
         <v>1788</v>
@@ -19266,7 +19272,7 @@
         <v>1789</v>
       </c>
       <c r="B921" s="0" t="n">
-        <v>263090</v>
+        <v>266130</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>1790</v>
@@ -19280,7 +19286,7 @@
         <v>1791</v>
       </c>
       <c r="B922" s="0" t="n">
-        <v>268001</v>
+        <v>263090</v>
       </c>
       <c r="C922" s="0" t="s">
         <v>1792</v>
@@ -19294,24 +19300,24 @@
         <v>1793</v>
       </c>
       <c r="B923" s="0" t="n">
-        <v>241030</v>
+        <v>268001</v>
       </c>
       <c r="C923" s="0" t="s">
         <v>1794</v>
       </c>
       <c r="D923" s="0" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B924" s="0" t="n">
+        <v>241030</v>
+      </c>
+      <c r="C924" s="0" t="s">
         <v>1796</v>
-      </c>
-      <c r="B924" s="0" t="n">
-        <v>225009</v>
-      </c>
-      <c r="C924" s="0" t="s">
-        <v>1797</v>
       </c>
       <c r="D924" s="0" t="s">
         <v>1797</v>
@@ -19322,7 +19328,7 @@
         <v>1798</v>
       </c>
       <c r="B925" s="0" t="n">
-        <v>225010</v>
+        <v>225009</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>1799</v>
@@ -19336,7 +19342,7 @@
         <v>1800</v>
       </c>
       <c r="B926" s="0" t="n">
-        <v>225020</v>
+        <v>225010</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>1801</v>
@@ -19350,7 +19356,7 @@
         <v>1802</v>
       </c>
       <c r="B927" s="0" t="n">
-        <v>303010</v>
+        <v>225020</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>1803</v>
@@ -19364,7 +19370,7 @@
         <v>1804</v>
       </c>
       <c r="B928" s="0" t="n">
-        <v>221106</v>
+        <v>303010</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>1805</v>
@@ -19378,7 +19384,7 @@
         <v>1806</v>
       </c>
       <c r="B929" s="0" t="n">
-        <v>355032</v>
+        <v>221106</v>
       </c>
       <c r="C929" s="0" t="s">
         <v>1807</v>
@@ -19392,7 +19398,7 @@
         <v>1808</v>
       </c>
       <c r="B930" s="0" t="n">
-        <v>300160</v>
+        <v>355032</v>
       </c>
       <c r="C930" s="0" t="s">
         <v>1809</v>
@@ -19406,7 +19412,7 @@
         <v>1810</v>
       </c>
       <c r="B931" s="0" t="n">
-        <v>241070</v>
+        <v>300160</v>
       </c>
       <c r="C931" s="0" t="s">
         <v>1811</v>
@@ -19417,27 +19423,27 @@
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B932" s="0" t="s">
-        <v>4</v>
+        <v>1812</v>
+      </c>
+      <c r="B932" s="0" t="n">
+        <v>241070</v>
       </c>
       <c r="C932" s="0" t="s">
-        <v>4</v>
+        <v>1813</v>
       </c>
       <c r="D932" s="0" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B933" s="0" t="n">
-        <v>343080</v>
+        <v>4</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C933" s="0" t="s">
-        <v>1814</v>
+        <v>4</v>
       </c>
       <c r="D933" s="0" t="s">
         <v>1814</v>
@@ -19448,7 +19454,7 @@
         <v>1815</v>
       </c>
       <c r="B934" s="0" t="n">
-        <v>342120</v>
+        <v>343080</v>
       </c>
       <c r="C934" s="0" t="s">
         <v>1816</v>
@@ -19462,7 +19468,7 @@
         <v>1817</v>
       </c>
       <c r="B935" s="0" t="n">
-        <v>344040</v>
+        <v>342120</v>
       </c>
       <c r="C935" s="0" t="s">
         <v>1818</v>
@@ -19476,7 +19482,7 @@
         <v>1819</v>
       </c>
       <c r="B936" s="0" t="n">
-        <v>263231</v>
+        <v>344040</v>
       </c>
       <c r="C936" s="0" t="s">
         <v>1820</v>
@@ -19487,27 +19493,27 @@
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B937" s="0" t="s">
-        <v>4</v>
+        <v>1821</v>
+      </c>
+      <c r="B937" s="0" t="n">
+        <v>263231</v>
       </c>
       <c r="C937" s="0" t="s">
-        <v>4</v>
+        <v>1822</v>
       </c>
       <c r="D937" s="0" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B938" s="0" t="n">
-        <v>213030</v>
+        <v>4</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C938" s="0" t="s">
-        <v>1823</v>
+        <v>4</v>
       </c>
       <c r="D938" s="0" t="s">
         <v>1823</v>
@@ -19518,7 +19524,7 @@
         <v>1824</v>
       </c>
       <c r="B939" s="0" t="n">
-        <v>383030</v>
+        <v>213030</v>
       </c>
       <c r="C939" s="0" t="s">
         <v>1825</v>
@@ -19532,7 +19538,7 @@
         <v>1826</v>
       </c>
       <c r="B940" s="0" t="n">
-        <v>263310</v>
+        <v>383030</v>
       </c>
       <c r="C940" s="0" t="s">
         <v>1827</v>
@@ -19546,7 +19552,7 @@
         <v>1828</v>
       </c>
       <c r="B941" s="0" t="n">
-        <v>345031</v>
+        <v>263310</v>
       </c>
       <c r="C941" s="0" t="s">
         <v>1829</v>
@@ -19560,7 +19566,7 @@
         <v>1830</v>
       </c>
       <c r="B942" s="0" t="n">
-        <v>221292</v>
+        <v>345031</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>1831</v>
@@ -19574,7 +19580,7 @@
         <v>1832</v>
       </c>
       <c r="B943" s="0" t="n">
-        <v>382050</v>
+        <v>221292</v>
       </c>
       <c r="C943" s="0" t="s">
         <v>1833</v>
@@ -19588,7 +19594,7 @@
         <v>1834</v>
       </c>
       <c r="B944" s="0" t="n">
-        <v>300512</v>
+        <v>382050</v>
       </c>
       <c r="C944" s="0" t="s">
         <v>1835</v>
@@ -19602,7 +19608,7 @@
         <v>1836</v>
       </c>
       <c r="B945" s="0" t="n">
-        <v>222030</v>
+        <v>300512</v>
       </c>
       <c r="C945" s="0" t="s">
         <v>1837</v>
@@ -19613,27 +19619,27 @@
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B946" s="0" t="s">
-        <v>4</v>
+        <v>1838</v>
+      </c>
+      <c r="B946" s="0" t="n">
+        <v>222030</v>
       </c>
       <c r="C946" s="0" t="s">
-        <v>4</v>
+        <v>1839</v>
       </c>
       <c r="D946" s="0" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B947" s="0" t="n">
-        <v>322070</v>
+        <v>4</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C947" s="0" t="s">
-        <v>1840</v>
+        <v>4</v>
       </c>
       <c r="D947" s="0" t="s">
         <v>1840</v>
@@ -19644,7 +19650,7 @@
         <v>1841</v>
       </c>
       <c r="B948" s="0" t="n">
-        <v>354031</v>
+        <v>322070</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>1842</v>
@@ -19658,7 +19664,7 @@
         <v>1843</v>
       </c>
       <c r="B949" s="0" t="n">
-        <v>268061</v>
+        <v>354031</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>1844</v>
@@ -19672,7 +19678,7 @@
         <v>1845</v>
       </c>
       <c r="B950" s="0" t="n">
-        <v>268071</v>
+        <v>268061</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>1846</v>
@@ -19686,7 +19692,7 @@
         <v>1847</v>
       </c>
       <c r="B951" s="0" t="n">
-        <v>355105</v>
+        <v>268071</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>1848</v>
@@ -19700,7 +19706,7 @@
         <v>1849</v>
       </c>
       <c r="B952" s="0" t="n">
-        <v>372040</v>
+        <v>355105</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>1850</v>
@@ -19714,7 +19720,7 @@
         <v>1851</v>
       </c>
       <c r="B953" s="0" t="n">
-        <v>357030</v>
+        <v>372040</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>1852</v>
@@ -19728,7 +19734,7 @@
         <v>1853</v>
       </c>
       <c r="B954" s="0" t="n">
-        <v>225002</v>
+        <v>357030</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>1854</v>
@@ -19742,7 +19748,7 @@
         <v>1855</v>
       </c>
       <c r="B955" s="0" t="n">
-        <v>355220</v>
+        <v>225002</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>1856</v>
@@ -19756,7 +19762,7 @@
         <v>1857</v>
       </c>
       <c r="B956" s="0" t="n">
-        <v>300560</v>
+        <v>355220</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>1858</v>
@@ -19770,7 +19776,7 @@
         <v>1859</v>
       </c>
       <c r="B957" s="0" t="n">
-        <v>315060</v>
+        <v>300560</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>1860</v>
@@ -19784,7 +19790,7 @@
         <v>1861</v>
       </c>
       <c r="B958" s="0" t="n">
-        <v>261090</v>
+        <v>315060</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>1862</v>
@@ -19798,7 +19804,7 @@
         <v>1863</v>
       </c>
       <c r="B959" s="0" t="n">
-        <v>268020</v>
+        <v>261090</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>1864</v>
@@ -19812,7 +19818,7 @@
         <v>1865</v>
       </c>
       <c r="B960" s="0" t="n">
-        <v>268050</v>
+        <v>268020</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>1866</v>
@@ -19823,27 +19829,27 @@
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B961" s="0" t="s">
-        <v>4</v>
+        <v>1867</v>
+      </c>
+      <c r="B961" s="0" t="n">
+        <v>268050</v>
       </c>
       <c r="C961" s="0" t="s">
-        <v>4</v>
+        <v>1868</v>
       </c>
       <c r="D961" s="0" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B962" s="0" t="n">
-        <v>300240</v>
+        <v>4</v>
+      </c>
+      <c r="B962" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C962" s="0" t="s">
-        <v>1869</v>
+        <v>4</v>
       </c>
       <c r="D962" s="0" t="s">
         <v>1869</v>
@@ -19854,7 +19860,7 @@
         <v>1870</v>
       </c>
       <c r="B963" s="0" t="n">
-        <v>357093</v>
+        <v>300240</v>
       </c>
       <c r="C963" s="0" t="s">
         <v>1871</v>
@@ -19868,24 +19874,24 @@
         <v>1872</v>
       </c>
       <c r="B964" s="0" t="n">
-        <v>342070</v>
+        <v>357093</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>1873</v>
       </c>
       <c r="D964" s="0" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B965" s="0" t="n">
+        <v>342070</v>
+      </c>
+      <c r="C965" s="0" t="s">
         <v>1875</v>
-      </c>
-      <c r="B965" s="0" t="n">
-        <v>300082</v>
-      </c>
-      <c r="C965" s="0" t="s">
-        <v>1876</v>
       </c>
       <c r="D965" s="0" t="s">
         <v>1876</v>
@@ -19896,38 +19902,38 @@
         <v>1877</v>
       </c>
       <c r="B966" s="0" t="n">
-        <v>2900010</v>
+        <v>300082</v>
       </c>
       <c r="C966" s="0" t="s">
         <v>1878</v>
       </c>
       <c r="D966" s="0" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B967" s="0" t="n">
+        <v>2900010</v>
+      </c>
+      <c r="C967" s="0" t="s">
         <v>1880</v>
       </c>
-      <c r="B967" s="0" t="n">
-        <v>266070</v>
-      </c>
-      <c r="C967" s="0" t="s">
+      <c r="D967" s="0" t="s">
         <v>1881</v>
-      </c>
-      <c r="D967" s="0" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B968" s="0" t="n">
+        <v>266070</v>
+      </c>
+      <c r="C968" s="0" t="s">
         <v>1883</v>
-      </c>
-      <c r="B968" s="0" t="n">
-        <v>241080</v>
-      </c>
-      <c r="C968" s="0" t="s">
-        <v>1884</v>
       </c>
       <c r="D968" s="0" t="s">
         <v>1884</v>
@@ -19935,27 +19941,27 @@
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B969" s="0" t="s">
-        <v>4</v>
+        <v>1885</v>
+      </c>
+      <c r="B969" s="0" t="n">
+        <v>241080</v>
       </c>
       <c r="C969" s="0" t="s">
-        <v>4</v>
+        <v>1886</v>
       </c>
       <c r="D969" s="0" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B970" s="0" t="n">
-        <v>372050</v>
+        <v>4</v>
+      </c>
+      <c r="B970" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C970" s="0" t="s">
-        <v>1887</v>
+        <v>4</v>
       </c>
       <c r="D970" s="0" t="s">
         <v>1887</v>
@@ -19966,7 +19972,7 @@
         <v>1888</v>
       </c>
       <c r="B971" s="0" t="n">
-        <v>275030</v>
+        <v>372050</v>
       </c>
       <c r="C971" s="0" t="s">
         <v>1889</v>
@@ -19980,7 +19986,7 @@
         <v>1890</v>
       </c>
       <c r="B972" s="0" t="n">
-        <v>221310</v>
+        <v>275030</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>1891</v>
@@ -19991,16 +19997,16 @@
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B973" s="0" t="s">
-        <v>4</v>
+        <v>1892</v>
+      </c>
+      <c r="B973" s="0" t="n">
+        <v>221310</v>
       </c>
       <c r="C973" s="0" t="s">
-        <v>4</v>
+        <v>1893</v>
       </c>
       <c r="D973" s="0" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20014,7 +20020,7 @@
         <v>4</v>
       </c>
       <c r="D974" s="0" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20028,7 +20034,7 @@
         <v>4</v>
       </c>
       <c r="D975" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20042,18 +20048,18 @@
         <v>4</v>
       </c>
       <c r="D976" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B977" s="0" t="n">
-        <v>357101</v>
+        <v>4</v>
+      </c>
+      <c r="B977" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C977" s="0" t="s">
-        <v>1897</v>
+        <v>4</v>
       </c>
       <c r="D977" s="0" t="s">
         <v>1897</v>
@@ -20064,24 +20070,24 @@
         <v>1898</v>
       </c>
       <c r="B978" s="0" t="n">
-        <v>341010</v>
+        <v>357101</v>
       </c>
       <c r="C978" s="0" t="s">
         <v>1899</v>
       </c>
       <c r="D978" s="0" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B979" s="0" t="n">
+        <v>341010</v>
+      </c>
+      <c r="C979" s="0" t="s">
         <v>1901</v>
-      </c>
-      <c r="B979" s="0" t="n">
-        <v>-16312160</v>
-      </c>
-      <c r="C979" s="0" t="s">
-        <v>1902</v>
       </c>
       <c r="D979" s="0" t="s">
         <v>1902</v>
@@ -20092,7 +20098,7 @@
         <v>1903</v>
       </c>
       <c r="B980" s="0" t="n">
-        <v>290113</v>
+        <v>-16312160</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>1904</v>
@@ -20106,7 +20112,7 @@
         <v>1905</v>
       </c>
       <c r="B981" s="0" t="n">
-        <v>357081</v>
+        <v>290113</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>1906</v>
@@ -20120,7 +20126,7 @@
         <v>1907</v>
       </c>
       <c r="B982" s="0" t="n">
-        <v>357072</v>
+        <v>357081</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>1908</v>
@@ -20134,7 +20140,7 @@
         <v>1909</v>
       </c>
       <c r="B983" s="0" t="n">
-        <v>358011</v>
+        <v>357072</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>1910</v>
@@ -20148,7 +20154,7 @@
         <v>1911</v>
       </c>
       <c r="B984" s="0" t="n">
-        <v>320100</v>
+        <v>358011</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>1912</v>
@@ -20162,7 +20168,7 @@
         <v>1913</v>
       </c>
       <c r="B985" s="0" t="n">
-        <v>223080</v>
+        <v>320100</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>1914</v>
@@ -20176,24 +20182,24 @@
         <v>1915</v>
       </c>
       <c r="B986" s="0" t="n">
-        <v>214100</v>
+        <v>223080</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>1916</v>
       </c>
       <c r="D986" s="0" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B987" s="0" t="n">
+        <v>214100</v>
+      </c>
+      <c r="C987" s="0" t="s">
         <v>1918</v>
-      </c>
-      <c r="B987" s="0" t="n">
-        <v>221250</v>
-      </c>
-      <c r="C987" s="0" t="s">
-        <v>1919</v>
       </c>
       <c r="D987" s="0" t="s">
         <v>1919</v>
@@ -20204,7 +20210,7 @@
         <v>1920</v>
       </c>
       <c r="B988" s="0" t="n">
-        <v>373040</v>
+        <v>221250</v>
       </c>
       <c r="C988" s="0" t="s">
         <v>1921</v>
@@ -20218,7 +20224,7 @@
         <v>1922</v>
       </c>
       <c r="B989" s="0" t="n">
-        <v>352080</v>
+        <v>373040</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>1923</v>
@@ -20232,7 +20238,7 @@
         <v>1924</v>
       </c>
       <c r="B990" s="0" t="n">
-        <v>302050</v>
+        <v>352080</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>1925</v>
@@ -20246,7 +20252,7 @@
         <v>1926</v>
       </c>
       <c r="B991" s="0" t="n">
-        <v>357010</v>
+        <v>302050</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>1927</v>
@@ -20260,7 +20266,7 @@
         <v>1928</v>
       </c>
       <c r="B992" s="0" t="n">
-        <v>345070</v>
+        <v>357010</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>1929</v>
@@ -20274,7 +20280,7 @@
         <v>1930</v>
       </c>
       <c r="B993" s="0" t="n">
-        <v>354040</v>
+        <v>345070</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>1931</v>
@@ -20288,7 +20294,7 @@
         <v>1932</v>
       </c>
       <c r="B994" s="0" t="n">
-        <v>320031</v>
+        <v>354040</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>1933</v>
@@ -20302,7 +20308,7 @@
         <v>1934</v>
       </c>
       <c r="B995" s="0" t="n">
-        <v>355150</v>
+        <v>320031</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>1935</v>
@@ -20316,7 +20322,7 @@
         <v>1936</v>
       </c>
       <c r="B996" s="0" t="n">
-        <v>300540</v>
+        <v>355150</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>1937</v>
@@ -20330,7 +20336,7 @@
         <v>1938</v>
       </c>
       <c r="B997" s="0" t="n">
-        <v>323160</v>
+        <v>300540</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>1939</v>
@@ -20344,7 +20350,7 @@
         <v>1940</v>
       </c>
       <c r="B998" s="0" t="n">
-        <v>354020</v>
+        <v>323160</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>1941</v>
@@ -20358,7 +20364,7 @@
         <v>1942</v>
       </c>
       <c r="B999" s="0" t="n">
-        <v>300241</v>
+        <v>354020</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>1943</v>
@@ -20372,7 +20378,7 @@
         <v>1944</v>
       </c>
       <c r="B1000" s="0" t="n">
-        <v>302030</v>
+        <v>300241</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>1945</v>
@@ -20386,7 +20392,7 @@
         <v>1946</v>
       </c>
       <c r="B1001" s="0" t="n">
-        <v>312130</v>
+        <v>302030</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>1947</v>
@@ -20400,7 +20406,7 @@
         <v>1948</v>
       </c>
       <c r="B1002" s="0" t="n">
-        <v>329010</v>
+        <v>312130</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>1949</v>
@@ -20414,7 +20420,7 @@
         <v>1950</v>
       </c>
       <c r="B1003" s="0" t="n">
-        <v>300610</v>
+        <v>329010</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>1951</v>
@@ -20428,7 +20434,7 @@
         <v>1952</v>
       </c>
       <c r="B1004" s="0" t="n">
-        <v>312131</v>
+        <v>300610</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>1953</v>
@@ -20442,7 +20448,7 @@
         <v>1954</v>
       </c>
       <c r="B1005" s="0" t="n">
-        <v>300350</v>
+        <v>312131</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>1955</v>
@@ -20453,27 +20459,27 @@
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1006" s="0" t="s">
-        <v>4</v>
+        <v>1956</v>
+      </c>
+      <c r="B1006" s="0" t="n">
+        <v>300350</v>
       </c>
       <c r="C1006" s="0" t="s">
-        <v>4</v>
+        <v>1957</v>
       </c>
       <c r="D1006" s="0" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>1957</v>
-      </c>
-      <c r="B1007" s="0" t="n">
-        <v>311250</v>
+        <v>4</v>
+      </c>
+      <c r="B1007" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1007" s="0" t="s">
-        <v>1958</v>
+        <v>4</v>
       </c>
       <c r="D1007" s="0" t="s">
         <v>1958</v>
@@ -20484,7 +20490,7 @@
         <v>1959</v>
       </c>
       <c r="B1008" s="0" t="n">
-        <v>306030</v>
+        <v>311250</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>1960</v>
@@ -20495,27 +20501,27 @@
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1009" s="0" t="s">
-        <v>4</v>
+        <v>1961</v>
+      </c>
+      <c r="B1009" s="0" t="n">
+        <v>306030</v>
       </c>
       <c r="C1009" s="0" t="s">
-        <v>4</v>
+        <v>1962</v>
       </c>
       <c r="D1009" s="0" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B1010" s="0" t="n">
-        <v>263230</v>
+        <v>4</v>
+      </c>
+      <c r="B1010" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>1963</v>
+        <v>4</v>
       </c>
       <c r="D1010" s="0" t="s">
         <v>1963</v>
@@ -20523,27 +20529,27 @@
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1011" s="0" t="s">
-        <v>4</v>
+        <v>1964</v>
+      </c>
+      <c r="B1011" s="0" t="n">
+        <v>263230</v>
       </c>
       <c r="C1011" s="0" t="s">
-        <v>4</v>
+        <v>1965</v>
       </c>
       <c r="D1011" s="0" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B1012" s="0" t="n">
-        <v>290191</v>
+        <v>4</v>
+      </c>
+      <c r="B1012" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1012" s="0" t="s">
-        <v>1966</v>
+        <v>4</v>
       </c>
       <c r="D1012" s="0" t="s">
         <v>1966</v>
@@ -20554,7 +20560,7 @@
         <v>1967</v>
       </c>
       <c r="B1013" s="0" t="n">
-        <v>300261</v>
+        <v>290191</v>
       </c>
       <c r="C1013" s="0" t="s">
         <v>1968</v>
@@ -20568,24 +20574,24 @@
         <v>1969</v>
       </c>
       <c r="B1014" s="0" t="n">
-        <v>343081</v>
+        <v>300261</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>1970</v>
       </c>
       <c r="D1014" s="0" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1015" s="0" t="n">
+        <v>343081</v>
+      </c>
+      <c r="C1015" s="0" t="s">
         <v>1972</v>
-      </c>
-      <c r="B1015" s="0" t="n">
-        <v>355838</v>
-      </c>
-      <c r="C1015" s="0" t="s">
-        <v>1973</v>
       </c>
       <c r="D1015" s="0" t="s">
         <v>1973</v>
@@ -20596,7 +20602,7 @@
         <v>1974</v>
       </c>
       <c r="B1016" s="0" t="n">
-        <v>300170</v>
+        <v>355838</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>1975</v>
@@ -20610,7 +20616,7 @@
         <v>1976</v>
       </c>
       <c r="B1017" s="0" t="n">
-        <v>300121</v>
+        <v>300170</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>1977</v>
@@ -20624,7 +20630,7 @@
         <v>1978</v>
       </c>
       <c r="B1018" s="0" t="n">
-        <v>300440</v>
+        <v>300121</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>1979</v>
@@ -20638,7 +20644,7 @@
         <v>1980</v>
       </c>
       <c r="B1019" s="0" t="n">
-        <v>372010</v>
+        <v>300440</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>1981</v>
@@ -20652,7 +20658,7 @@
         <v>1982</v>
       </c>
       <c r="B1020" s="0" t="n">
-        <v>211010</v>
+        <v>372010</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>1983</v>
@@ -20663,27 +20669,27 @@
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1021" s="0" t="s">
-        <v>4</v>
+        <v>1984</v>
+      </c>
+      <c r="B1021" s="0" t="n">
+        <v>211010</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>4</v>
+        <v>1985</v>
       </c>
       <c r="D1021" s="0" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B1022" s="0" t="n">
-        <v>358061</v>
+        <v>4</v>
+      </c>
+      <c r="B1022" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1022" s="0" t="s">
-        <v>1986</v>
+        <v>4</v>
       </c>
       <c r="D1022" s="0" t="s">
         <v>1986</v>
@@ -20694,7 +20700,7 @@
         <v>1987</v>
       </c>
       <c r="B1023" s="0" t="n">
-        <v>357120</v>
+        <v>358061</v>
       </c>
       <c r="C1023" s="0" t="s">
         <v>1988</v>
@@ -20708,7 +20714,7 @@
         <v>1989</v>
       </c>
       <c r="B1024" s="0" t="n">
-        <v>300083</v>
+        <v>357120</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>1990</v>
@@ -20722,7 +20728,7 @@
         <v>1991</v>
       </c>
       <c r="B1025" s="0" t="n">
-        <v>223050</v>
+        <v>300083</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>1992</v>
@@ -20736,7 +20742,7 @@
         <v>1993</v>
       </c>
       <c r="B1026" s="0" t="n">
-        <v>300059</v>
+        <v>223050</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>1994</v>
@@ -20750,24 +20756,24 @@
         <v>1995</v>
       </c>
       <c r="B1027" s="0" t="n">
-        <v>344140</v>
+        <v>300059</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>1996</v>
       </c>
       <c r="D1027" s="0" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1028" s="0" t="n">
+        <v>344140</v>
+      </c>
+      <c r="C1028" s="0" t="s">
         <v>1998</v>
-      </c>
-      <c r="B1028" s="0" t="n">
-        <v>300720</v>
-      </c>
-      <c r="C1028" s="0" t="s">
-        <v>1999</v>
       </c>
       <c r="D1028" s="0" t="s">
         <v>1999</v>
@@ -20778,7 +20784,7 @@
         <v>2000</v>
       </c>
       <c r="B1029" s="0" t="n">
-        <v>211050</v>
+        <v>300720</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>2001</v>
@@ -20792,7 +20798,7 @@
         <v>2002</v>
       </c>
       <c r="B1030" s="0" t="n">
-        <v>211003</v>
+        <v>211050</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>2003</v>
@@ -20806,7 +20812,7 @@
         <v>2004</v>
       </c>
       <c r="B1031" s="0" t="n">
-        <v>300221</v>
+        <v>211003</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>2005</v>
@@ -20817,27 +20823,27 @@
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1032" s="0" t="s">
-        <v>4</v>
+        <v>2006</v>
+      </c>
+      <c r="B1032" s="0" t="n">
+        <v>300221</v>
       </c>
       <c r="C1032" s="0" t="s">
-        <v>4</v>
+        <v>2007</v>
       </c>
       <c r="D1032" s="0" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B1033" s="0" t="n">
-        <v>264060</v>
+        <v>4</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1033" s="0" t="s">
-        <v>2008</v>
+        <v>4</v>
       </c>
       <c r="D1033" s="0" t="s">
         <v>2008</v>
@@ -20848,7 +20854,7 @@
         <v>2009</v>
       </c>
       <c r="B1034" s="0" t="n">
-        <v>324030</v>
+        <v>264060</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>2010</v>
@@ -20859,27 +20865,27 @@
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1035" s="0" t="s">
-        <v>4</v>
+        <v>2011</v>
+      </c>
+      <c r="B1035" s="0" t="n">
+        <v>324030</v>
       </c>
       <c r="C1035" s="0" t="s">
-        <v>4</v>
+        <v>2012</v>
       </c>
       <c r="D1035" s="0" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B1036" s="0" t="n">
-        <v>320150</v>
+        <v>4</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1036" s="0" t="s">
-        <v>2013</v>
+        <v>4</v>
       </c>
       <c r="D1036" s="0" t="s">
         <v>2013</v>
@@ -20890,7 +20896,7 @@
         <v>2014</v>
       </c>
       <c r="B1037" s="0" t="n">
-        <v>321060</v>
+        <v>320150</v>
       </c>
       <c r="C1037" s="0" t="s">
         <v>2015</v>
@@ -20904,7 +20910,7 @@
         <v>2016</v>
       </c>
       <c r="B1038" s="0" t="n">
-        <v>311340</v>
+        <v>321060</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>2017</v>
@@ -20918,7 +20924,7 @@
         <v>2018</v>
       </c>
       <c r="B1039" s="0" t="n">
-        <v>210010</v>
+        <v>311340</v>
       </c>
       <c r="C1039" s="0" t="s">
         <v>2019</v>
@@ -20932,7 +20938,7 @@
         <v>2020</v>
       </c>
       <c r="B1040" s="0" t="n">
-        <v>241011</v>
+        <v>210010</v>
       </c>
       <c r="C1040" s="0" t="s">
         <v>2021</v>
@@ -20946,7 +20952,7 @@
         <v>2022</v>
       </c>
       <c r="B1041" s="0" t="n">
-        <v>241040</v>
+        <v>241011</v>
       </c>
       <c r="C1041" s="0" t="s">
         <v>2023</v>
@@ -20960,7 +20966,7 @@
         <v>2024</v>
       </c>
       <c r="B1042" s="0" t="n">
-        <v>263270</v>
+        <v>241040</v>
       </c>
       <c r="C1042" s="0" t="s">
         <v>2025</v>
@@ -20971,27 +20977,27 @@
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1043" s="0" t="s">
-        <v>4</v>
+        <v>2026</v>
+      </c>
+      <c r="B1043" s="0" t="n">
+        <v>263270</v>
       </c>
       <c r="C1043" s="0" t="s">
-        <v>4</v>
+        <v>2027</v>
       </c>
       <c r="D1043" s="0" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>2027</v>
-      </c>
-      <c r="B1044" s="0" t="n">
-        <v>353020</v>
+        <v>4</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1044" s="0" t="s">
-        <v>2028</v>
+        <v>4</v>
       </c>
       <c r="D1044" s="0" t="s">
         <v>2028</v>
@@ -20999,27 +21005,27 @@
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1045" s="0" t="s">
-        <v>4</v>
+        <v>2029</v>
+      </c>
+      <c r="B1045" s="0" t="n">
+        <v>353020</v>
       </c>
       <c r="C1045" s="0" t="s">
-        <v>4</v>
+        <v>2030</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>2030</v>
-      </c>
-      <c r="B1046" s="0" t="n">
-        <v>212051</v>
+        <v>4</v>
+      </c>
+      <c r="B1046" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1046" s="0" t="s">
-        <v>2031</v>
+        <v>4</v>
       </c>
       <c r="D1046" s="0" t="s">
         <v>2031</v>
@@ -21030,7 +21036,7 @@
         <v>2032</v>
       </c>
       <c r="B1047" s="0" t="n">
-        <v>221151</v>
+        <v>212051</v>
       </c>
       <c r="C1047" s="0" t="s">
         <v>2033</v>
@@ -21044,7 +21050,7 @@
         <v>2034</v>
       </c>
       <c r="B1048" s="0" t="n">
-        <v>312100</v>
+        <v>221151</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>2035</v>
@@ -21058,7 +21064,7 @@
         <v>2036</v>
       </c>
       <c r="B1049" s="0" t="n">
-        <v>358049</v>
+        <v>312100</v>
       </c>
       <c r="C1049" s="0" t="s">
         <v>2037</v>
@@ -21069,27 +21075,27 @@
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1050" s="0" t="s">
-        <v>4</v>
+        <v>2038</v>
+      </c>
+      <c r="B1050" s="0" t="n">
+        <v>358049</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>4</v>
+        <v>2039</v>
       </c>
       <c r="D1050" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>2039</v>
-      </c>
-      <c r="B1051" s="0" t="n">
-        <v>358022</v>
+        <v>4</v>
+      </c>
+      <c r="B1051" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>2040</v>
+        <v>4</v>
       </c>
       <c r="D1051" s="0" t="s">
         <v>2040</v>
@@ -21100,7 +21106,7 @@
         <v>2041</v>
       </c>
       <c r="B1052" s="0" t="n">
-        <v>300021</v>
+        <v>358022</v>
       </c>
       <c r="C1052" s="0" t="s">
         <v>2042</v>
@@ -21114,7 +21120,7 @@
         <v>2043</v>
       </c>
       <c r="B1053" s="0" t="n">
-        <v>325010</v>
+        <v>300021</v>
       </c>
       <c r="C1053" s="0" t="s">
         <v>2044</v>
@@ -21125,16 +21131,16 @@
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1054" s="0" t="s">
-        <v>4</v>
+        <v>2045</v>
+      </c>
+      <c r="B1054" s="0" t="n">
+        <v>325010</v>
       </c>
       <c r="C1054" s="0" t="s">
-        <v>4</v>
+        <v>2046</v>
       </c>
       <c r="D1054" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21148,7 +21154,7 @@
         <v>4</v>
       </c>
       <c r="D1055" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21162,7 +21168,7 @@
         <v>4</v>
       </c>
       <c r="D1056" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21176,18 +21182,18 @@
         <v>4</v>
       </c>
       <c r="D1057" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="0" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B1058" s="0" t="n">
-        <v>354050</v>
+        <v>4</v>
+      </c>
+      <c r="B1058" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1058" s="0" t="s">
-        <v>2050</v>
+        <v>4</v>
       </c>
       <c r="D1058" s="0" t="s">
         <v>2050</v>
@@ -21195,27 +21201,27 @@
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1059" s="0" t="s">
-        <v>4</v>
+        <v>2051</v>
+      </c>
+      <c r="B1059" s="0" t="n">
+        <v>354050</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>4</v>
+        <v>2052</v>
       </c>
       <c r="D1059" s="0" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B1060" s="0" t="n">
-        <v>311210</v>
+        <v>4</v>
+      </c>
+      <c r="B1060" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>2053</v>
+        <v>4</v>
       </c>
       <c r="D1060" s="0" t="s">
         <v>2053</v>
@@ -21223,27 +21229,27 @@
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1061" s="0" t="s">
-        <v>4</v>
+        <v>2054</v>
+      </c>
+      <c r="B1061" s="0" t="n">
+        <v>311210</v>
       </c>
       <c r="C1061" s="0" t="s">
-        <v>4</v>
+        <v>2055</v>
       </c>
       <c r="D1061" s="0" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B1062" s="0" t="n">
-        <v>300480</v>
+        <v>4</v>
+      </c>
+      <c r="B1062" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1062" s="0" t="s">
-        <v>2056</v>
+        <v>4</v>
       </c>
       <c r="D1062" s="0" t="s">
         <v>2056</v>
@@ -21254,7 +21260,7 @@
         <v>2057</v>
       </c>
       <c r="B1063" s="0" t="n">
-        <v>344111</v>
+        <v>300480</v>
       </c>
       <c r="C1063" s="0" t="s">
         <v>2058</v>
@@ -21268,7 +21274,7 @@
         <v>2059</v>
       </c>
       <c r="B1064" s="0" t="n">
-        <v>300124</v>
+        <v>344111</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>2060</v>
@@ -21282,7 +21288,7 @@
         <v>2061</v>
       </c>
       <c r="B1065" s="0" t="n">
-        <v>290180</v>
+        <v>300124</v>
       </c>
       <c r="C1065" s="0" t="s">
         <v>2062</v>
@@ -21296,7 +21302,7 @@
         <v>2063</v>
       </c>
       <c r="B1066" s="0" t="n">
-        <v>300040</v>
+        <v>290180</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>2064</v>
@@ -21310,7 +21316,7 @@
         <v>2065</v>
       </c>
       <c r="B1067" s="0" t="n">
-        <v>300120</v>
+        <v>300040</v>
       </c>
       <c r="C1067" s="0" t="s">
         <v>2066</v>
@@ -21324,7 +21330,7 @@
         <v>2067</v>
       </c>
       <c r="B1068" s="0" t="n">
-        <v>300242</v>
+        <v>300120</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>2068</v>
@@ -21338,24 +21344,24 @@
         <v>2069</v>
       </c>
       <c r="B1069" s="0" t="n">
-        <v>341061</v>
+        <v>300242</v>
       </c>
       <c r="C1069" s="0" t="s">
         <v>2070</v>
       </c>
       <c r="D1069" s="0" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1070" s="0" t="n">
+        <v>341061</v>
+      </c>
+      <c r="C1070" s="0" t="s">
         <v>2072</v>
-      </c>
-      <c r="B1070" s="0" t="n">
-        <v>221021</v>
-      </c>
-      <c r="C1070" s="0" t="s">
-        <v>2073</v>
       </c>
       <c r="D1070" s="0" t="s">
         <v>2073</v>
@@ -21366,13 +21372,27 @@
         <v>2074</v>
       </c>
       <c r="B1071" s="0" t="n">
-        <v>327120</v>
+        <v>221021</v>
       </c>
       <c r="C1071" s="0" t="s">
         <v>2075</v>
       </c>
       <c r="D1071" s="0" t="s">
         <v>2075</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="0" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1072" s="0" t="n">
+        <v>327120</v>
+      </c>
+      <c r="C1072" s="0" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1072" s="0" t="s">
+        <v>2077</v>
       </c>
     </row>
   </sheetData>

--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="2078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="2080">
   <si>
     <t xml:space="preserve">db_name</t>
   </si>
@@ -5636,6 +5636,12 @@
   </si>
   <si>
     <t xml:space="preserve">tolbachik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tofua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tofua</t>
   </si>
   <si>
     <t xml:space="preserve">Tolhuaca</t>
@@ -6360,10 +6366,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1072"/>
+  <dimension ref="A1:F1073"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A490" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F539" activeCellId="0" sqref="F539"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A916" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D964" activeCellId="0" sqref="D964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19874,7 +19880,7 @@
         <v>1872</v>
       </c>
       <c r="B964" s="0" t="n">
-        <v>357093</v>
+        <v>243060</v>
       </c>
       <c r="C964" s="0" t="s">
         <v>1873</v>
@@ -19888,24 +19894,24 @@
         <v>1874</v>
       </c>
       <c r="B965" s="0" t="n">
-        <v>342070</v>
+        <v>357093</v>
       </c>
       <c r="C965" s="0" t="s">
         <v>1875</v>
       </c>
       <c r="D965" s="0" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B966" s="0" t="n">
+        <v>342070</v>
+      </c>
+      <c r="C966" s="0" t="s">
         <v>1877</v>
-      </c>
-      <c r="B966" s="0" t="n">
-        <v>300082</v>
-      </c>
-      <c r="C966" s="0" t="s">
-        <v>1878</v>
       </c>
       <c r="D966" s="0" t="s">
         <v>1878</v>
@@ -19916,38 +19922,38 @@
         <v>1879</v>
       </c>
       <c r="B967" s="0" t="n">
-        <v>2900010</v>
+        <v>300082</v>
       </c>
       <c r="C967" s="0" t="s">
         <v>1880</v>
       </c>
       <c r="D967" s="0" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B968" s="0" t="n">
+        <v>2900010</v>
+      </c>
+      <c r="C968" s="0" t="s">
         <v>1882</v>
       </c>
-      <c r="B968" s="0" t="n">
-        <v>266070</v>
-      </c>
-      <c r="C968" s="0" t="s">
+      <c r="D968" s="0" t="s">
         <v>1883</v>
-      </c>
-      <c r="D968" s="0" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B969" s="0" t="n">
+        <v>266070</v>
+      </c>
+      <c r="C969" s="0" t="s">
         <v>1885</v>
-      </c>
-      <c r="B969" s="0" t="n">
-        <v>241080</v>
-      </c>
-      <c r="C969" s="0" t="s">
-        <v>1886</v>
       </c>
       <c r="D969" s="0" t="s">
         <v>1886</v>
@@ -19955,27 +19961,27 @@
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B970" s="0" t="s">
-        <v>4</v>
+        <v>1887</v>
+      </c>
+      <c r="B970" s="0" t="n">
+        <v>241080</v>
       </c>
       <c r="C970" s="0" t="s">
-        <v>4</v>
+        <v>1888</v>
       </c>
       <c r="D970" s="0" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B971" s="0" t="n">
-        <v>372050</v>
+        <v>4</v>
+      </c>
+      <c r="B971" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C971" s="0" t="s">
-        <v>1889</v>
+        <v>4</v>
       </c>
       <c r="D971" s="0" t="s">
         <v>1889</v>
@@ -19986,7 +19992,7 @@
         <v>1890</v>
       </c>
       <c r="B972" s="0" t="n">
-        <v>275030</v>
+        <v>372050</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>1891</v>
@@ -20000,7 +20006,7 @@
         <v>1892</v>
       </c>
       <c r="B973" s="0" t="n">
-        <v>221310</v>
+        <v>275030</v>
       </c>
       <c r="C973" s="0" t="s">
         <v>1893</v>
@@ -20011,16 +20017,16 @@
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B974" s="0" t="s">
-        <v>4</v>
+        <v>1894</v>
+      </c>
+      <c r="B974" s="0" t="n">
+        <v>221310</v>
       </c>
       <c r="C974" s="0" t="s">
-        <v>4</v>
+        <v>1895</v>
       </c>
       <c r="D974" s="0" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20034,7 +20040,7 @@
         <v>4</v>
       </c>
       <c r="D975" s="0" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20048,7 +20054,7 @@
         <v>4</v>
       </c>
       <c r="D976" s="0" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20062,18 +20068,18 @@
         <v>4</v>
       </c>
       <c r="D977" s="0" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B978" s="0" t="n">
-        <v>357101</v>
+        <v>4</v>
+      </c>
+      <c r="B978" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C978" s="0" t="s">
-        <v>1899</v>
+        <v>4</v>
       </c>
       <c r="D978" s="0" t="s">
         <v>1899</v>
@@ -20084,24 +20090,24 @@
         <v>1900</v>
       </c>
       <c r="B979" s="0" t="n">
-        <v>341010</v>
+        <v>357101</v>
       </c>
       <c r="C979" s="0" t="s">
         <v>1901</v>
       </c>
       <c r="D979" s="0" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B980" s="0" t="n">
+        <v>341010</v>
+      </c>
+      <c r="C980" s="0" t="s">
         <v>1903</v>
-      </c>
-      <c r="B980" s="0" t="n">
-        <v>-16312160</v>
-      </c>
-      <c r="C980" s="0" t="s">
-        <v>1904</v>
       </c>
       <c r="D980" s="0" t="s">
         <v>1904</v>
@@ -20112,7 +20118,7 @@
         <v>1905</v>
       </c>
       <c r="B981" s="0" t="n">
-        <v>290113</v>
+        <v>-16312160</v>
       </c>
       <c r="C981" s="0" t="s">
         <v>1906</v>
@@ -20126,7 +20132,7 @@
         <v>1907</v>
       </c>
       <c r="B982" s="0" t="n">
-        <v>357081</v>
+        <v>290113</v>
       </c>
       <c r="C982" s="0" t="s">
         <v>1908</v>
@@ -20140,7 +20146,7 @@
         <v>1909</v>
       </c>
       <c r="B983" s="0" t="n">
-        <v>357072</v>
+        <v>357081</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>1910</v>
@@ -20154,7 +20160,7 @@
         <v>1911</v>
       </c>
       <c r="B984" s="0" t="n">
-        <v>358011</v>
+        <v>357072</v>
       </c>
       <c r="C984" s="0" t="s">
         <v>1912</v>
@@ -20168,7 +20174,7 @@
         <v>1913</v>
       </c>
       <c r="B985" s="0" t="n">
-        <v>320100</v>
+        <v>358011</v>
       </c>
       <c r="C985" s="0" t="s">
         <v>1914</v>
@@ -20182,7 +20188,7 @@
         <v>1915</v>
       </c>
       <c r="B986" s="0" t="n">
-        <v>223080</v>
+        <v>320100</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>1916</v>
@@ -20196,24 +20202,24 @@
         <v>1917</v>
       </c>
       <c r="B987" s="0" t="n">
-        <v>214100</v>
+        <v>223080</v>
       </c>
       <c r="C987" s="0" t="s">
         <v>1918</v>
       </c>
       <c r="D987" s="0" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B988" s="0" t="n">
+        <v>214100</v>
+      </c>
+      <c r="C988" s="0" t="s">
         <v>1920</v>
-      </c>
-      <c r="B988" s="0" t="n">
-        <v>221250</v>
-      </c>
-      <c r="C988" s="0" t="s">
-        <v>1921</v>
       </c>
       <c r="D988" s="0" t="s">
         <v>1921</v>
@@ -20224,7 +20230,7 @@
         <v>1922</v>
       </c>
       <c r="B989" s="0" t="n">
-        <v>373040</v>
+        <v>221250</v>
       </c>
       <c r="C989" s="0" t="s">
         <v>1923</v>
@@ -20238,7 +20244,7 @@
         <v>1924</v>
       </c>
       <c r="B990" s="0" t="n">
-        <v>352080</v>
+        <v>373040</v>
       </c>
       <c r="C990" s="0" t="s">
         <v>1925</v>
@@ -20252,7 +20258,7 @@
         <v>1926</v>
       </c>
       <c r="B991" s="0" t="n">
-        <v>302050</v>
+        <v>352080</v>
       </c>
       <c r="C991" s="0" t="s">
         <v>1927</v>
@@ -20266,7 +20272,7 @@
         <v>1928</v>
       </c>
       <c r="B992" s="0" t="n">
-        <v>357010</v>
+        <v>302050</v>
       </c>
       <c r="C992" s="0" t="s">
         <v>1929</v>
@@ -20280,7 +20286,7 @@
         <v>1930</v>
       </c>
       <c r="B993" s="0" t="n">
-        <v>345070</v>
+        <v>357010</v>
       </c>
       <c r="C993" s="0" t="s">
         <v>1931</v>
@@ -20294,7 +20300,7 @@
         <v>1932</v>
       </c>
       <c r="B994" s="0" t="n">
-        <v>354040</v>
+        <v>345070</v>
       </c>
       <c r="C994" s="0" t="s">
         <v>1933</v>
@@ -20308,7 +20314,7 @@
         <v>1934</v>
       </c>
       <c r="B995" s="0" t="n">
-        <v>320031</v>
+        <v>354040</v>
       </c>
       <c r="C995" s="0" t="s">
         <v>1935</v>
@@ -20322,7 +20328,7 @@
         <v>1936</v>
       </c>
       <c r="B996" s="0" t="n">
-        <v>355150</v>
+        <v>320031</v>
       </c>
       <c r="C996" s="0" t="s">
         <v>1937</v>
@@ -20336,7 +20342,7 @@
         <v>1938</v>
       </c>
       <c r="B997" s="0" t="n">
-        <v>300540</v>
+        <v>355150</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>1939</v>
@@ -20350,7 +20356,7 @@
         <v>1940</v>
       </c>
       <c r="B998" s="0" t="n">
-        <v>323160</v>
+        <v>300540</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>1941</v>
@@ -20364,7 +20370,7 @@
         <v>1942</v>
       </c>
       <c r="B999" s="0" t="n">
-        <v>354020</v>
+        <v>323160</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>1943</v>
@@ -20378,7 +20384,7 @@
         <v>1944</v>
       </c>
       <c r="B1000" s="0" t="n">
-        <v>300241</v>
+        <v>354020</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>1945</v>
@@ -20392,7 +20398,7 @@
         <v>1946</v>
       </c>
       <c r="B1001" s="0" t="n">
-        <v>302030</v>
+        <v>300241</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>1947</v>
@@ -20406,7 +20412,7 @@
         <v>1948</v>
       </c>
       <c r="B1002" s="0" t="n">
-        <v>312130</v>
+        <v>302030</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>1949</v>
@@ -20420,7 +20426,7 @@
         <v>1950</v>
       </c>
       <c r="B1003" s="0" t="n">
-        <v>329010</v>
+        <v>312130</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>1951</v>
@@ -20434,7 +20440,7 @@
         <v>1952</v>
       </c>
       <c r="B1004" s="0" t="n">
-        <v>300610</v>
+        <v>329010</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>1953</v>
@@ -20448,7 +20454,7 @@
         <v>1954</v>
       </c>
       <c r="B1005" s="0" t="n">
-        <v>312131</v>
+        <v>300610</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>1955</v>
@@ -20462,7 +20468,7 @@
         <v>1956</v>
       </c>
       <c r="B1006" s="0" t="n">
-        <v>300350</v>
+        <v>312131</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>1957</v>
@@ -20473,27 +20479,27 @@
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1007" s="0" t="s">
-        <v>4</v>
+        <v>1958</v>
+      </c>
+      <c r="B1007" s="0" t="n">
+        <v>300350</v>
       </c>
       <c r="C1007" s="0" t="s">
-        <v>4</v>
+        <v>1959</v>
       </c>
       <c r="D1007" s="0" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B1008" s="0" t="n">
-        <v>311250</v>
+        <v>4</v>
+      </c>
+      <c r="B1008" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1008" s="0" t="s">
-        <v>1960</v>
+        <v>4</v>
       </c>
       <c r="D1008" s="0" t="s">
         <v>1960</v>
@@ -20504,7 +20510,7 @@
         <v>1961</v>
       </c>
       <c r="B1009" s="0" t="n">
-        <v>306030</v>
+        <v>311250</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>1962</v>
@@ -20515,27 +20521,27 @@
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1010" s="0" t="s">
-        <v>4</v>
+        <v>1963</v>
+      </c>
+      <c r="B1010" s="0" t="n">
+        <v>306030</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>4</v>
+        <v>1964</v>
       </c>
       <c r="D1010" s="0" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1964</v>
-      </c>
-      <c r="B1011" s="0" t="n">
-        <v>263230</v>
+        <v>4</v>
+      </c>
+      <c r="B1011" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1011" s="0" t="s">
-        <v>1965</v>
+        <v>4</v>
       </c>
       <c r="D1011" s="0" t="s">
         <v>1965</v>
@@ -20543,27 +20549,27 @@
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1012" s="0" t="s">
-        <v>4</v>
+        <v>1966</v>
+      </c>
+      <c r="B1012" s="0" t="n">
+        <v>263230</v>
       </c>
       <c r="C1012" s="0" t="s">
-        <v>4</v>
+        <v>1967</v>
       </c>
       <c r="D1012" s="0" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1967</v>
-      </c>
-      <c r="B1013" s="0" t="n">
-        <v>290191</v>
+        <v>4</v>
+      </c>
+      <c r="B1013" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1013" s="0" t="s">
-        <v>1968</v>
+        <v>4</v>
       </c>
       <c r="D1013" s="0" t="s">
         <v>1968</v>
@@ -20574,7 +20580,7 @@
         <v>1969</v>
       </c>
       <c r="B1014" s="0" t="n">
-        <v>300261</v>
+        <v>290191</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>1970</v>
@@ -20588,24 +20594,24 @@
         <v>1971</v>
       </c>
       <c r="B1015" s="0" t="n">
-        <v>343081</v>
+        <v>300261</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>1972</v>
       </c>
       <c r="D1015" s="0" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1016" s="0" t="n">
+        <v>343081</v>
+      </c>
+      <c r="C1016" s="0" t="s">
         <v>1974</v>
-      </c>
-      <c r="B1016" s="0" t="n">
-        <v>355838</v>
-      </c>
-      <c r="C1016" s="0" t="s">
-        <v>1975</v>
       </c>
       <c r="D1016" s="0" t="s">
         <v>1975</v>
@@ -20616,7 +20622,7 @@
         <v>1976</v>
       </c>
       <c r="B1017" s="0" t="n">
-        <v>300170</v>
+        <v>355838</v>
       </c>
       <c r="C1017" s="0" t="s">
         <v>1977</v>
@@ -20630,7 +20636,7 @@
         <v>1978</v>
       </c>
       <c r="B1018" s="0" t="n">
-        <v>300121</v>
+        <v>300170</v>
       </c>
       <c r="C1018" s="0" t="s">
         <v>1979</v>
@@ -20644,7 +20650,7 @@
         <v>1980</v>
       </c>
       <c r="B1019" s="0" t="n">
-        <v>300440</v>
+        <v>300121</v>
       </c>
       <c r="C1019" s="0" t="s">
         <v>1981</v>
@@ -20658,7 +20664,7 @@
         <v>1982</v>
       </c>
       <c r="B1020" s="0" t="n">
-        <v>372010</v>
+        <v>300440</v>
       </c>
       <c r="C1020" s="0" t="s">
         <v>1983</v>
@@ -20672,7 +20678,7 @@
         <v>1984</v>
       </c>
       <c r="B1021" s="0" t="n">
-        <v>211010</v>
+        <v>372010</v>
       </c>
       <c r="C1021" s="0" t="s">
         <v>1985</v>
@@ -20683,27 +20689,27 @@
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1022" s="0" t="s">
-        <v>4</v>
+        <v>1986</v>
+      </c>
+      <c r="B1022" s="0" t="n">
+        <v>211010</v>
       </c>
       <c r="C1022" s="0" t="s">
-        <v>4</v>
+        <v>1987</v>
       </c>
       <c r="D1022" s="0" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B1023" s="0" t="n">
-        <v>358061</v>
+        <v>4</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1023" s="0" t="s">
-        <v>1988</v>
+        <v>4</v>
       </c>
       <c r="D1023" s="0" t="s">
         <v>1988</v>
@@ -20714,7 +20720,7 @@
         <v>1989</v>
       </c>
       <c r="B1024" s="0" t="n">
-        <v>357120</v>
+        <v>358061</v>
       </c>
       <c r="C1024" s="0" t="s">
         <v>1990</v>
@@ -20728,7 +20734,7 @@
         <v>1991</v>
       </c>
       <c r="B1025" s="0" t="n">
-        <v>300083</v>
+        <v>357120</v>
       </c>
       <c r="C1025" s="0" t="s">
         <v>1992</v>
@@ -20742,7 +20748,7 @@
         <v>1993</v>
       </c>
       <c r="B1026" s="0" t="n">
-        <v>223050</v>
+        <v>300083</v>
       </c>
       <c r="C1026" s="0" t="s">
         <v>1994</v>
@@ -20756,7 +20762,7 @@
         <v>1995</v>
       </c>
       <c r="B1027" s="0" t="n">
-        <v>300059</v>
+        <v>223050</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>1996</v>
@@ -20770,24 +20776,24 @@
         <v>1997</v>
       </c>
       <c r="B1028" s="0" t="n">
-        <v>344140</v>
+        <v>300059</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>1998</v>
       </c>
       <c r="D1028" s="0" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1029" s="0" t="n">
+        <v>344140</v>
+      </c>
+      <c r="C1029" s="0" t="s">
         <v>2000</v>
-      </c>
-      <c r="B1029" s="0" t="n">
-        <v>300720</v>
-      </c>
-      <c r="C1029" s="0" t="s">
-        <v>2001</v>
       </c>
       <c r="D1029" s="0" t="s">
         <v>2001</v>
@@ -20798,7 +20804,7 @@
         <v>2002</v>
       </c>
       <c r="B1030" s="0" t="n">
-        <v>211050</v>
+        <v>300720</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>2003</v>
@@ -20812,7 +20818,7 @@
         <v>2004</v>
       </c>
       <c r="B1031" s="0" t="n">
-        <v>211003</v>
+        <v>211050</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>2005</v>
@@ -20826,7 +20832,7 @@
         <v>2006</v>
       </c>
       <c r="B1032" s="0" t="n">
-        <v>300221</v>
+        <v>211003</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>2007</v>
@@ -20837,27 +20843,27 @@
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1033" s="0" t="s">
-        <v>4</v>
+        <v>2008</v>
+      </c>
+      <c r="B1033" s="0" t="n">
+        <v>300221</v>
       </c>
       <c r="C1033" s="0" t="s">
-        <v>4</v>
+        <v>2009</v>
       </c>
       <c r="D1033" s="0" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>2009</v>
-      </c>
-      <c r="B1034" s="0" t="n">
-        <v>264060</v>
+        <v>4</v>
+      </c>
+      <c r="B1034" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1034" s="0" t="s">
-        <v>2010</v>
+        <v>4</v>
       </c>
       <c r="D1034" s="0" t="s">
         <v>2010</v>
@@ -20868,7 +20874,7 @@
         <v>2011</v>
       </c>
       <c r="B1035" s="0" t="n">
-        <v>324030</v>
+        <v>264060</v>
       </c>
       <c r="C1035" s="0" t="s">
         <v>2012</v>
@@ -20879,27 +20885,27 @@
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1036" s="0" t="s">
-        <v>4</v>
+        <v>2013</v>
+      </c>
+      <c r="B1036" s="0" t="n">
+        <v>324030</v>
       </c>
       <c r="C1036" s="0" t="s">
-        <v>4</v>
+        <v>2014</v>
       </c>
       <c r="D1036" s="0" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B1037" s="0" t="n">
-        <v>320150</v>
+        <v>4</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1037" s="0" t="s">
-        <v>2015</v>
+        <v>4</v>
       </c>
       <c r="D1037" s="0" t="s">
         <v>2015</v>
@@ -20910,7 +20916,7 @@
         <v>2016</v>
       </c>
       <c r="B1038" s="0" t="n">
-        <v>321060</v>
+        <v>320150</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>2017</v>
@@ -20924,7 +20930,7 @@
         <v>2018</v>
       </c>
       <c r="B1039" s="0" t="n">
-        <v>311340</v>
+        <v>321060</v>
       </c>
       <c r="C1039" s="0" t="s">
         <v>2019</v>
@@ -20938,7 +20944,7 @@
         <v>2020</v>
       </c>
       <c r="B1040" s="0" t="n">
-        <v>210010</v>
+        <v>311340</v>
       </c>
       <c r="C1040" s="0" t="s">
         <v>2021</v>
@@ -20952,7 +20958,7 @@
         <v>2022</v>
       </c>
       <c r="B1041" s="0" t="n">
-        <v>241011</v>
+        <v>210010</v>
       </c>
       <c r="C1041" s="0" t="s">
         <v>2023</v>
@@ -20966,7 +20972,7 @@
         <v>2024</v>
       </c>
       <c r="B1042" s="0" t="n">
-        <v>241040</v>
+        <v>241011</v>
       </c>
       <c r="C1042" s="0" t="s">
         <v>2025</v>
@@ -20980,7 +20986,7 @@
         <v>2026</v>
       </c>
       <c r="B1043" s="0" t="n">
-        <v>263270</v>
+        <v>241040</v>
       </c>
       <c r="C1043" s="0" t="s">
         <v>2027</v>
@@ -20991,27 +20997,27 @@
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1044" s="0" t="s">
-        <v>4</v>
+        <v>2028</v>
+      </c>
+      <c r="B1044" s="0" t="n">
+        <v>263270</v>
       </c>
       <c r="C1044" s="0" t="s">
-        <v>4</v>
+        <v>2029</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B1045" s="0" t="n">
-        <v>353020</v>
+        <v>4</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1045" s="0" t="s">
-        <v>2030</v>
+        <v>4</v>
       </c>
       <c r="D1045" s="0" t="s">
         <v>2030</v>
@@ -21019,27 +21025,27 @@
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1046" s="0" t="s">
-        <v>4</v>
+        <v>2031</v>
+      </c>
+      <c r="B1046" s="0" t="n">
+        <v>353020</v>
       </c>
       <c r="C1046" s="0" t="s">
-        <v>4</v>
+        <v>2032</v>
       </c>
       <c r="D1046" s="0" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="0" t="s">
-        <v>2032</v>
-      </c>
-      <c r="B1047" s="0" t="n">
-        <v>212051</v>
+        <v>4</v>
+      </c>
+      <c r="B1047" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1047" s="0" t="s">
-        <v>2033</v>
+        <v>4</v>
       </c>
       <c r="D1047" s="0" t="s">
         <v>2033</v>
@@ -21050,7 +21056,7 @@
         <v>2034</v>
       </c>
       <c r="B1048" s="0" t="n">
-        <v>221151</v>
+        <v>212051</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>2035</v>
@@ -21064,7 +21070,7 @@
         <v>2036</v>
       </c>
       <c r="B1049" s="0" t="n">
-        <v>312100</v>
+        <v>221151</v>
       </c>
       <c r="C1049" s="0" t="s">
         <v>2037</v>
@@ -21078,7 +21084,7 @@
         <v>2038</v>
       </c>
       <c r="B1050" s="0" t="n">
-        <v>358049</v>
+        <v>312100</v>
       </c>
       <c r="C1050" s="0" t="s">
         <v>2039</v>
@@ -21089,27 +21095,27 @@
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1051" s="0" t="s">
-        <v>4</v>
+        <v>2040</v>
+      </c>
+      <c r="B1051" s="0" t="n">
+        <v>358049</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>4</v>
+        <v>2041</v>
       </c>
       <c r="D1051" s="0" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>2041</v>
-      </c>
-      <c r="B1052" s="0" t="n">
-        <v>358022</v>
+        <v>4</v>
+      </c>
+      <c r="B1052" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1052" s="0" t="s">
-        <v>2042</v>
+        <v>4</v>
       </c>
       <c r="D1052" s="0" t="s">
         <v>2042</v>
@@ -21120,7 +21126,7 @@
         <v>2043</v>
       </c>
       <c r="B1053" s="0" t="n">
-        <v>300021</v>
+        <v>358022</v>
       </c>
       <c r="C1053" s="0" t="s">
         <v>2044</v>
@@ -21134,7 +21140,7 @@
         <v>2045</v>
       </c>
       <c r="B1054" s="0" t="n">
-        <v>325010</v>
+        <v>300021</v>
       </c>
       <c r="C1054" s="0" t="s">
         <v>2046</v>
@@ -21145,16 +21151,16 @@
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1055" s="0" t="s">
-        <v>4</v>
+        <v>2047</v>
+      </c>
+      <c r="B1055" s="0" t="n">
+        <v>325010</v>
       </c>
       <c r="C1055" s="0" t="s">
-        <v>4</v>
+        <v>2048</v>
       </c>
       <c r="D1055" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21168,7 +21174,7 @@
         <v>4</v>
       </c>
       <c r="D1056" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21182,7 +21188,7 @@
         <v>4</v>
       </c>
       <c r="D1057" s="0" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21196,18 +21202,18 @@
         <v>4</v>
       </c>
       <c r="D1058" s="0" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B1059" s="0" t="n">
-        <v>354050</v>
+        <v>4</v>
+      </c>
+      <c r="B1059" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1059" s="0" t="s">
-        <v>2052</v>
+        <v>4</v>
       </c>
       <c r="D1059" s="0" t="s">
         <v>2052</v>
@@ -21215,27 +21221,27 @@
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1060" s="0" t="s">
-        <v>4</v>
+        <v>2053</v>
+      </c>
+      <c r="B1060" s="0" t="n">
+        <v>354050</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>4</v>
+        <v>2054</v>
       </c>
       <c r="D1060" s="0" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B1061" s="0" t="n">
-        <v>311210</v>
+        <v>4</v>
+      </c>
+      <c r="B1061" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1061" s="0" t="s">
-        <v>2055</v>
+        <v>4</v>
       </c>
       <c r="D1061" s="0" t="s">
         <v>2055</v>
@@ -21243,27 +21249,27 @@
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1062" s="0" t="s">
-        <v>4</v>
+        <v>2056</v>
+      </c>
+      <c r="B1062" s="0" t="n">
+        <v>311210</v>
       </c>
       <c r="C1062" s="0" t="s">
-        <v>4</v>
+        <v>2057</v>
       </c>
       <c r="D1062" s="0" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B1063" s="0" t="n">
-        <v>300480</v>
+        <v>4</v>
+      </c>
+      <c r="B1063" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C1063" s="0" t="s">
-        <v>2058</v>
+        <v>4</v>
       </c>
       <c r="D1063" s="0" t="s">
         <v>2058</v>
@@ -21274,7 +21280,7 @@
         <v>2059</v>
       </c>
       <c r="B1064" s="0" t="n">
-        <v>344111</v>
+        <v>300480</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>2060</v>
@@ -21288,7 +21294,7 @@
         <v>2061</v>
       </c>
       <c r="B1065" s="0" t="n">
-        <v>300124</v>
+        <v>344111</v>
       </c>
       <c r="C1065" s="0" t="s">
         <v>2062</v>
@@ -21302,7 +21308,7 @@
         <v>2063</v>
       </c>
       <c r="B1066" s="0" t="n">
-        <v>290180</v>
+        <v>300124</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>2064</v>
@@ -21316,7 +21322,7 @@
         <v>2065</v>
       </c>
       <c r="B1067" s="0" t="n">
-        <v>300040</v>
+        <v>290180</v>
       </c>
       <c r="C1067" s="0" t="s">
         <v>2066</v>
@@ -21330,7 +21336,7 @@
         <v>2067</v>
       </c>
       <c r="B1068" s="0" t="n">
-        <v>300120</v>
+        <v>300040</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>2068</v>
@@ -21344,7 +21350,7 @@
         <v>2069</v>
       </c>
       <c r="B1069" s="0" t="n">
-        <v>300242</v>
+        <v>300120</v>
       </c>
       <c r="C1069" s="0" t="s">
         <v>2070</v>
@@ -21358,24 +21364,24 @@
         <v>2071</v>
       </c>
       <c r="B1070" s="0" t="n">
-        <v>341061</v>
+        <v>300242</v>
       </c>
       <c r="C1070" s="0" t="s">
         <v>2072</v>
       </c>
       <c r="D1070" s="0" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1071" s="0" t="n">
+        <v>341061</v>
+      </c>
+      <c r="C1071" s="0" t="s">
         <v>2074</v>
-      </c>
-      <c r="B1071" s="0" t="n">
-        <v>221021</v>
-      </c>
-      <c r="C1071" s="0" t="s">
-        <v>2075</v>
       </c>
       <c r="D1071" s="0" t="s">
         <v>2075</v>
@@ -21386,13 +21392,27 @@
         <v>2076</v>
       </c>
       <c r="B1072" s="0" t="n">
-        <v>327120</v>
+        <v>221021</v>
       </c>
       <c r="C1072" s="0" t="s">
         <v>2077</v>
       </c>
       <c r="D1072" s="0" t="s">
         <v>2077</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="0" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1073" s="0" t="n">
+        <v>327120</v>
+      </c>
+      <c r="C1073" s="0" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1073" s="0" t="s">
+        <v>2079</v>
       </c>
     </row>
   </sheetData>

--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="2080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="2081">
   <si>
     <t xml:space="preserve">db_name</t>
   </si>
@@ -5900,6 +5900,9 @@
   </si>
   <si>
     <t xml:space="preserve">uksichan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulawun</t>
   </si>
   <si>
     <t xml:space="preserve">ulawun</t>
@@ -6368,8 +6371,8 @@
   </sheetPr>
   <dimension ref="A1:F1073"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A916" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D964" activeCellId="0" sqref="D964"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A982" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1009" activeCellId="0" sqref="A1009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20493,44 +20496,44 @@
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1008" s="0" t="s">
-        <v>4</v>
+        <v>1960</v>
+      </c>
+      <c r="B1008" s="0" t="n">
+        <v>252120</v>
       </c>
       <c r="C1008" s="0" t="s">
-        <v>4</v>
+        <v>1961</v>
       </c>
       <c r="D1008" s="0" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1009" s="0" t="n">
         <v>311250</v>
       </c>
       <c r="C1009" s="0" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="D1009" s="0" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1010" s="0" t="n">
         <v>306030</v>
       </c>
       <c r="C1010" s="0" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D1010" s="0" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20544,21 +20547,21 @@
         <v>4</v>
       </c>
       <c r="D1011" s="0" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1012" s="0" t="n">
         <v>263230</v>
       </c>
       <c r="C1012" s="0" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D1012" s="0" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20572,133 +20575,133 @@
         <v>4</v>
       </c>
       <c r="D1013" s="0" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1014" s="0" t="n">
         <v>290191</v>
       </c>
       <c r="C1014" s="0" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D1014" s="0" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1015" s="0" t="n">
         <v>300261</v>
       </c>
       <c r="C1015" s="0" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D1015" s="0" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1016" s="0" t="n">
         <v>343081</v>
       </c>
       <c r="C1016" s="0" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D1016" s="0" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1017" s="0" t="n">
         <v>355838</v>
       </c>
       <c r="C1017" s="0" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D1017" s="0" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1018" s="0" t="n">
         <v>300170</v>
       </c>
       <c r="C1018" s="0" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D1018" s="0" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1019" s="0" t="n">
         <v>300121</v>
       </c>
       <c r="C1019" s="0" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="D1019" s="0" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1020" s="0" t="n">
         <v>300440</v>
       </c>
       <c r="C1020" s="0" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D1020" s="0" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1021" s="0" t="n">
         <v>372010</v>
       </c>
       <c r="C1021" s="0" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D1021" s="0" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1022" s="0" t="n">
         <v>211010</v>
       </c>
       <c r="C1022" s="0" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D1022" s="0" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20712,147 +20715,147 @@
         <v>4</v>
       </c>
       <c r="D1023" s="0" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1024" s="0" t="n">
         <v>358061</v>
       </c>
       <c r="C1024" s="0" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="D1024" s="0" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1025" s="0" t="n">
         <v>357120</v>
       </c>
       <c r="C1025" s="0" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D1025" s="0" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1026" s="0" t="n">
         <v>300083</v>
       </c>
       <c r="C1026" s="0" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="D1026" s="0" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1027" s="0" t="n">
         <v>223050</v>
       </c>
       <c r="C1027" s="0" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D1027" s="0" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1028" s="0" t="n">
         <v>300059</v>
       </c>
       <c r="C1028" s="0" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D1028" s="0" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1029" s="0" t="n">
         <v>344140</v>
       </c>
       <c r="C1029" s="0" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D1029" s="0" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1030" s="0" t="n">
         <v>300720</v>
       </c>
       <c r="C1030" s="0" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D1030" s="0" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1031" s="0" t="n">
         <v>211050</v>
       </c>
       <c r="C1031" s="0" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D1031" s="0" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1032" s="0" t="n">
         <v>211003</v>
       </c>
       <c r="C1032" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D1032" s="0" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1033" s="0" t="n">
         <v>300221</v>
       </c>
       <c r="C1033" s="0" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D1033" s="0" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20866,35 +20869,35 @@
         <v>4</v>
       </c>
       <c r="D1034" s="0" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="0" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B1035" s="0" t="n">
         <v>264060</v>
       </c>
       <c r="C1035" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D1035" s="0" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="0" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B1036" s="0" t="n">
         <v>324030</v>
       </c>
       <c r="C1036" s="0" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D1036" s="0" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20908,105 +20911,105 @@
         <v>4</v>
       </c>
       <c r="D1037" s="0" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B1038" s="0" t="n">
         <v>320150</v>
       </c>
       <c r="C1038" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D1038" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B1039" s="0" t="n">
         <v>321060</v>
       </c>
       <c r="C1039" s="0" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D1039" s="0" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B1040" s="0" t="n">
         <v>311340</v>
       </c>
       <c r="C1040" s="0" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D1040" s="0" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1041" s="0" t="n">
         <v>210010</v>
       </c>
       <c r="C1041" s="0" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D1041" s="0" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="0" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B1042" s="0" t="n">
         <v>241011</v>
       </c>
       <c r="C1042" s="0" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D1042" s="0" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B1043" s="0" t="n">
         <v>241040</v>
       </c>
       <c r="C1043" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D1043" s="0" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="0" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B1044" s="0" t="n">
         <v>263270</v>
       </c>
       <c r="C1044" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21020,21 +21023,21 @@
         <v>4</v>
       </c>
       <c r="D1045" s="0" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B1046" s="0" t="n">
         <v>353020</v>
       </c>
       <c r="C1046" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D1046" s="0" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21048,63 +21051,63 @@
         <v>4</v>
       </c>
       <c r="D1047" s="0" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B1048" s="0" t="n">
         <v>212051</v>
       </c>
       <c r="C1048" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D1048" s="0" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B1049" s="0" t="n">
         <v>221151</v>
       </c>
       <c r="C1049" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="D1049" s="0" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B1050" s="0" t="n">
         <v>312100</v>
       </c>
       <c r="C1050" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D1050" s="0" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B1051" s="0" t="n">
         <v>358049</v>
       </c>
       <c r="C1051" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D1051" s="0" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21118,49 +21121,49 @@
         <v>4</v>
       </c>
       <c r="D1052" s="0" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="0" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B1053" s="0" t="n">
         <v>358022</v>
       </c>
       <c r="C1053" s="0" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D1053" s="0" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B1054" s="0" t="n">
         <v>300021</v>
       </c>
       <c r="C1054" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D1054" s="0" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="0" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B1055" s="0" t="n">
         <v>325010</v>
       </c>
       <c r="C1055" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="D1055" s="0" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21174,7 +21177,7 @@
         <v>4</v>
       </c>
       <c r="D1056" s="0" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21188,7 +21191,7 @@
         <v>4</v>
       </c>
       <c r="D1057" s="0" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21202,7 +21205,7 @@
         <v>4</v>
       </c>
       <c r="D1058" s="0" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21216,21 +21219,21 @@
         <v>4</v>
       </c>
       <c r="D1059" s="0" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B1060" s="0" t="n">
         <v>354050</v>
       </c>
       <c r="C1060" s="0" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="D1060" s="0" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21244,21 +21247,21 @@
         <v>4</v>
       </c>
       <c r="D1061" s="0" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B1062" s="0" t="n">
         <v>311210</v>
       </c>
       <c r="C1062" s="0" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="D1062" s="0" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21272,147 +21275,147 @@
         <v>4</v>
       </c>
       <c r="D1063" s="0" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B1064" s="0" t="n">
         <v>300480</v>
       </c>
       <c r="C1064" s="0" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="D1064" s="0" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B1065" s="0" t="n">
         <v>344111</v>
       </c>
       <c r="C1065" s="0" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="D1065" s="0" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="0" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B1066" s="0" t="n">
         <v>300124</v>
       </c>
       <c r="C1066" s="0" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D1066" s="0" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B1067" s="0" t="n">
         <v>290180</v>
       </c>
       <c r="C1067" s="0" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="D1067" s="0" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B1068" s="0" t="n">
         <v>300040</v>
       </c>
       <c r="C1068" s="0" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="D1068" s="0" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="0" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B1069" s="0" t="n">
         <v>300120</v>
       </c>
       <c r="C1069" s="0" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D1069" s="0" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1070" s="0" t="n">
         <v>300242</v>
       </c>
       <c r="C1070" s="0" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="D1070" s="0" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1071" s="0" t="n">
         <v>341061</v>
       </c>
       <c r="C1071" s="0" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="D1071" s="0" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B1072" s="0" t="n">
         <v>221021</v>
       </c>
       <c r="C1072" s="0" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="D1072" s="0" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="B1073" s="0" t="n">
         <v>327120</v>
       </c>
       <c r="C1073" s="0" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="D1073" s="0" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
   </sheetData>

--- a/mappings.xlsx
+++ b/mappings.xlsx
@@ -6372,10 +6372,10 @@
   <dimension ref="A1:F1073"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A982" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1009" activeCellId="0" sqref="A1009"/>
+      <selection pane="topLeft" activeCell="D1008" activeCellId="0" sqref="D1008"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
